--- a/Quarterly_Yearly_Forecast.xlsx
+++ b/Quarterly_Yearly_Forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/msramirezgo_unal_edu_co/Documents/Oliver Pardo/VAR_VEC-2023/Quarterly Forecasting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/msramirezgo_unal_edu_co/Documents/Oliver Pardo/VAR_VEC-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="13_ncr:1_{E745283E-EFC1-4155-822F-BC1E14BD8D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49A794D-5B69-4B04-84D3-057DA1D43BF4}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{E745283E-EFC1-4155-822F-BC1E14BD8D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD057A5D-0D2C-4C49-B197-834AE2661815}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue Current" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="118">
   <si>
     <t>Lower CI</t>
   </si>
@@ -393,6 +393,9 @@
   <si>
     <t>Upper Bound</t>
   </si>
+  <si>
+    <t>2026-Q1</t>
+  </si>
 </sst>
 </file>
 
@@ -12921,82 +12924,82 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>349.79400000000004</c:v>
+                  <c:v>338.78899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>372.053</c:v>
+                  <c:v>402.37299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.75700000000006</c:v>
+                  <c:v>411.66599999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>421.82199999999995</c:v>
+                  <c:v>433.37099999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>461.99299999999994</c:v>
+                  <c:v>456.22800000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>511.47</c:v>
+                  <c:v>529.82000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>565.94900000000007</c:v>
+                  <c:v>586.46500000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>651.46500000000003</c:v>
+                  <c:v>495.04500000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>732.34400000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>660.27417198000001</c:v>
+                  <c:v>696.73216238000009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>753.76814981488076</c:v>
+                  <c:v>766.15637277488065</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>786.98607629000003</c:v>
+                  <c:v>795.86856776000013</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>825.60152360000006</c:v>
+                  <c:v>814.36172873000021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>851.58038990000011</c:v>
+                  <c:v>865.90432022999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>911.66845306099981</c:v>
+                  <c:v>960.80008016099998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>993.98549002000016</c:v>
+                  <c:v>972.88620311</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1002.5766254499999</c:v>
+                  <c:v>1004.0287535799998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1047.93041249</c:v>
+                  <c:v>1087.9859353200002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1139.3689157599999</c:v>
+                  <c:v>1144.1160055400001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1147.6998944599998</c:v>
+                  <c:v>1141.9491431699998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>944.22107749999998</c:v>
+                  <c:v>874.59354385999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1081.9198835100001</c:v>
+                  <c:v>1164.9753499599999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1215.5774458772098</c:v>
+                  <c:v>1220.0970610729307</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1270.3620312106525</c:v>
+                  <c:v>1291.0773702930728</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1343.1556196759075</c:v>
+                  <c:v>1363.957623438894</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1421.1522053151734</c:v>
+                  <c:v>1442.2107850635657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13201,19 +13204,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1081.9198835100001</c:v>
+                  <c:v>1164.9753499599999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1088.5464155733139</c:v>
+                  <c:v>1088.5665372257781</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1142.8181744548742</c:v>
+                  <c:v>1159.4408680911386</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1215.207135737086</c:v>
+                  <c:v>1230.1565139834449</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1291.0186992710678</c:v>
+                  <c:v>1306.1883870575348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13418,19 +13421,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1081.9198835100001</c:v>
+                  <c:v>1164.9753499599999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1342.6084761811057</c:v>
+                  <c:v>1351.6275849200833</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1397.9058879664308</c:v>
+                  <c:v>1422.7138724950071</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1471.104103614729</c:v>
+                  <c:v>1497.758732894343</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1551.285711359279</c:v>
+                  <c:v>1578.2331830695966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14089,82 +14092,82 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>415.96800000000007</c:v>
+                  <c:v>434.26800000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>458.64500000000004</c:v>
+                  <c:v>441.68299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>478.92700000000002</c:v>
+                  <c:v>452.07799999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>453.036</c:v>
+                  <c:v>494.7109999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>519.16999999999985</c:v>
+                  <c:v>482.30299999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>531.93999999999994</c:v>
+                  <c:v>559.88799999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>601.21699999999987</c:v>
+                  <c:v>634.60799999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>765.66599999999983</c:v>
+                  <c:v>583.97899999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>803.64199999999983</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>699.02092215000027</c:v>
+                  <c:v>735.16709847000016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>769.52165413488069</c:v>
+                  <c:v>782.97575311488072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>816.18445980000013</c:v>
+                  <c:v>846.24377912000011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>877.60812219000002</c:v>
+                  <c:v>840.32247316999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>884.94116020000001</c:v>
+                  <c:v>943.25443187000019</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1000.364199651</c:v>
+                  <c:v>1005.5941812609999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1022.2913205299997</c:v>
+                  <c:v>1000.7241056299997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1039.4190527299997</c:v>
+                  <c:v>1052.1325670799999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1074.2325688299998</c:v>
+                  <c:v>1119.6448917099999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1193.7030679899999</c:v>
+                  <c:v>1186.7892890700002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1176.3436359100001</c:v>
+                  <c:v>1167.8966808600001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>986.58527310999978</c:v>
+                  <c:v>917.25747535999983</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1100.5553590000002</c:v>
+                  <c:v>1180.1695412600002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1224.7405026134306</c:v>
+                  <c:v>1240.6908612486973</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1289.564558095261</c:v>
+                  <c:v>1306.3797790942745</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1356.6039022249129</c:v>
+                  <c:v>1373.3801412357695</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1426.7620831950669</c:v>
+                  <c:v>1444.6057119050956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14369,19 +14372,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1100.5553590000002</c:v>
+                  <c:v>1180.1695412600002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1101.0114206274015</c:v>
+                  <c:v>1113.2536956419638</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1165.9218551402457</c:v>
+                  <c:v>1177.784245246617</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1231.7965590643082</c:v>
+                  <c:v>1243.6621431404146</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1300.3546701482462</c:v>
+                  <c:v>1313.8538618440098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14586,19 +14589,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1100.5553590000002</c:v>
+                  <c:v>1180.1695412600002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1348.4695845994597</c:v>
+                  <c:v>1368.1280268554308</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1413.2072610502762</c:v>
+                  <c:v>1434.9753129419319</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1481.4112453855175</c:v>
+                  <c:v>1503.0981393311245</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1553.1694962418876</c:v>
+                  <c:v>1575.3575619661815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15257,82 +15260,82 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>308.36500000000001</c:v>
+                  <c:v>295.76200000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>333.66499999999996</c:v>
+                  <c:v>338.07599999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>333.44300000000004</c:v>
+                  <c:v>352.23200000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>421.82199999999995</c:v>
+                  <c:v>408.16900000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>467.68400000000008</c:v>
+                  <c:v>502.75000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>561.15100000000007</c:v>
+                  <c:v>548.43100000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>550.83300000000008</c:v>
+                  <c:v>620.74500000000012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>636.11899999999991</c:v>
+                  <c:v>431.31700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>617.85900000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>662.06571777000011</c:v>
+                  <c:v>669.39383190000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>682.7342226999998</c:v>
+                  <c:v>689.82361603499987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>717.37962724332453</c:v>
+                  <c:v>729.10427373832454</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>740.84018700999991</c:v>
+                  <c:v>707.63349533999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>743.62251662000006</c:v>
+                  <c:v>777.38761579000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>817.57029699999998</c:v>
+                  <c:v>839.99212650000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>893.99033670000017</c:v>
+                  <c:v>912.43928128000039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>950.94175564000011</c:v>
+                  <c:v>970.60293389000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1005.8275970499998</c:v>
+                  <c:v>1020.5418203499996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1052.8508957189663</c:v>
+                  <c:v>1058.2177182489665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1084.5036878800001</c:v>
+                  <c:v>1094.2717905499999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1007.37851484</c:v>
+                  <c:v>954.64279659000022</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>933.91422257000011</c:v>
+                  <c:v>947.44959620999987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>948.26605525757611</c:v>
+                  <c:v>942.56556265646827</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>986.58864716687549</c:v>
+                  <c:v>991.97367483273854</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1032.5818080236663</c:v>
+                  <c:v>1042.296504780594</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1083.2419037521072</c:v>
+                  <c:v>1095.0039782797107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15537,19 +15540,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>933.91422257000011</c:v>
+                  <c:v>947.44959620999987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>829.55799264976793</c:v>
+                  <c:v>820.75430814455729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>873.64956673384211</c:v>
+                  <c:v>876.32090188865811</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>925.68131969976821</c:v>
+                  <c:v>932.11782853910813</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>983.83564042246985</c:v>
+                  <c:v>990.78630790072702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15754,19 +15757,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>933.91422257000011</c:v>
+                  <c:v>947.44959620999987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1066.9741178653844</c:v>
+                  <c:v>1064.3768171683794</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1099.5277275999088</c:v>
+                  <c:v>1107.6264477768188</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1139.4822963475644</c:v>
+                  <c:v>1152.4751810220798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1182.6481670817445</c:v>
+                  <c:v>1199.2216486586944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16425,82 +16428,82 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>541.71800000000007</c:v>
+                  <c:v>527.18600000000015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>589.16600000000005</c:v>
+                  <c:v>606.10300000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>593.75200000000007</c:v>
+                  <c:v>588.75900000000013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>627.47</c:v>
+                  <c:v>649.04300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>647.3130000000001</c:v>
+                  <c:v>662.66100000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>684.23900000000026</c:v>
+                  <c:v>640.04800000000012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>648.57799999999986</c:v>
+                  <c:v>735.26299999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>796.505</c:v>
+                  <c:v>554.14999999999986</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>759.46199999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>775.39628517000006</c:v>
+                  <c:v>768.02195972999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>815.86431811</c:v>
+                  <c:v>817.09597832500015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>839.09397344332456</c:v>
+                  <c:v>889.29559805832446</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>902.73986954999987</c:v>
+                  <c:v>852.13213559999986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>922.11267819</c:v>
+                  <c:v>999.67230408</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1099.11804871</c:v>
+                  <c:v>1136.3720733600001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1298.5932168899999</c:v>
+                  <c:v>1262.6756146999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1158.48683035</c:v>
+                  <c:v>1197.91634675</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1177.5957895600002</c:v>
+                  <c:v>1172.4193964200001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1221.2759383789662</c:v>
+                  <c:v>1226.6347248889665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1306.6698483599998</c:v>
+                  <c:v>1346.7050314299997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1352.5125869199999</c:v>
+                  <c:v>1280.0619914200001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1168.0612693</c:v>
+                  <c:v>1198.38383834</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1216.6043675277906</c:v>
+                  <c:v>1205.4800958645992</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1259.7856649722946</c:v>
+                  <c:v>1261.993540260127</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1306.4581192773167</c:v>
+                  <c:v>1316.5442748203004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1358.8556517981892</c:v>
+                  <c:v>1371.3125124074327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16705,19 +16708,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1168.0612693</c:v>
+                  <c:v>1198.38383834</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1085.5753179981546</c:v>
+                  <c:v>1070.5508839947001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1131.2319373688676</c:v>
+                  <c:v>1130.083910920469</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1179.5244630599195</c:v>
+                  <c:v>1185.4777964157129</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1234.0431527813473</c:v>
+                  <c:v>1242.0068873429266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16922,19 +16925,19 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1168.0612693</c:v>
+                  <c:v>1198.38383834</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1347.6334170574266</c:v>
+                  <c:v>1340.4093077344983</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1388.3393925757216</c:v>
+                  <c:v>1393.9031695997851</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1433.3917754947138</c:v>
+                  <c:v>1447.610753224888</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1483.6681508150311</c:v>
+                  <c:v>1500.6181374719388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22061,10 +22064,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -22362,10 +22361,1885 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9AB4B5-1BE8-4F17-BBE0-77B710584B11}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C1048576"/>
+    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105:E106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>106.54600000000005</v>
+      </c>
+      <c r="C2" s="7">
+        <v>628.85799999999995</v>
+      </c>
+      <c r="D2" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>81.504000000000033</v>
+      </c>
+      <c r="C3" s="7">
+        <v>547.76000000000022</v>
+      </c>
+      <c r="D3" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="13">
+        <v>-388.71559999999999</v>
+      </c>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>82.832000000000008</v>
+      </c>
+      <c r="C4" s="7">
+        <v>460.26599999999979</v>
+      </c>
+      <c r="D4" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>78.911999999999978</v>
+      </c>
+      <c r="C5" s="7">
+        <v>607.53800000000001</v>
+      </c>
+      <c r="D5" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>95.540999999999983</v>
+      </c>
+      <c r="C6" s="7">
+        <v>626.04899999999975</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>92.420999999999992</v>
+      </c>
+      <c r="C7" s="7">
+        <v>603.12599999999998</v>
+      </c>
+      <c r="D7" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>87.825999999999965</v>
+      </c>
+      <c r="C8" s="7">
+        <v>507.62699999999995</v>
+      </c>
+      <c r="D8" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>96.265000000000015</v>
+      </c>
+      <c r="C9" s="7">
+        <v>591.54300000000001</v>
+      </c>
+      <c r="D9" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7">
+        <v>125.86100000000005</v>
+      </c>
+      <c r="C10" s="7">
+        <v>659.77199999999982</v>
+      </c>
+      <c r="D10" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R10" s="11">
+        <f>SUM(B11:B14)</f>
+        <v>411.66599999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7">
+        <v>99.787999999999997</v>
+      </c>
+      <c r="C11" s="7">
+        <v>627.21800000000019</v>
+      </c>
+      <c r="D11" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7">
+        <v>98.475999999999985</v>
+      </c>
+      <c r="C12" s="7">
+        <v>535.29599999999982</v>
+      </c>
+      <c r="D12" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7">
+        <v>101.63200000000003</v>
+      </c>
+      <c r="C13" s="7">
+        <v>655.42599999999982</v>
+      </c>
+      <c r="D13" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7">
+        <v>111.76999999999995</v>
+      </c>
+      <c r="C14" s="7">
+        <v>718.18900000000031</v>
+      </c>
+      <c r="D14" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7">
+        <v>100.99400000000001</v>
+      </c>
+      <c r="C15" s="7">
+        <v>661.15100000000029</v>
+      </c>
+      <c r="D15" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>104.18700000000001</v>
+      </c>
+      <c r="C16" s="7">
+        <v>563.19100000000003</v>
+      </c>
+      <c r="D16" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7">
+        <v>104.87099999999998</v>
+      </c>
+      <c r="C17" s="7">
+        <v>667.15499999999997</v>
+      </c>
+      <c r="D17" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7">
+        <v>123.31899999999995</v>
+      </c>
+      <c r="C18" s="7">
+        <v>762.39999999999975</v>
+      </c>
+      <c r="D18" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7">
+        <v>110.58500000000001</v>
+      </c>
+      <c r="C19" s="7">
+        <v>711.36</v>
+      </c>
+      <c r="D19" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="7">
+        <v>118.92500000000003</v>
+      </c>
+      <c r="C20" s="7">
+        <v>592.40000000000009</v>
+      </c>
+      <c r="D20" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7">
+        <v>109.16399999999997</v>
+      </c>
+      <c r="C21" s="7">
+        <v>699.43999999999994</v>
+      </c>
+      <c r="D21" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7">
+        <v>117.55400000000004</v>
+      </c>
+      <c r="C22" s="7">
+        <v>827.50999999999988</v>
+      </c>
+      <c r="D22" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="8">
+        <v>130.97300000000001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>748.577</v>
+      </c>
+      <c r="D23" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="8">
+        <v>128.565</v>
+      </c>
+      <c r="C24" s="8">
+        <v>615.52799999999991</v>
+      </c>
+      <c r="D24" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8">
+        <v>134.37800000000001</v>
+      </c>
+      <c r="C25" s="8">
+        <v>745.42299999999989</v>
+      </c>
+      <c r="D25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="8">
+        <v>135.904</v>
+      </c>
+      <c r="C26" s="8">
+        <v>865.76200000000006</v>
+      </c>
+      <c r="D26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7">
+        <v>138.42400000000006</v>
+      </c>
+      <c r="C27" s="7">
+        <v>806.76600000000008</v>
+      </c>
+      <c r="D27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7">
+        <v>140.78799999999998</v>
+      </c>
+      <c r="C28" s="7">
+        <v>706.2320000000002</v>
+      </c>
+      <c r="D28" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="7">
+        <v>150.83300000000003</v>
+      </c>
+      <c r="C29" s="7">
+        <v>798.68199999999979</v>
+      </c>
+      <c r="D29" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="7">
+        <v>156.41999999999993</v>
+      </c>
+      <c r="C30" s="7">
+        <v>913.76299999999969</v>
+      </c>
+      <c r="D30" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="7">
+        <v>180.51800000000003</v>
+      </c>
+      <c r="C31" s="7">
+        <v>872.37799999999982</v>
+      </c>
+      <c r="D31" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="7">
+        <v>157.43100000000001</v>
+      </c>
+      <c r="C32" s="7">
+        <v>757.65699999999958</v>
+      </c>
+      <c r="D32" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="7">
+        <v>157.09600000000003</v>
+      </c>
+      <c r="C33" s="7">
+        <v>852.88699999999994</v>
+      </c>
+      <c r="D33" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="7">
+        <v>177.25399999999999</v>
+      </c>
+      <c r="C34" s="7">
+        <v>922.3</v>
+      </c>
+      <c r="D34" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="7">
+        <v>194.25899999999993</v>
+      </c>
+      <c r="C35" s="7">
+        <v>898.47199999999975</v>
+      </c>
+      <c r="D35" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="7">
+        <v>202.17600000000002</v>
+      </c>
+      <c r="C36" s="7">
+        <v>779.88400000000013</v>
+      </c>
+      <c r="D36" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="7">
+        <v>158.65500000000003</v>
+      </c>
+      <c r="C37" s="7">
+        <v>856.79599999999982</v>
+      </c>
+      <c r="D37" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="7">
+        <v>157.51169928000004</v>
+      </c>
+      <c r="C38" s="7">
+        <v>873.45</v>
+      </c>
+      <c r="D38" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="7">
+        <v>169.68681117999995</v>
+      </c>
+      <c r="C39" s="7">
+        <v>871.92000000000007</v>
+      </c>
+      <c r="D39" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="7">
+        <v>168.90864814000003</v>
+      </c>
+      <c r="C40" s="7">
+        <v>755.63999999999965</v>
+      </c>
+      <c r="D40" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E40" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="7">
+        <v>164.16701338000004</v>
+      </c>
+      <c r="C41" s="7">
+        <v>866.34000000000026</v>
+      </c>
+      <c r="D41" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="7">
+        <v>193.96968968000007</v>
+      </c>
+      <c r="C42" s="7">
+        <v>928.83200000000033</v>
+      </c>
+      <c r="D42" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="7">
+        <v>195.46830254999995</v>
+      </c>
+      <c r="C43" s="7">
+        <v>887.98400000000026</v>
+      </c>
+      <c r="D43" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="7">
+        <v>176.13721442488068</v>
+      </c>
+      <c r="C44" s="7">
+        <v>768.6600000000002</v>
+      </c>
+      <c r="D44" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="7">
+        <v>188.19294316000006</v>
+      </c>
+      <c r="C45" s="7">
+        <v>899.94399999999996</v>
+      </c>
+      <c r="D45" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="7">
+        <v>206.35791264000002</v>
+      </c>
+      <c r="C46" s="7">
+        <v>993.11999999999989</v>
+      </c>
+      <c r="D46" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="7">
+        <v>188.59719268999996</v>
+      </c>
+      <c r="C47" s="7">
+        <v>905.37599999999975</v>
+      </c>
+      <c r="D47" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="7">
+        <v>200.44267808000004</v>
+      </c>
+      <c r="C48" s="7">
+        <v>803.90399999999988</v>
+      </c>
+      <c r="D48" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E48" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="7">
+        <v>191.5882928800001</v>
+      </c>
+      <c r="C49" s="7">
+        <v>930.23999999999967</v>
+      </c>
+      <c r="D49" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E49" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="7">
+        <v>215.2404041100001</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1047.8910000000001</v>
+      </c>
+      <c r="D50" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="7">
+        <v>202.88877569000002</v>
+      </c>
+      <c r="C51" s="7">
+        <v>958.36</v>
+      </c>
+      <c r="D51" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E51" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="7">
+        <v>196.9361549600001</v>
+      </c>
+      <c r="C52" s="7">
+        <v>823.04499999999985</v>
+      </c>
+      <c r="D52" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="7">
+        <v>210.53618883999994</v>
+      </c>
+      <c r="C53" s="7">
+        <v>982.70700000000033</v>
+      </c>
+      <c r="D53" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="7">
+        <v>204.0006092400001</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1103.751</v>
+      </c>
+      <c r="D54" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="7">
+        <v>226.29757847000005</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1018.4130000000004</v>
+      </c>
+      <c r="D55" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E55" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="7">
+        <v>204.88880079999993</v>
+      </c>
+      <c r="C56" s="7">
+        <v>900.60300000000007</v>
+      </c>
+      <c r="D56" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E56" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="7">
+        <v>216.39340139000001</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1044.0540000000001</v>
+      </c>
+      <c r="D57" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E57" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="7">
+        <v>218.32453956999996</v>
+      </c>
+      <c r="C58" s="7">
+        <v>1099.9000000000003</v>
+      </c>
+      <c r="D58" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E58" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="7">
+        <v>241.09448964000003</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1112</v>
+      </c>
+      <c r="D59" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E59" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="7">
+        <v>242.26563939099992</v>
+      </c>
+      <c r="C60" s="7">
+        <v>970.6</v>
+      </c>
+      <c r="D60" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E60" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="7">
+        <v>209.9837844599999</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1093.4000000000001</v>
+      </c>
+      <c r="D61" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="7">
+        <v>267.45616667000013</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1198.1000000000004</v>
+      </c>
+      <c r="D62" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E62" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="7">
+        <v>250.22814484000003</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1115.4000000000003</v>
+      </c>
+      <c r="D63" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E63" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="7">
+        <v>253.94805741000002</v>
+      </c>
+      <c r="C64" s="7">
+        <v>995.09999999999968</v>
+      </c>
+      <c r="D64" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="7">
+        <v>222.35312109999992</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1111.3</v>
+      </c>
+      <c r="D65" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="7">
+        <v>246.35687975999994</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1225.8126000000002</v>
+      </c>
+      <c r="D66" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="7">
+        <v>258.19464794999999</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1179.4591999999998</v>
+      </c>
+      <c r="D67" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E67" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="7">
+        <v>270.88363899999996</v>
+      </c>
+      <c r="C68" s="7">
+        <v>998.74220000000025</v>
+      </c>
+      <c r="D68" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="7">
+        <v>227.14145874000002</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1114.1152000000004</v>
+      </c>
+      <c r="D69" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="7">
+        <v>247.80900788999998</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1212.0131999999999</v>
+      </c>
+      <c r="D70" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="7">
+        <v>281.27521624000002</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1149.4786999999997</v>
+      </c>
+      <c r="D71" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="7">
+        <v>260.84192627000004</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1018.9444999999997</v>
+      </c>
+      <c r="D72" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E72" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="7">
+        <v>258.00426208999994</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1190.7829999999999</v>
+      </c>
+      <c r="D73" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="7">
+        <v>287.86453072000012</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1220.7428999999997</v>
+      </c>
+      <c r="D74" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E74" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="7">
+        <v>307.71921977999989</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1199.9987999999998</v>
+      </c>
+      <c r="D75" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="7">
+        <v>283.02350774000013</v>
+      </c>
+      <c r="C76" s="7">
+        <v>1024.0424999999998</v>
+      </c>
+      <c r="D76" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E76" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="7">
+        <v>260.76165751999991</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1186.7309999999995</v>
+      </c>
+      <c r="D77" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="7">
+        <v>292.61162050000019</v>
+      </c>
+      <c r="C78" s="7">
+        <v>1295.4327999999998</v>
+      </c>
+      <c r="D78" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E78" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="7">
+        <v>303.14085363999988</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1239.9924000000001</v>
+      </c>
+      <c r="D79" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E79" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="7">
+        <v>282.24866256999991</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1079.3519999999996</v>
+      </c>
+      <c r="D80" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E80" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="7">
+        <v>269.69875774999997</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1220.1095999999998</v>
+      </c>
+      <c r="D81" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="7">
+        <v>286.86086921000009</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1265.077</v>
+      </c>
+      <c r="D82" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="7">
+        <v>195.66436861</v>
+      </c>
+      <c r="C83" s="7">
+        <v>931.40850000000023</v>
+      </c>
+      <c r="D83" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="7">
+        <v>227.44431289999989</v>
+      </c>
+      <c r="C84" s="7">
+        <v>913.01650000000018</v>
+      </c>
+      <c r="D84" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E84" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="7">
+        <v>234.25152678000003</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1050.0160000000003</v>
+      </c>
+      <c r="D85" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E85" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="7">
+        <v>217.23333557000001</v>
+      </c>
+      <c r="C86" s="7">
+        <v>1298.9650000000001</v>
+      </c>
+      <c r="D86" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E86" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="7">
+        <v>275.68580537000014</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1259.6155999999994</v>
+      </c>
+      <c r="D87" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E87" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="7">
+        <v>295.49925432000009</v>
+      </c>
+      <c r="C88" s="7">
+        <v>1122.8709999999996</v>
+      </c>
+      <c r="D88" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E88" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="7">
+        <v>293.50148824999985</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1303.3130000000003</v>
+      </c>
+      <c r="D89" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E89" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="7">
+        <v>300.28880201999988</v>
+      </c>
+      <c r="C90" s="7">
+        <v>1404.7919999999999</v>
+      </c>
+      <c r="D90" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E90" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="7">
+        <v>303.48246922000004</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1431.2790000000002</v>
+      </c>
+      <c r="D91" s="7">
+        <f>B91</f>
+        <v>303.48246922000004</v>
+      </c>
+      <c r="E91" s="7">
+        <f>B91</f>
+        <v>303.48246922000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="9">
+        <v>314.09308978678251</v>
+      </c>
+      <c r="C92" s="9">
+        <v>1220.0964605896806</v>
+      </c>
+      <c r="D92" s="10">
+        <f>B92-(_xlfn.STDEV.P(B2:B91)/2)</f>
+        <v>280.86179043893441</v>
+      </c>
+      <c r="E92" s="10">
+        <f>B92+(_xlfn.STDEV.P(B2:B91)/2)</f>
+        <v>347.32438913463062</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="9">
+        <v>297.71308485042721</v>
+      </c>
+      <c r="C93" s="9">
+        <v>1197.3661642181162</v>
+      </c>
+      <c r="D93" s="10">
+        <f>B93-(_xlfn.STDEV.P(B3:B92)/2)</f>
+        <v>264.17841417040751</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" ref="E93:E105" si="0">B93+(_xlfn.STDEV.P(B3:B92)/2)</f>
+        <v>331.24775553044691</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="9">
+        <v>304.80841721572102</v>
+      </c>
+      <c r="C94" s="9">
+        <v>1345.6675935150922</v>
+      </c>
+      <c r="D94" s="10">
+        <f>B94-(_xlfn.STDEV.P(B4:B93)/2)</f>
+        <v>271.37236897761323</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>338.24446545382881</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="9">
+        <v>319.37638513167741</v>
+      </c>
+      <c r="C95" s="9">
+        <v>1395.2601580946007</v>
+      </c>
+      <c r="D95" s="10">
+        <f t="shared" ref="D95:D105" si="1">B95-(_xlfn.STDEV.P(B5:B94)/2)</f>
+        <v>286.00903436554324</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>352.74373589781158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="9">
+        <v>324.43976026407194</v>
+      </c>
+      <c r="C96" s="9">
+        <v>1318.6122616578523</v>
+      </c>
+      <c r="D96" s="10">
+        <f t="shared" si="1"/>
+        <v>291.09176316612303</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>357.78775736202084</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="9">
+        <v>321.73746859918219</v>
+      </c>
+      <c r="C97" s="9">
+        <v>1299.8490722569481</v>
+      </c>
+      <c r="D97" s="10">
+        <f t="shared" si="1"/>
+        <v>288.25110509493015</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>355.22383210343423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="9">
+        <v>325.52375629814122</v>
+      </c>
+      <c r="C98" s="9">
+        <v>1365.111356000893</v>
+      </c>
+      <c r="D98" s="10">
+        <f t="shared" si="1"/>
+        <v>292.0028790964526</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>359.04463349982984</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="9">
+        <v>334.74288032375983</v>
+      </c>
+      <c r="C99" s="9">
+        <v>1403.7802722757219</v>
+      </c>
+      <c r="D99" s="10">
+        <f t="shared" si="1"/>
+        <v>301.24532441398935</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>368.24043623353032</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="9">
+        <v>340.50209234044354</v>
+      </c>
+      <c r="C100" s="9">
+        <v>1383.6968935395166</v>
+      </c>
+      <c r="D100" s="10">
+        <f t="shared" si="1"/>
+        <v>306.90580189982518</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>374.0983827810619</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="9">
+        <v>342.38689071356288</v>
+      </c>
+      <c r="C101" s="9">
+        <v>1376.8488681421247</v>
+      </c>
+      <c r="D101" s="10">
+        <f t="shared" si="1"/>
+        <v>308.43470447815264</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>376.33907694897312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="9">
+        <v>346.32576006112777</v>
+      </c>
+      <c r="C102" s="9">
+        <v>1408.8108202677597</v>
+      </c>
+      <c r="D102" s="10">
+        <f t="shared" si="1"/>
+        <v>312.26406938739132</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>380.38745073486422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="9">
+        <v>353.0852912129256</v>
+      </c>
+      <c r="C103" s="9">
+        <v>1436.6032405082719</v>
+      </c>
+      <c r="D103" s="10">
+        <f t="shared" si="1"/>
+        <v>318.94053256607322</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>387.23004985977798</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="9">
+        <v>358.88925347107011</v>
+      </c>
+      <c r="C104" s="9">
+        <v>1438.6268547614932</v>
+      </c>
+      <c r="D104" s="10">
+        <f t="shared" si="1"/>
+        <v>324.61588974861002</v>
+      </c>
+      <c r="E104" s="10">
+        <f t="shared" si="0"/>
+        <v>393.1626171935302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="9">
+        <v>362.85190057005013</v>
+      </c>
+      <c r="C105" s="9">
+        <v>1441.3404491523384</v>
+      </c>
+      <c r="D105" s="10">
+        <f t="shared" si="1"/>
+        <v>328.34898362184236</v>
+      </c>
+      <c r="E105" s="10">
+        <f t="shared" si="0"/>
+        <v>397.3548175182579</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="9">
+        <v>367.3843398095201</v>
+      </c>
+      <c r="C106" s="9">
+        <v>1460.925089895587</v>
+      </c>
+      <c r="D106" s="10">
+        <f t="shared" ref="D106" si="2">B106-(_xlfn.STDEV.P(B16:B105)/2)</f>
+        <v>332.77059656531839</v>
+      </c>
+      <c r="E106" s="10">
+        <f t="shared" ref="E106" si="3">B106+(_xlfn.STDEV.P(B16:B105)/2)</f>
+        <v>401.99808305372181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4A1349-5152-4296-BA6A-B5CBC0E8B26F}">
+  <dimension ref="A1:K106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22381,7 +24255,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>109</v>
@@ -22398,7 +24272,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7">
-        <v>106.54600000000005</v>
+        <v>141.05099999999999</v>
       </c>
       <c r="C2" s="7">
         <v>628.85799999999995</v>
@@ -22415,7 +24289,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7">
-        <v>81.504000000000033</v>
+        <v>87.450999999999993</v>
       </c>
       <c r="C3" s="7">
         <v>547.76000000000022</v>
@@ -22430,7 +24304,7 @@
         <v>107</v>
       </c>
       <c r="K3" s="13">
-        <v>-388.71559999999999</v>
+        <v>-359.96</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -22438,7 +24312,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7">
-        <v>82.832000000000008</v>
+        <v>93.252999999999986</v>
       </c>
       <c r="C4" s="7">
         <v>460.26599999999979</v>
@@ -22455,7 +24329,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>78.911999999999978</v>
+        <v>94.213000000000051</v>
       </c>
       <c r="C5" s="7">
         <v>607.53800000000001</v>
@@ -22472,7 +24346,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>95.540999999999983</v>
+        <v>159.35100000000003</v>
       </c>
       <c r="C6" s="7">
         <v>626.04899999999975</v>
@@ -22489,7 +24363,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>92.420999999999992</v>
+        <v>102.76100000000001</v>
       </c>
       <c r="C7" s="7">
         <v>603.12599999999998</v>
@@ -22506,7 +24380,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>87.825999999999965</v>
+        <v>93.940999999999946</v>
       </c>
       <c r="C8" s="7">
         <v>507.62699999999995</v>
@@ -22523,7 +24397,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="7">
-        <v>96.265000000000015</v>
+        <v>102.59200000000003</v>
       </c>
       <c r="C9" s="7">
         <v>591.54300000000001</v>
@@ -22540,7 +24414,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="7">
-        <v>125.86100000000005</v>
+        <v>142.38900000000001</v>
       </c>
       <c r="C10" s="7">
         <v>659.77199999999982</v>
@@ -22557,7 +24431,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="7">
-        <v>99.787999999999997</v>
+        <v>110.90099999999995</v>
       </c>
       <c r="C11" s="7">
         <v>627.21800000000019</v>
@@ -22574,7 +24448,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="7">
-        <v>98.475999999999985</v>
+        <v>102.46999999999997</v>
       </c>
       <c r="C12" s="7">
         <v>535.29599999999982</v>
@@ -22591,7 +24465,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="7">
-        <v>101.63200000000003</v>
+        <v>123.16700000000006</v>
       </c>
       <c r="C13" s="7">
         <v>655.42599999999982</v>
@@ -22608,7 +24482,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="7">
-        <v>111.76999999999995</v>
+        <v>115.53999999999999</v>
       </c>
       <c r="C14" s="7">
         <v>718.18900000000031</v>
@@ -22625,7 +24499,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="7">
-        <v>100.99400000000001</v>
+        <v>107.55400000000004</v>
       </c>
       <c r="C15" s="7">
         <v>661.15100000000029</v>
@@ -22642,7 +24516,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>104.18700000000001</v>
+        <v>110.52499999999996</v>
       </c>
       <c r="C16" s="7">
         <v>563.19100000000003</v>
@@ -22659,7 +24533,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="7">
-        <v>104.87099999999998</v>
+        <v>119.41699999999999</v>
       </c>
       <c r="C17" s="7">
         <v>667.15499999999997</v>
@@ -22676,7 +24550,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="7">
-        <v>123.31899999999995</v>
+        <v>157.21499999999995</v>
       </c>
       <c r="C18" s="7">
         <v>762.39999999999975</v>
@@ -22693,7 +24567,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="7">
-        <v>110.58500000000001</v>
+        <v>114.45900000000002</v>
       </c>
       <c r="C19" s="7">
         <v>711.36</v>
@@ -22710,7 +24584,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="7">
-        <v>118.92500000000003</v>
+        <v>126.72099999999995</v>
       </c>
       <c r="C20" s="7">
         <v>592.40000000000009</v>
@@ -22727,7 +24601,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="7">
-        <v>109.16399999999997</v>
+        <v>120.77499999999996</v>
       </c>
       <c r="C21" s="7">
         <v>699.43999999999994</v>
@@ -22744,7 +24618,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="7">
-        <v>117.55400000000004</v>
+        <v>120.34799999999996</v>
       </c>
       <c r="C22" s="7">
         <v>827.50999999999988</v>
@@ -22761,7 +24635,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="8">
-        <v>130.97300000000001</v>
+        <v>134.68800000000002</v>
       </c>
       <c r="C23" s="8">
         <v>748.577</v>
@@ -22778,7 +24652,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="8">
-        <v>128.565</v>
+        <v>130.42299999999997</v>
       </c>
       <c r="C24" s="8">
         <v>615.52799999999991</v>
@@ -22795,7 +24669,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="8">
-        <v>134.37800000000001</v>
+        <v>146.48099999999999</v>
       </c>
       <c r="C25" s="8">
         <v>745.42299999999989</v>
@@ -22812,7 +24686,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="8">
-        <v>135.904</v>
+        <v>148.29599999999996</v>
       </c>
       <c r="C26" s="8">
         <v>865.76200000000006</v>
@@ -22829,7 +24703,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="7">
-        <v>138.42400000000006</v>
+        <v>142.43599999999998</v>
       </c>
       <c r="C27" s="7">
         <v>806.76600000000008</v>
@@ -22846,7 +24720,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="7">
-        <v>140.78799999999998</v>
+        <v>145.96100000000004</v>
       </c>
       <c r="C28" s="7">
         <v>706.2320000000002</v>
@@ -22863,7 +24737,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="7">
-        <v>150.83300000000003</v>
+        <v>164.52399999999994</v>
       </c>
       <c r="C29" s="7">
         <v>798.68199999999979</v>
@@ -22880,7 +24754,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="7">
-        <v>156.41999999999993</v>
+        <v>181.68699999999995</v>
       </c>
       <c r="C30" s="7">
         <v>913.76299999999969</v>
@@ -22897,7 +24771,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="7">
-        <v>180.51800000000003</v>
+        <v>184.75099999999992</v>
       </c>
       <c r="C31" s="7">
         <v>872.37799999999982</v>
@@ -22914,7 +24788,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="7">
-        <v>157.43100000000001</v>
+        <v>173.63600000000002</v>
       </c>
       <c r="C32" s="7">
         <v>757.65699999999958</v>
@@ -22931,7 +24805,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="7">
-        <v>157.09600000000003</v>
+        <v>225.59199999999998</v>
       </c>
       <c r="C33" s="7">
         <v>852.88699999999994</v>
@@ -22948,7 +24822,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="7">
-        <v>177.25399999999999</v>
+        <v>183.70399999999989</v>
       </c>
       <c r="C34" s="7">
         <v>922.3</v>
@@ -22965,7 +24839,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="7">
-        <v>194.25899999999993</v>
+        <v>196.87399999999994</v>
       </c>
       <c r="C35" s="7">
         <v>898.47199999999975</v>
@@ -22982,7 +24856,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="7">
-        <v>202.17600000000002</v>
+        <v>255.23300000000012</v>
       </c>
       <c r="C36" s="7">
         <v>779.88400000000013</v>
@@ -22999,7 +24873,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="7">
-        <v>158.65500000000003</v>
+        <v>167.83099999999996</v>
       </c>
       <c r="C37" s="7">
         <v>856.79599999999982</v>
@@ -23016,7 +24890,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="7">
-        <v>157.51169928000004</v>
+        <v>164.08897795000004</v>
       </c>
       <c r="C38" s="7">
         <v>873.45</v>
@@ -23033,7 +24907,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="7">
-        <v>169.68681117999995</v>
+        <v>191.89606145000008</v>
       </c>
       <c r="C39" s="7">
         <v>871.92000000000007</v>
@@ -23050,7 +24924,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="7">
-        <v>168.90864814000003</v>
+        <v>170.37540911000005</v>
       </c>
       <c r="C40" s="7">
         <v>755.63999999999965</v>
@@ -23067,7 +24941,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="7">
-        <v>164.16701338000004</v>
+        <v>172.66047364000005</v>
       </c>
       <c r="C41" s="7">
         <v>866.34000000000026</v>
@@ -23084,7 +24958,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="7">
-        <v>193.96968968000007</v>
+        <v>200.23515426999995</v>
       </c>
       <c r="C42" s="7">
         <v>928.83200000000033</v>
@@ -23101,7 +24975,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="7">
-        <v>195.46830254999995</v>
+        <v>197.66144177000004</v>
       </c>
       <c r="C43" s="7">
         <v>887.98400000000026</v>
@@ -23118,7 +24992,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="7">
-        <v>176.13721442488068</v>
+        <v>178.19545282488073</v>
       </c>
       <c r="C44" s="7">
         <v>768.6600000000002</v>
@@ -23135,7 +25009,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="7">
-        <v>188.19294316000006</v>
+        <v>193.42960527000005</v>
       </c>
       <c r="C45" s="7">
         <v>899.94399999999996</v>
@@ -23152,7 +25026,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="7">
-        <v>206.35791264000002</v>
+        <v>213.68925324999992</v>
       </c>
       <c r="C46" s="7">
         <v>993.11999999999989</v>
@@ -23169,7 +25043,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="7">
-        <v>188.59719268999996</v>
+        <v>191.24320797000001</v>
       </c>
       <c r="C47" s="7">
         <v>905.37599999999975</v>
@@ -23186,7 +25060,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="7">
-        <v>200.44267808000004</v>
+        <v>209.60751338000011</v>
       </c>
       <c r="C48" s="7">
         <v>803.90399999999988</v>
@@ -23203,7 +25077,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="7">
-        <v>191.5882928800001</v>
+        <v>201.64448520000008</v>
       </c>
       <c r="C49" s="7">
         <v>930.23999999999967</v>
@@ -23220,7 +25094,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="7">
-        <v>215.2404041100001</v>
+        <v>243.74857256999994</v>
       </c>
       <c r="C50" s="7">
         <v>1047.8910000000001</v>
@@ -23237,7 +25111,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="7">
-        <v>202.88877569000002</v>
+        <v>205.43492594000003</v>
       </c>
       <c r="C51" s="7">
         <v>958.36</v>
@@ -23254,7 +25128,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="7">
-        <v>196.9361549600001</v>
+        <v>215.77461962000001</v>
       </c>
       <c r="C52" s="7">
         <v>823.04499999999985</v>
@@ -23271,7 +25145,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="7">
-        <v>210.53618883999994</v>
+        <v>212.65000405999999</v>
       </c>
       <c r="C53" s="7">
         <v>982.70700000000033</v>
@@ -23288,7 +25162,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="7">
-        <v>204.0006092400001</v>
+        <v>206.46292354999997</v>
       </c>
       <c r="C54" s="7">
         <v>1103.751</v>
@@ -23305,7 +25179,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="7">
-        <v>226.29757847000005</v>
+        <v>238.89022143000005</v>
       </c>
       <c r="C55" s="7">
         <v>1018.4130000000004</v>
@@ -23322,7 +25196,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="7">
-        <v>204.88880079999993</v>
+        <v>217.85516854999995</v>
       </c>
       <c r="C56" s="7">
         <v>900.60300000000007</v>
@@ -23339,7 +25213,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="7">
-        <v>216.39340139000001</v>
+        <v>221.73284667000001</v>
       </c>
       <c r="C57" s="7">
         <v>1044.0540000000001</v>
@@ -23356,7 +25230,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="7">
-        <v>218.32453956999996</v>
+        <v>264.77619522000003</v>
       </c>
       <c r="C58" s="7">
         <v>1099.9000000000003</v>
@@ -23373,7 +25247,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="7">
-        <v>241.09448964000003</v>
+        <v>260.68343256999998</v>
       </c>
       <c r="C59" s="7">
         <v>1112</v>
@@ -23390,7 +25264,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="7">
-        <v>242.26563939099992</v>
+        <v>244.55178134100004</v>
       </c>
       <c r="C60" s="7">
         <v>970.6</v>
@@ -23407,7 +25281,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="7">
-        <v>209.9837844599999</v>
+        <v>230.35279052000001</v>
       </c>
       <c r="C61" s="7">
         <v>1093.4000000000001</v>
@@ -23424,7 +25298,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="7">
-        <v>267.45616667000013</v>
+        <v>270.0061768299999</v>
       </c>
       <c r="C62" s="7">
         <v>1198.1000000000004</v>
@@ -23441,7 +25315,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="7">
-        <v>250.22814484000003</v>
+        <v>264.68919293999994</v>
       </c>
       <c r="C63" s="7">
         <v>1115.4000000000003</v>
@@ -23458,7 +25332,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="7">
-        <v>253.94805741000002</v>
+        <v>257.90628170999992</v>
       </c>
       <c r="C64" s="7">
         <v>995.09999999999968</v>
@@ -23475,7 +25349,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="7">
-        <v>222.35312109999992</v>
+        <v>229.68966904999991</v>
       </c>
       <c r="C65" s="7">
         <v>1111.3</v>
@@ -23492,7 +25366,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="7">
-        <v>246.35687975999994</v>
+        <v>248.43896192999995</v>
       </c>
       <c r="C66" s="7">
         <v>1225.8126000000002</v>
@@ -23509,7 +25383,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="7">
-        <v>258.19464794999999</v>
+        <v>262.13161281999999</v>
       </c>
       <c r="C67" s="7">
         <v>1179.4591999999998</v>
@@ -23526,7 +25400,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="7">
-        <v>270.88363899999996</v>
+        <v>294.90792378999987</v>
       </c>
       <c r="C68" s="7">
         <v>998.74220000000025</v>
@@ -23543,7 +25417,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="7">
-        <v>227.14145874000002</v>
+        <v>233.94055419000006</v>
       </c>
       <c r="C69" s="7">
         <v>1114.1152000000004</v>
@@ -23560,7 +25434,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="7">
-        <v>247.80900788999998</v>
+        <v>261.15247627999997</v>
       </c>
       <c r="C70" s="7">
         <v>1212.0131999999999</v>
@@ -23577,7 +25451,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="7">
-        <v>281.27521624000002</v>
+        <v>282.06420256999991</v>
       </c>
       <c r="C71" s="7">
         <v>1149.4786999999997</v>
@@ -23594,7 +25468,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="7">
-        <v>260.84192627000004</v>
+        <v>271.52714225000005</v>
       </c>
       <c r="C72" s="7">
         <v>1018.9444999999997</v>
@@ -23611,7 +25485,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="7">
-        <v>258.00426208999994</v>
+        <v>259.48874773</v>
       </c>
       <c r="C73" s="7">
         <v>1190.7829999999999</v>
@@ -23628,7 +25502,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="7">
-        <v>287.86453072000012</v>
+        <v>306.56479915999995</v>
       </c>
       <c r="C74" s="7">
         <v>1220.7428999999997</v>
@@ -23645,7 +25519,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="7">
-        <v>307.71921977999989</v>
+        <v>309.04682103999994</v>
       </c>
       <c r="C75" s="7">
         <v>1199.9987999999998</v>
@@ -23662,7 +25536,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="7">
-        <v>283.02350774000013</v>
+        <v>295.59756844000003</v>
       </c>
       <c r="C76" s="7">
         <v>1024.0424999999998</v>
@@ -23679,7 +25553,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="7">
-        <v>260.76165751999991</v>
+        <v>282.49387935000004</v>
       </c>
       <c r="C77" s="7">
         <v>1186.7309999999995</v>
@@ -23696,7 +25570,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="7">
-        <v>292.61162050000019</v>
+        <v>299.65102024000021</v>
       </c>
       <c r="C78" s="7">
         <v>1295.4327999999998</v>
@@ -23713,7 +25587,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="7">
-        <v>303.14085363999988</v>
+        <v>306.83141096000008</v>
       </c>
       <c r="C79" s="7">
         <v>1239.9924000000001</v>
@@ -23730,7 +25604,7 @@
         <v>81</v>
       </c>
       <c r="B80" s="7">
-        <v>282.24866256999991</v>
+        <v>286.22966956999988</v>
       </c>
       <c r="C80" s="7">
         <v>1079.3519999999996</v>
@@ -23747,7 +25621,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="7">
-        <v>269.69875774999997</v>
+        <v>283.63153513999998</v>
       </c>
       <c r="C81" s="7">
         <v>1220.1095999999998</v>
@@ -23764,7 +25638,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="7">
-        <v>286.86086921000009</v>
+        <v>291.20406519000005</v>
       </c>
       <c r="C82" s="7">
         <v>1265.077</v>
@@ -23781,7 +25655,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="7">
-        <v>195.66436861</v>
+        <v>209.37430377999991</v>
       </c>
       <c r="C83" s="7">
         <v>931.40850000000023</v>
@@ -23798,7 +25672,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="7">
-        <v>227.44431289999989</v>
+        <v>242.13192538999994</v>
       </c>
       <c r="C84" s="7">
         <v>913.01650000000018</v>
@@ -23815,7 +25689,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="7">
-        <v>234.25152678000003</v>
+        <v>243.87497874999997</v>
       </c>
       <c r="C85" s="7">
         <v>1050.0160000000003</v>
@@ -23832,7 +25706,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="7">
-        <v>217.23333557000001</v>
+        <v>221.87626743999999</v>
       </c>
       <c r="C86" s="7">
         <v>1298.9650000000001</v>
@@ -23849,7 +25723,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="7">
-        <v>275.68580537000014</v>
+        <v>278.50246902000015</v>
       </c>
       <c r="C87" s="7">
         <v>1259.6155999999994</v>
@@ -23866,7 +25740,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="7">
-        <v>295.49925432000009</v>
+        <v>302.58150968000012</v>
       </c>
       <c r="C88" s="7">
         <v>1122.8709999999996</v>
@@ -23883,7 +25757,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="7">
-        <v>293.50148824999985</v>
+        <v>297.59511285999997</v>
       </c>
       <c r="C89" s="7">
         <v>1303.3130000000003</v>
@@ -23900,7 +25774,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="7">
-        <v>300.28880201999988</v>
+        <v>301.49044969999989</v>
       </c>
       <c r="C90" s="7">
         <v>1404.7919999999999</v>
@@ -23917,18 +25791,18 @@
         <v>92</v>
       </c>
       <c r="B91" s="7">
-        <v>303.48246922000004</v>
+        <v>307.18077727000019</v>
       </c>
       <c r="C91" s="7">
         <v>1431.2790000000002</v>
       </c>
       <c r="D91" s="7">
         <f>B91</f>
-        <v>303.48246922000004</v>
+        <v>307.18077727000019</v>
       </c>
       <c r="E91" s="7">
         <f>B91</f>
-        <v>303.48246922000004</v>
+        <v>307.18077727000019</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -23936,18 +25810,18 @@
         <v>93</v>
       </c>
       <c r="B92" s="9">
-        <v>314.09308978678251</v>
+        <v>308.48536355354537</v>
       </c>
       <c r="C92" s="9">
-        <v>1220.0964605896806</v>
+        <v>1379.2359164799009</v>
       </c>
       <c r="D92" s="10">
         <f>B92-(_xlfn.STDEV.P(B2:B91)/2)</f>
-        <v>280.86179043893441</v>
+        <v>275.74771395635759</v>
       </c>
       <c r="E92" s="10">
         <f>B92+(_xlfn.STDEV.P(B2:B91)/2)</f>
-        <v>347.32438913463062</v>
+        <v>341.22301315073315</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -23955,18 +25829,18 @@
         <v>94</v>
       </c>
       <c r="B93" s="9">
-        <v>297.71308485042721</v>
+        <v>307.58391208988525</v>
       </c>
       <c r="C93" s="9">
-        <v>1197.3661642181162</v>
+        <v>1396.0095857672588</v>
       </c>
       <c r="D93" s="10">
         <f>B93-(_xlfn.STDEV.P(B3:B92)/2)</f>
-        <v>264.17841417040751</v>
+        <v>274.55274630157874</v>
       </c>
       <c r="E93" s="10">
         <f t="shared" ref="E93:E105" si="0">B93+(_xlfn.STDEV.P(B3:B92)/2)</f>
-        <v>331.24775553044691</v>
+        <v>340.61507787819176</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -23974,18 +25848,18 @@
         <v>95</v>
       </c>
       <c r="B94" s="9">
-        <v>304.80841721572102</v>
+        <v>317.44080833526652</v>
       </c>
       <c r="C94" s="9">
-        <v>1345.6675935150922</v>
+        <v>1459.5131104816787</v>
       </c>
       <c r="D94" s="10">
         <f>B94-(_xlfn.STDEV.P(B4:B93)/2)</f>
-        <v>271.37236897761323</v>
+        <v>284.57018043068786</v>
       </c>
       <c r="E94" s="10">
         <f t="shared" si="0"/>
-        <v>338.24446545382881</v>
+        <v>350.31143623984519</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -23993,18 +25867,18 @@
         <v>96</v>
       </c>
       <c r="B95" s="9">
-        <v>319.37638513167741</v>
+        <v>323.76369642820646</v>
       </c>
       <c r="C95" s="9">
-        <v>1395.2601580946007</v>
+        <v>1470.2021186281575</v>
       </c>
       <c r="D95" s="10">
         <f t="shared" ref="D95:D105" si="1">B95-(_xlfn.STDEV.P(B5:B94)/2)</f>
-        <v>286.00903436554324</v>
+        <v>290.9554562566783</v>
       </c>
       <c r="E95" s="10">
         <f t="shared" si="0"/>
-        <v>352.74373589781158</v>
+        <v>356.57193659973461</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -24012,18 +25886,18 @@
         <v>100</v>
       </c>
       <c r="B96" s="9">
-        <v>324.43976026407194</v>
+        <v>322.32985179136</v>
       </c>
       <c r="C96" s="9">
-        <v>1318.6122616578523</v>
+        <v>1449.3287030798299</v>
       </c>
       <c r="D96" s="10">
         <f t="shared" si="1"/>
-        <v>291.09176316612303</v>
+        <v>289.56379887252626</v>
       </c>
       <c r="E96" s="10">
         <f t="shared" si="0"/>
-        <v>357.78775736202084</v>
+        <v>355.09590471019374</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -24031,18 +25905,18 @@
         <v>97</v>
       </c>
       <c r="B97" s="9">
-        <v>321.73746859918219</v>
+        <v>326.03020154042804</v>
       </c>
       <c r="C97" s="9">
-        <v>1299.8490722569481</v>
+        <v>1471.5048961022451</v>
       </c>
       <c r="D97" s="10">
         <f t="shared" si="1"/>
-        <v>288.25110509493015</v>
+        <v>292.88633810873273</v>
       </c>
       <c r="E97" s="10">
         <f t="shared" si="0"/>
-        <v>355.22383210343423</v>
+        <v>359.17406497212335</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -24050,18 +25924,18 @@
         <v>98</v>
       </c>
       <c r="B98" s="9">
-        <v>325.52375629814122</v>
+        <v>334.25602933427996</v>
       </c>
       <c r="C98" s="9">
-        <v>1365.111356000893</v>
+        <v>1515.9555211063293</v>
       </c>
       <c r="D98" s="10">
         <f t="shared" si="1"/>
-        <v>292.0028790964526</v>
+        <v>301.1325409796317</v>
       </c>
       <c r="E98" s="10">
         <f t="shared" si="0"/>
-        <v>359.04463349982984</v>
+        <v>367.37951768892822</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -24069,18 +25943,18 @@
         <v>99</v>
       </c>
       <c r="B99" s="9">
-        <v>334.74288032375983</v>
+        <v>338.35362696676248</v>
       </c>
       <c r="C99" s="9">
-        <v>1403.7802722757219</v>
+        <v>1524.4337490615944</v>
       </c>
       <c r="D99" s="10">
         <f t="shared" si="1"/>
-        <v>301.24532441398935</v>
+        <v>305.31006336335042</v>
       </c>
       <c r="E99" s="10">
         <f t="shared" si="0"/>
-        <v>368.24043623353032</v>
+        <v>371.39719057017453</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -24088,18 +25962,18 @@
         <v>101</v>
       </c>
       <c r="B100" s="9">
-        <v>340.50209234044354</v>
+        <v>339.66950714250294</v>
       </c>
       <c r="C100" s="9">
-        <v>1383.6968935395166</v>
+        <v>1519.1868371308415</v>
       </c>
       <c r="D100" s="10">
         <f t="shared" si="1"/>
-        <v>306.90580189982518</v>
+        <v>306.63053516782355</v>
       </c>
       <c r="E100" s="10">
         <f t="shared" si="0"/>
-        <v>374.0983827810619</v>
+        <v>372.70847911718232</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -24107,18 +25981,18 @@
         <v>102</v>
       </c>
       <c r="B101" s="9">
-        <v>342.38689071356288</v>
+        <v>344.32473878136761</v>
       </c>
       <c r="C101" s="9">
-        <v>1376.8488681421247</v>
+        <v>1543.9186193146274</v>
       </c>
       <c r="D101" s="10">
         <f t="shared" si="1"/>
-        <v>308.43470447815264</v>
+        <v>310.98987816793692</v>
       </c>
       <c r="E101" s="10">
         <f t="shared" si="0"/>
-        <v>376.33907694897312</v>
+        <v>377.65959939479831</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -24126,18 +26000,18 @@
         <v>103</v>
       </c>
       <c r="B102" s="9">
-        <v>346.32576006112777</v>
+        <v>351.03226834513652</v>
       </c>
       <c r="C102" s="9">
-        <v>1408.8108202677597</v>
+        <v>1576.8470508006831</v>
       </c>
       <c r="D102" s="10">
         <f t="shared" si="1"/>
-        <v>312.26406938739132</v>
+        <v>317.65639498104474</v>
       </c>
       <c r="E102" s="10">
         <f t="shared" si="0"/>
-        <v>380.38745073486422</v>
+        <v>384.40814170922829</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -24145,18 +26019,18 @@
         <v>104</v>
       </c>
       <c r="B103" s="9">
-        <v>353.0852912129256</v>
+        <v>355.06482395963326</v>
       </c>
       <c r="C103" s="9">
-        <v>1436.6032405082719</v>
+        <v>1585.6833723390823</v>
       </c>
       <c r="D103" s="10">
         <f t="shared" si="1"/>
-        <v>318.94053256607322</v>
+        <v>321.71853866711342</v>
       </c>
       <c r="E103" s="10">
         <f t="shared" si="0"/>
-        <v>387.23004985977798</v>
+        <v>388.4111092521531</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -24164,18 +26038,18 @@
         <v>105</v>
       </c>
       <c r="B104" s="9">
-        <v>358.88925347107011</v>
+        <v>357.78946513932783</v>
       </c>
       <c r="C104" s="9">
-        <v>1438.6268547614932</v>
+        <v>1590.9788713048633</v>
       </c>
       <c r="D104" s="10">
         <f t="shared" si="1"/>
-        <v>324.61588974861002</v>
+        <v>324.28388488771122</v>
       </c>
       <c r="E104" s="10">
         <f t="shared" si="0"/>
-        <v>393.1626171935302</v>
+        <v>391.29504539094444</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -24183,18 +26057,37 @@
         <v>106</v>
       </c>
       <c r="B105" s="9">
-        <v>362.85190057005013</v>
+        <v>362.87552575096925</v>
       </c>
       <c r="C105" s="9">
-        <v>1441.3404491523384</v>
+        <v>1615.6917853155112</v>
       </c>
       <c r="D105" s="10">
         <f t="shared" si="1"/>
-        <v>328.34898362184236</v>
+        <v>329.30612828414962</v>
       </c>
       <c r="E105" s="10">
         <f t="shared" si="0"/>
-        <v>397.3548175182579</v>
+        <v>396.44492321778887</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="9">
+        <v>368.87589705516535</v>
+      </c>
+      <c r="C106" s="9">
+        <v>1641.7066484359609</v>
+      </c>
+      <c r="D106" s="10">
+        <f t="shared" ref="D106" si="2">B106-(_xlfn.STDEV.P(B16:B105)/2)</f>
+        <v>335.32834501461934</v>
+      </c>
+      <c r="E106" s="10">
+        <f t="shared" ref="E106" si="3">B106+(_xlfn.STDEV.P(B16:B105)/2)</f>
+        <v>402.42344909571136</v>
       </c>
     </row>
   </sheetData>
@@ -24204,12 +26097,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4A1349-5152-4296-BA6A-B5CBC0E8B26F}">
-  <dimension ref="A1:K105"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD733903-6132-4601-82D1-0EC76750991E}">
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C1048576"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24225,7 +26118,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>109</v>
@@ -24242,7 +26135,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7">
-        <v>141.05099999999999</v>
+        <v>86.824000000000012</v>
       </c>
       <c r="C2" s="7">
         <v>628.85799999999995</v>
@@ -24259,7 +26152,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7">
-        <v>87.450999999999993</v>
+        <v>72.205999999999989</v>
       </c>
       <c r="C3" s="7">
         <v>547.76000000000022</v>
@@ -24274,7 +26167,7 @@
         <v>107</v>
       </c>
       <c r="K3" s="13">
-        <v>-359.96</v>
+        <v>-408.25060000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -24282,7 +26175,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7">
-        <v>93.252999999999986</v>
+        <v>74.881000000000014</v>
       </c>
       <c r="C4" s="7">
         <v>460.26599999999979</v>
@@ -24299,7 +26192,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>94.213000000000051</v>
+        <v>74.453999999999994</v>
       </c>
       <c r="C5" s="7">
         <v>607.53800000000001</v>
@@ -24316,7 +26209,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>159.35100000000003</v>
+        <v>74.221000000000032</v>
       </c>
       <c r="C6" s="7">
         <v>626.04899999999975</v>
@@ -24333,7 +26226,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>102.76100000000001</v>
+        <v>85.82399999999997</v>
       </c>
       <c r="C7" s="7">
         <v>603.12599999999998</v>
@@ -24350,7 +26243,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="7">
-        <v>93.940999999999946</v>
+        <v>80.031999999999996</v>
       </c>
       <c r="C8" s="7">
         <v>507.62699999999995</v>
@@ -24367,7 +26260,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="7">
-        <v>102.59200000000003</v>
+        <v>93.587999999999994</v>
       </c>
       <c r="C9" s="7">
         <v>591.54300000000001</v>
@@ -24384,7 +26277,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="7">
-        <v>142.38900000000001</v>
+        <v>78.632000000000019</v>
       </c>
       <c r="C10" s="7">
         <v>659.77199999999982</v>
@@ -24401,7 +26294,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="7">
-        <v>110.90099999999995</v>
+        <v>81.028999999999996</v>
       </c>
       <c r="C11" s="7">
         <v>627.21800000000019</v>
@@ -24418,7 +26311,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="7">
-        <v>102.46999999999997</v>
+        <v>82.414000000000016</v>
       </c>
       <c r="C12" s="7">
         <v>535.29599999999982</v>
@@ -24435,7 +26328,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="7">
-        <v>123.16700000000006</v>
+        <v>91.368000000000009</v>
       </c>
       <c r="C13" s="7">
         <v>655.42599999999982</v>
@@ -24452,7 +26345,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="7">
-        <v>115.53999999999999</v>
+        <v>97.421000000000006</v>
       </c>
       <c r="C14" s="7">
         <v>718.18900000000031</v>
@@ -24469,7 +26362,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="7">
-        <v>107.55400000000004</v>
+        <v>95.399000000000029</v>
       </c>
       <c r="C15" s="7">
         <v>661.15100000000029</v>
@@ -24486,7 +26379,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>110.52499999999996</v>
+        <v>97.809999999999988</v>
       </c>
       <c r="C16" s="7">
         <v>563.19100000000003</v>
@@ -24503,7 +26396,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="7">
-        <v>119.41699999999999</v>
+        <v>102.41600000000004</v>
       </c>
       <c r="C17" s="7">
         <v>667.15499999999997</v>
@@ -24520,7 +26413,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="7">
-        <v>157.21499999999995</v>
+        <v>112.544</v>
       </c>
       <c r="C18" s="7">
         <v>762.39999999999975</v>
@@ -24537,7 +26430,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="7">
-        <v>114.45900000000002</v>
+        <v>116.08400000000005</v>
       </c>
       <c r="C19" s="7">
         <v>711.36</v>
@@ -24554,7 +26447,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="7">
-        <v>126.72099999999995</v>
+        <v>113.26600000000002</v>
       </c>
       <c r="C20" s="7">
         <v>592.40000000000009</v>
@@ -24571,7 +26464,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="7">
-        <v>120.77499999999996</v>
+        <v>125.78999999999999</v>
       </c>
       <c r="C21" s="7">
         <v>699.43999999999994</v>
@@ -24588,7 +26481,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="7">
-        <v>120.34799999999996</v>
+        <v>147.60999999999999</v>
       </c>
       <c r="C22" s="7">
         <v>827.50999999999988</v>
@@ -24605,7 +26498,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="8">
-        <v>134.68800000000002</v>
+        <v>143.42400000000004</v>
       </c>
       <c r="C23" s="8">
         <v>748.577</v>
@@ -24622,7 +26515,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="8">
-        <v>130.42299999999997</v>
+        <v>132.68800000000005</v>
       </c>
       <c r="C24" s="8">
         <v>615.52799999999991</v>
@@ -24639,7 +26532,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="8">
-        <v>146.48099999999999</v>
+        <v>137.429</v>
       </c>
       <c r="C25" s="8">
         <v>745.42299999999989</v>
@@ -24656,7 +26549,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="8">
-        <v>148.29599999999996</v>
+        <v>134.88999999999996</v>
       </c>
       <c r="C26" s="8">
         <v>865.76200000000006</v>
@@ -24673,7 +26566,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="7">
-        <v>142.43599999999998</v>
+        <v>140.88300000000004</v>
       </c>
       <c r="C27" s="7">
         <v>806.76600000000008</v>
@@ -24690,7 +26583,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="7">
-        <v>145.96100000000004</v>
+        <v>143.06800000000007</v>
       </c>
       <c r="C28" s="7">
         <v>706.2320000000002</v>
@@ -24707,7 +26600,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="7">
-        <v>164.52399999999994</v>
+        <v>131.99200000000002</v>
       </c>
       <c r="C29" s="7">
         <v>798.68199999999979</v>
@@ -24724,7 +26617,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="7">
-        <v>181.68699999999995</v>
+        <v>204.80199999999996</v>
       </c>
       <c r="C30" s="7">
         <v>913.76299999999969</v>
@@ -24741,7 +26634,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="7">
-        <v>184.75099999999992</v>
+        <v>129.82499999999996</v>
       </c>
       <c r="C31" s="7">
         <v>872.37799999999982</v>
@@ -24758,7 +26651,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="7">
-        <v>173.63600000000002</v>
+        <v>157.17800000000005</v>
       </c>
       <c r="C32" s="7">
         <v>757.65699999999958</v>
@@ -24775,7 +26668,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="7">
-        <v>225.59199999999998</v>
+        <v>144.31399999999996</v>
       </c>
       <c r="C33" s="7">
         <v>852.88699999999994</v>
@@ -24792,7 +26685,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="7">
-        <v>183.70399999999989</v>
+        <v>165.96200000000002</v>
       </c>
       <c r="C34" s="7">
         <v>922.3</v>
@@ -24809,7 +26702,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="7">
-        <v>196.87399999999994</v>
+        <v>136.71999999999994</v>
       </c>
       <c r="C35" s="7">
         <v>898.47199999999975</v>
@@ -24826,7 +26719,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="7">
-        <v>255.23300000000012</v>
+        <v>167.11099999999999</v>
       </c>
       <c r="C36" s="7">
         <v>779.88400000000013</v>
@@ -24843,7 +26736,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="7">
-        <v>167.83099999999996</v>
+        <v>148.06600000000006</v>
       </c>
       <c r="C37" s="7">
         <v>856.79599999999982</v>
@@ -24860,7 +26753,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="7">
-        <v>164.08897795000004</v>
+        <v>182.01987484999998</v>
       </c>
       <c r="C38" s="7">
         <v>873.45</v>
@@ -24877,7 +26770,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="7">
-        <v>191.89606145000008</v>
+        <v>143.89108537000004</v>
       </c>
       <c r="C39" s="7">
         <v>871.92000000000007</v>
@@ -24894,7 +26787,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="7">
-        <v>170.37540911000005</v>
+        <v>180.31404416000007</v>
       </c>
       <c r="C40" s="7">
         <v>755.63999999999965</v>
@@ -24911,7 +26804,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="7">
-        <v>172.66047364000005</v>
+        <v>155.84071339000005</v>
       </c>
       <c r="C41" s="7">
         <v>866.34000000000026</v>
@@ -24928,7 +26821,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="7">
-        <v>200.23515426999995</v>
+        <v>189.34798897999988</v>
       </c>
       <c r="C42" s="7">
         <v>928.83200000000033</v>
@@ -24945,7 +26838,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="7">
-        <v>197.66144177000004</v>
+        <v>147.44692452999996</v>
       </c>
       <c r="C43" s="7">
         <v>887.98400000000026</v>
@@ -24962,7 +26855,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="7">
-        <v>178.19545282488073</v>
+        <v>188.5039521299999</v>
       </c>
       <c r="C44" s="7">
         <v>768.6600000000002</v>
@@ -24979,7 +26872,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="7">
-        <v>193.42960527000005</v>
+        <v>157.43535706</v>
       </c>
       <c r="C45" s="7">
         <v>899.94399999999996</v>
@@ -24996,7 +26889,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="7">
-        <v>213.68925324999992</v>
+        <v>196.43738231500006</v>
       </c>
       <c r="C46" s="7">
         <v>993.11999999999989</v>
@@ -25013,7 +26906,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="7">
-        <v>191.24320797000001</v>
+        <v>164.93480777000008</v>
       </c>
       <c r="C47" s="7">
         <v>905.37599999999975</v>
@@ -25030,7 +26923,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="7">
-        <v>209.60751338000011</v>
+        <v>195.63475356999996</v>
       </c>
       <c r="C48" s="7">
         <v>803.90399999999988</v>
@@ -25047,7 +26940,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="7">
-        <v>201.64448520000008</v>
+        <v>160.37268358832446</v>
       </c>
       <c r="C49" s="7">
         <v>930.23999999999967</v>
@@ -25064,7 +26957,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="7">
-        <v>243.74857256999994</v>
+        <v>208.16202881000001</v>
       </c>
       <c r="C50" s="7">
         <v>1047.8910000000001</v>
@@ -25081,7 +26974,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="7">
-        <v>205.43492594000003</v>
+        <v>166.01612457999991</v>
       </c>
       <c r="C51" s="7">
         <v>958.36</v>
@@ -25098,7 +26991,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="7">
-        <v>215.77461962000001</v>
+        <v>187.25532105999997</v>
       </c>
       <c r="C52" s="7">
         <v>823.04499999999985</v>
@@ -25115,7 +27008,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="7">
-        <v>212.65000405999999</v>
+        <v>179.40671255999996</v>
       </c>
       <c r="C53" s="7">
         <v>982.70700000000033</v>
@@ -25132,7 +27025,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="7">
-        <v>206.46292354999997</v>
+        <v>174.95533714000001</v>
       </c>
       <c r="C54" s="7">
         <v>1103.751</v>
@@ -25149,7 +27042,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="7">
-        <v>238.89022143000005</v>
+        <v>186.04668026000004</v>
       </c>
       <c r="C55" s="7">
         <v>1018.4130000000004</v>
@@ -25166,7 +27059,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="7">
-        <v>217.85516854999995</v>
+        <v>199.25580688000011</v>
       </c>
       <c r="C56" s="7">
         <v>900.60300000000007</v>
@@ -25183,7 +27076,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="7">
-        <v>221.73284667000001</v>
+        <v>183.36469233999995</v>
       </c>
       <c r="C57" s="7">
         <v>1044.0540000000001</v>
@@ -25200,7 +27093,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="7">
-        <v>264.77619522000003</v>
+        <v>208.72043630999994</v>
       </c>
       <c r="C58" s="7">
         <v>1099.9000000000003</v>
@@ -25217,7 +27110,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="7">
-        <v>260.68343256999998</v>
+        <v>180.99194743000007</v>
       </c>
       <c r="C59" s="7">
         <v>1112</v>
@@ -25234,7 +27127,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="7">
-        <v>244.55178134100004</v>
+        <v>220.07215880000007</v>
       </c>
       <c r="C60" s="7">
         <v>970.6</v>
@@ -25251,7 +27144,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="7">
-        <v>230.35279052000001</v>
+        <v>207.78575445999994</v>
       </c>
       <c r="C61" s="7">
         <v>1093.4000000000001</v>
@@ -25268,7 +27161,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="7">
-        <v>270.0061768299999</v>
+        <v>231.14226581000003</v>
       </c>
       <c r="C62" s="7">
         <v>1198.1000000000004</v>
@@ -25285,7 +27178,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="7">
-        <v>264.68919293999994</v>
+        <v>195.1545838000001</v>
       </c>
       <c r="C63" s="7">
         <v>1115.4000000000003</v>
@@ -25302,7 +27195,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="7">
-        <v>257.90628170999992</v>
+        <v>249.04613779000013</v>
       </c>
       <c r="C64" s="7">
         <v>995.09999999999968</v>
@@ -25319,7 +27212,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="7">
-        <v>229.68966904999991</v>
+        <v>218.64734930000003</v>
       </c>
       <c r="C65" s="7">
         <v>1111.3</v>
@@ -25336,7 +27229,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="7">
-        <v>248.43896192999995</v>
+        <v>249.5912103900001</v>
       </c>
       <c r="C66" s="7">
         <v>1225.8126000000002</v>
@@ -25353,7 +27246,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="7">
-        <v>262.13161281999999</v>
+        <v>220.25794106000004</v>
       </c>
       <c r="C67" s="7">
         <v>1179.4591999999998</v>
@@ -25370,7 +27263,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="7">
-        <v>294.90792378999987</v>
+        <v>253.78803152999993</v>
       </c>
       <c r="C68" s="7">
         <v>998.74220000000025</v>
@@ -25387,7 +27280,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="7">
-        <v>233.94055419000006</v>
+        <v>227.3045726600001</v>
       </c>
       <c r="C69" s="7">
         <v>1114.1152000000004</v>
@@ -25404,7 +27297,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="7">
-        <v>261.15247627999997</v>
+        <v>269.25238863999994</v>
       </c>
       <c r="C70" s="7">
         <v>1212.0131999999999</v>
@@ -25421,7 +27314,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="7">
-        <v>282.06420256999991</v>
+        <v>226.94636560999999</v>
       </c>
       <c r="C71" s="7">
         <v>1149.4786999999997</v>
@@ -25438,7 +27331,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="7">
-        <v>271.52714225000005</v>
+        <v>264.50065081999998</v>
       </c>
       <c r="C72" s="7">
         <v>1018.9444999999997</v>
@@ -25455,7 +27348,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="7">
-        <v>259.48874773</v>
+        <v>245.12819197999991</v>
       </c>
       <c r="C73" s="7">
         <v>1190.7829999999999</v>
@@ -25472,7 +27365,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="7">
-        <v>306.56479915999995</v>
+        <v>283.96661193999984</v>
       </c>
       <c r="C74" s="7">
         <v>1220.7428999999997</v>
@@ -25489,7 +27382,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="7">
-        <v>309.04682103999994</v>
+        <v>235.39545294999991</v>
       </c>
       <c r="C75" s="7">
         <v>1199.9987999999998</v>
@@ -25506,7 +27399,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="7">
-        <v>295.59756844000003</v>
+        <v>275.08873867896659</v>
       </c>
       <c r="C76" s="7">
         <v>1024.0424999999998</v>
@@ -25523,7 +27416,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="7">
-        <v>282.49387935000004</v>
+        <v>258.40009214999998</v>
       </c>
       <c r="C77" s="7">
         <v>1186.7309999999995</v>
@@ -25540,7 +27433,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="7">
-        <v>299.65102024000021</v>
+        <v>289.33343447000004</v>
       </c>
       <c r="C78" s="7">
         <v>1295.4327999999998</v>
@@ -25557,7 +27450,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="7">
-        <v>306.83141096000008</v>
+        <v>255.31862998000008</v>
       </c>
       <c r="C79" s="7">
         <v>1239.9924000000001</v>
@@ -25574,7 +27467,7 @@
         <v>81</v>
       </c>
       <c r="B80" s="7">
-        <v>286.22966956999988</v>
+        <v>280.09727242000002</v>
       </c>
       <c r="C80" s="7">
         <v>1079.3519999999996</v>
@@ -25591,7 +27484,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="7">
-        <v>283.63153513999998</v>
+        <v>259.75435101000005</v>
       </c>
       <c r="C81" s="7">
         <v>1220.1095999999998</v>
@@ -25608,7 +27501,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="7">
-        <v>291.20406519000005</v>
+        <v>299.10153713999989</v>
       </c>
       <c r="C82" s="7">
         <v>1265.077</v>
@@ -25625,7 +27518,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="7">
-        <v>209.37430377999991</v>
+        <v>233.75799982000007</v>
       </c>
       <c r="C83" s="7">
         <v>931.40850000000023</v>
@@ -25642,7 +27535,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="7">
-        <v>242.13192538999994</v>
+        <v>237.52954782000009</v>
       </c>
       <c r="C84" s="7">
         <v>913.01650000000018</v>
@@ -25659,7 +27552,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="7">
-        <v>243.87497874999997</v>
+        <v>236.98943005999996</v>
       </c>
       <c r="C85" s="7">
         <v>1050.0160000000003</v>
@@ -25676,7 +27569,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="7">
-        <v>221.87626743999999</v>
+        <v>246.3658188900001</v>
       </c>
       <c r="C86" s="7">
         <v>1298.9650000000001</v>
@@ -25693,7 +27586,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="7">
-        <v>278.50246902000015</v>
+        <v>222.72894282999999</v>
       </c>
       <c r="C87" s="7">
         <v>1259.6155999999994</v>
@@ -25710,7 +27603,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="7">
-        <v>302.58150968000012</v>
+        <v>226.46864409999998</v>
       </c>
       <c r="C88" s="7">
         <v>1122.8709999999996</v>
@@ -25727,7 +27620,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="7">
-        <v>297.59511285999997</v>
+        <v>238.35081675000001</v>
       </c>
       <c r="C89" s="7">
         <v>1303.3130000000003</v>
@@ -25744,7 +27637,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="7">
-        <v>301.49044969999989</v>
+        <v>259.90119252999989</v>
       </c>
       <c r="C90" s="7">
         <v>1404.7919999999999</v>
@@ -25761,18 +27654,18 @@
         <v>92</v>
       </c>
       <c r="B91" s="7">
-        <v>307.18077727000019</v>
+        <v>216.10670500999996</v>
       </c>
       <c r="C91" s="7">
         <v>1431.2790000000002</v>
       </c>
       <c r="D91" s="7">
         <f>B91</f>
-        <v>307.18077727000019</v>
+        <v>216.10670500999996</v>
       </c>
       <c r="E91" s="7">
         <f>B91</f>
-        <v>307.18077727000019</v>
+        <v>216.10670500999996</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -25780,18 +27673,18 @@
         <v>93</v>
       </c>
       <c r="B92" s="9">
-        <v>308.48536355354537</v>
+        <v>251.72061059904442</v>
       </c>
       <c r="C92" s="9">
-        <v>1379.2359164799009</v>
+        <v>1169.4769143161816</v>
       </c>
       <c r="D92" s="10">
         <f>B92-(_xlfn.STDEV.P(B2:B91)/2)</f>
-        <v>275.74771395635759</v>
+        <v>220.90111311775257</v>
       </c>
       <c r="E92" s="10">
         <f>B92+(_xlfn.STDEV.P(B2:B91)/2)</f>
-        <v>341.22301315073315</v>
+        <v>282.54010808033627</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -25799,18 +27692,18 @@
         <v>94</v>
       </c>
       <c r="B93" s="9">
-        <v>307.58391208988525</v>
+        <v>220.53754711853185</v>
       </c>
       <c r="C93" s="9">
-        <v>1396.0095857672588</v>
+        <v>1170.8445468012831</v>
       </c>
       <c r="D93" s="10">
         <f>B93-(_xlfn.STDEV.P(B3:B92)/2)</f>
-        <v>274.55274630157874</v>
+        <v>189.85371552797119</v>
       </c>
       <c r="E93" s="10">
         <f t="shared" ref="E93:E105" si="0">B93+(_xlfn.STDEV.P(B3:B92)/2)</f>
-        <v>340.61507787819176</v>
+        <v>251.22137870909251</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -25818,18 +27711,18 @@
         <v>95</v>
       </c>
       <c r="B94" s="9">
-        <v>317.44080833526652</v>
+        <v>254.20069992889205</v>
       </c>
       <c r="C94" s="9">
-        <v>1459.5131104816787</v>
+        <v>1256.3533517707315</v>
       </c>
       <c r="D94" s="10">
         <f>B94-(_xlfn.STDEV.P(B4:B93)/2)</f>
-        <v>284.57018043068786</v>
+        <v>223.97345534386812</v>
       </c>
       <c r="E94" s="10">
         <f t="shared" si="0"/>
-        <v>350.31143623984519</v>
+        <v>284.42794451391597</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -25837,18 +27730,18 @@
         <v>96</v>
       </c>
       <c r="B95" s="9">
-        <v>323.76369642820646</v>
+        <v>234.31468003690458</v>
       </c>
       <c r="C95" s="9">
-        <v>1470.2021186281575</v>
+        <v>1357.843844440102</v>
       </c>
       <c r="D95" s="10">
         <f t="shared" ref="D95:D105" si="1">B95-(_xlfn.STDEV.P(B5:B94)/2)</f>
-        <v>290.9554562566783</v>
+        <v>204.3755412148096</v>
       </c>
       <c r="E95" s="10">
         <f t="shared" si="0"/>
-        <v>356.57193659973461</v>
+        <v>264.25381885899952</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -25856,18 +27749,18 @@
         <v>100</v>
       </c>
       <c r="B96" s="9">
-        <v>322.32985179136</v>
+        <v>257.13726636868307</v>
       </c>
       <c r="C96" s="9">
-        <v>1449.3287030798299</v>
+        <v>1300.2539774909442</v>
       </c>
       <c r="D96" s="10">
         <f t="shared" si="1"/>
-        <v>289.56379887252626</v>
+        <v>227.638026701787</v>
       </c>
       <c r="E96" s="10">
         <f t="shared" si="0"/>
-        <v>355.09590471019374</v>
+        <v>286.63650603557915</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -25875,18 +27768,18 @@
         <v>97</v>
       </c>
       <c r="B97" s="9">
-        <v>326.03020154042804</v>
+        <v>240.93600083239585</v>
       </c>
       <c r="C97" s="9">
-        <v>1471.5048961022451</v>
+        <v>1283.2282180071197</v>
       </c>
       <c r="D97" s="10">
         <f t="shared" si="1"/>
-        <v>292.88633810873273</v>
+        <v>211.78415900945356</v>
       </c>
       <c r="E97" s="10">
         <f t="shared" si="0"/>
-        <v>359.17406497212335</v>
+        <v>270.08784265533814</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -25894,18 +27787,18 @@
         <v>98</v>
       </c>
       <c r="B98" s="9">
-        <v>334.25602933427996</v>
+        <v>259.58572759475499</v>
       </c>
       <c r="C98" s="9">
-        <v>1515.9555211063293</v>
+        <v>1287.1767180715542</v>
       </c>
       <c r="D98" s="10">
         <f t="shared" si="1"/>
-        <v>301.1325409796317</v>
+        <v>230.79419665170471</v>
       </c>
       <c r="E98" s="10">
         <f t="shared" si="0"/>
-        <v>367.37951768892822</v>
+        <v>288.37725853780523</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -25913,18 +27806,18 @@
         <v>99</v>
       </c>
       <c r="B99" s="9">
-        <v>338.35362696676248</v>
+        <v>250.23457010199553</v>
       </c>
       <c r="C99" s="9">
-        <v>1524.4337490615944</v>
+        <v>1343.564537530495</v>
       </c>
       <c r="D99" s="10">
         <f t="shared" si="1"/>
-        <v>305.31006336335042</v>
+        <v>221.78561369787198</v>
       </c>
       <c r="E99" s="10">
         <f t="shared" si="0"/>
-        <v>371.39719057017453</v>
+        <v>278.68352650611911</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -25932,18 +27825,18 @@
         <v>101</v>
       </c>
       <c r="B100" s="9">
-        <v>339.66950714250294</v>
+        <v>264.89268735203473</v>
       </c>
       <c r="C100" s="9">
-        <v>1519.1868371308415</v>
+        <v>1346.6054378667027</v>
       </c>
       <c r="D100" s="10">
         <f t="shared" si="1"/>
-        <v>306.63053516782355</v>
+        <v>236.74237854841445</v>
       </c>
       <c r="E100" s="10">
         <f t="shared" si="0"/>
-        <v>372.70847911718232</v>
+        <v>293.04299615565503</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -25951,18 +27844,18 @@
         <v>102</v>
       </c>
       <c r="B101" s="9">
-        <v>344.32473878136761</v>
+        <v>257.86882297488103</v>
       </c>
       <c r="C101" s="9">
-        <v>1543.9186193146274</v>
+        <v>1352.8318036028161</v>
       </c>
       <c r="D101" s="10">
         <f t="shared" si="1"/>
-        <v>310.98987816793692</v>
+        <v>230.11606341776934</v>
       </c>
       <c r="E101" s="10">
         <f t="shared" si="0"/>
-        <v>377.65959939479831</v>
+        <v>285.62158253199271</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -25970,18 +27863,18 @@
         <v>103</v>
       </c>
       <c r="B102" s="9">
-        <v>351.03226834513652</v>
+        <v>269.30042435168269</v>
       </c>
       <c r="C102" s="9">
-        <v>1576.8470508006831</v>
+        <v>1348.086590911985</v>
       </c>
       <c r="D102" s="10">
         <f t="shared" si="1"/>
-        <v>317.65639498104474</v>
+        <v>242.00828461115529</v>
       </c>
       <c r="E102" s="10">
         <f t="shared" si="0"/>
-        <v>384.40814170922829</v>
+        <v>296.59256409221007</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -25989,18 +27882,18 @@
         <v>104</v>
       </c>
       <c r="B103" s="9">
-        <v>355.06482395963326</v>
+        <v>265.52863714023238</v>
       </c>
       <c r="C103" s="9">
-        <v>1585.6833723390823</v>
+        <v>1374.5924671451889</v>
       </c>
       <c r="D103" s="10">
         <f t="shared" si="1"/>
-        <v>321.71853866711342</v>
+        <v>238.64702394684898</v>
       </c>
       <c r="E103" s="10">
         <f t="shared" si="0"/>
-        <v>388.4111092521531</v>
+        <v>292.41025033361581</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -26008,18 +27901,18 @@
         <v>105</v>
       </c>
       <c r="B104" s="9">
-        <v>357.78946513932783</v>
+        <v>275.22095516509734</v>
       </c>
       <c r="C104" s="9">
-        <v>1590.9788713048633</v>
+        <v>1386.1538128250625</v>
       </c>
       <c r="D104" s="10">
         <f t="shared" si="1"/>
-        <v>324.28388488771122</v>
+        <v>248.71695445006765</v>
       </c>
       <c r="E104" s="10">
         <f t="shared" si="0"/>
-        <v>391.29504539094444</v>
+        <v>301.72495588012703</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -26027,1850 +27920,6 @@
         <v>106</v>
       </c>
       <c r="B105" s="9">
-        <v>362.87552575096925</v>
-      </c>
-      <c r="C105" s="9">
-        <v>1615.6917853155112</v>
-      </c>
-      <c r="D105" s="10">
-        <f t="shared" si="1"/>
-        <v>329.30612828414962</v>
-      </c>
-      <c r="E105" s="10">
-        <f t="shared" si="0"/>
-        <v>396.44492321778887</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD733903-6132-4601-82D1-0EC76750991E}">
-  <dimension ref="A1:K105"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <v>86.824000000000012</v>
-      </c>
-      <c r="C2" s="7">
-        <v>628.85799999999995</v>
-      </c>
-      <c r="D2" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7">
-        <v>72.205999999999989</v>
-      </c>
-      <c r="C3" s="7">
-        <v>547.76000000000022</v>
-      </c>
-      <c r="D3" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E3" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="13">
-        <v>-408.25060000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
-        <v>74.881000000000014</v>
-      </c>
-      <c r="C4" s="7">
-        <v>460.26599999999979</v>
-      </c>
-      <c r="D4" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>74.453999999999994</v>
-      </c>
-      <c r="C5" s="7">
-        <v>607.53800000000001</v>
-      </c>
-      <c r="D5" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>74.221000000000032</v>
-      </c>
-      <c r="C6" s="7">
-        <v>626.04899999999975</v>
-      </c>
-      <c r="D6" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>85.82399999999997</v>
-      </c>
-      <c r="C7" s="7">
-        <v>603.12599999999998</v>
-      </c>
-      <c r="D7" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>80.031999999999996</v>
-      </c>
-      <c r="C8" s="7">
-        <v>507.62699999999995</v>
-      </c>
-      <c r="D8" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>93.587999999999994</v>
-      </c>
-      <c r="C9" s="7">
-        <v>591.54300000000001</v>
-      </c>
-      <c r="D9" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7">
-        <v>78.632000000000019</v>
-      </c>
-      <c r="C10" s="7">
-        <v>659.77199999999982</v>
-      </c>
-      <c r="D10" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7">
-        <v>81.028999999999996</v>
-      </c>
-      <c r="C11" s="7">
-        <v>627.21800000000019</v>
-      </c>
-      <c r="D11" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7">
-        <v>82.414000000000016</v>
-      </c>
-      <c r="C12" s="7">
-        <v>535.29599999999982</v>
-      </c>
-      <c r="D12" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7">
-        <v>91.368000000000009</v>
-      </c>
-      <c r="C13" s="7">
-        <v>655.42599999999982</v>
-      </c>
-      <c r="D13" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>97.421000000000006</v>
-      </c>
-      <c r="C14" s="7">
-        <v>718.18900000000031</v>
-      </c>
-      <c r="D14" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7">
-        <v>95.399000000000029</v>
-      </c>
-      <c r="C15" s="7">
-        <v>661.15100000000029</v>
-      </c>
-      <c r="D15" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7">
-        <v>97.809999999999988</v>
-      </c>
-      <c r="C16" s="7">
-        <v>563.19100000000003</v>
-      </c>
-      <c r="D16" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7">
-        <v>102.41600000000004</v>
-      </c>
-      <c r="C17" s="7">
-        <v>667.15499999999997</v>
-      </c>
-      <c r="D17" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="7">
-        <v>112.544</v>
-      </c>
-      <c r="C18" s="7">
-        <v>762.39999999999975</v>
-      </c>
-      <c r="D18" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7">
-        <v>116.08400000000005</v>
-      </c>
-      <c r="C19" s="7">
-        <v>711.36</v>
-      </c>
-      <c r="D19" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="7">
-        <v>113.26600000000002</v>
-      </c>
-      <c r="C20" s="7">
-        <v>592.40000000000009</v>
-      </c>
-      <c r="D20" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7">
-        <v>125.78999999999999</v>
-      </c>
-      <c r="C21" s="7">
-        <v>699.43999999999994</v>
-      </c>
-      <c r="D21" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7">
-        <v>147.60999999999999</v>
-      </c>
-      <c r="C22" s="7">
-        <v>827.50999999999988</v>
-      </c>
-      <c r="D22" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="8">
-        <v>143.42400000000004</v>
-      </c>
-      <c r="C23" s="8">
-        <v>748.577</v>
-      </c>
-      <c r="D23" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="8">
-        <v>132.68800000000005</v>
-      </c>
-      <c r="C24" s="8">
-        <v>615.52799999999991</v>
-      </c>
-      <c r="D24" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="8">
-        <v>137.429</v>
-      </c>
-      <c r="C25" s="8">
-        <v>745.42299999999989</v>
-      </c>
-      <c r="D25" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="8">
-        <v>134.88999999999996</v>
-      </c>
-      <c r="C26" s="8">
-        <v>865.76200000000006</v>
-      </c>
-      <c r="D26" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="7">
-        <v>140.88300000000004</v>
-      </c>
-      <c r="C27" s="7">
-        <v>806.76600000000008</v>
-      </c>
-      <c r="D27" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="7">
-        <v>143.06800000000007</v>
-      </c>
-      <c r="C28" s="7">
-        <v>706.2320000000002</v>
-      </c>
-      <c r="D28" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="7">
-        <v>131.99200000000002</v>
-      </c>
-      <c r="C29" s="7">
-        <v>798.68199999999979</v>
-      </c>
-      <c r="D29" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="7">
-        <v>204.80199999999996</v>
-      </c>
-      <c r="C30" s="7">
-        <v>913.76299999999969</v>
-      </c>
-      <c r="D30" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="7">
-        <v>129.82499999999996</v>
-      </c>
-      <c r="C31" s="7">
-        <v>872.37799999999982</v>
-      </c>
-      <c r="D31" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="7">
-        <v>157.17800000000005</v>
-      </c>
-      <c r="C32" s="7">
-        <v>757.65699999999958</v>
-      </c>
-      <c r="D32" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="7">
-        <v>144.31399999999996</v>
-      </c>
-      <c r="C33" s="7">
-        <v>852.88699999999994</v>
-      </c>
-      <c r="D33" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="7">
-        <v>165.96200000000002</v>
-      </c>
-      <c r="C34" s="7">
-        <v>922.3</v>
-      </c>
-      <c r="D34" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="7">
-        <v>136.71999999999994</v>
-      </c>
-      <c r="C35" s="7">
-        <v>898.47199999999975</v>
-      </c>
-      <c r="D35" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="7">
-        <v>167.11099999999999</v>
-      </c>
-      <c r="C36" s="7">
-        <v>779.88400000000013</v>
-      </c>
-      <c r="D36" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="7">
-        <v>148.06600000000006</v>
-      </c>
-      <c r="C37" s="7">
-        <v>856.79599999999982</v>
-      </c>
-      <c r="D37" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="7">
-        <v>182.01987484999998</v>
-      </c>
-      <c r="C38" s="7">
-        <v>873.45</v>
-      </c>
-      <c r="D38" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="7">
-        <v>143.89108537000004</v>
-      </c>
-      <c r="C39" s="7">
-        <v>871.92000000000007</v>
-      </c>
-      <c r="D39" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="7">
-        <v>180.31404416000007</v>
-      </c>
-      <c r="C40" s="7">
-        <v>755.63999999999965</v>
-      </c>
-      <c r="D40" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="7">
-        <v>155.84071339000005</v>
-      </c>
-      <c r="C41" s="7">
-        <v>866.34000000000026</v>
-      </c>
-      <c r="D41" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="7">
-        <v>189.34798897999988</v>
-      </c>
-      <c r="C42" s="7">
-        <v>928.83200000000033</v>
-      </c>
-      <c r="D42" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="7">
-        <v>147.44692452999996</v>
-      </c>
-      <c r="C43" s="7">
-        <v>887.98400000000026</v>
-      </c>
-      <c r="D43" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="7">
-        <v>188.5039521299999</v>
-      </c>
-      <c r="C44" s="7">
-        <v>768.6600000000002</v>
-      </c>
-      <c r="D44" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="7">
-        <v>157.43535706</v>
-      </c>
-      <c r="C45" s="7">
-        <v>899.94399999999996</v>
-      </c>
-      <c r="D45" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="7">
-        <v>196.43738231500006</v>
-      </c>
-      <c r="C46" s="7">
-        <v>993.11999999999989</v>
-      </c>
-      <c r="D46" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="7">
-        <v>164.93480777000008</v>
-      </c>
-      <c r="C47" s="7">
-        <v>905.37599999999975</v>
-      </c>
-      <c r="D47" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="7">
-        <v>195.63475356999996</v>
-      </c>
-      <c r="C48" s="7">
-        <v>803.90399999999988</v>
-      </c>
-      <c r="D48" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="7">
-        <v>160.37268358832446</v>
-      </c>
-      <c r="C49" s="7">
-        <v>930.23999999999967</v>
-      </c>
-      <c r="D49" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E49" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="7">
-        <v>208.16202881000001</v>
-      </c>
-      <c r="C50" s="7">
-        <v>1047.8910000000001</v>
-      </c>
-      <c r="D50" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="7">
-        <v>166.01612457999991</v>
-      </c>
-      <c r="C51" s="7">
-        <v>958.36</v>
-      </c>
-      <c r="D51" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="7">
-        <v>187.25532105999997</v>
-      </c>
-      <c r="C52" s="7">
-        <v>823.04499999999985</v>
-      </c>
-      <c r="D52" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E52" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="7">
-        <v>179.40671255999996</v>
-      </c>
-      <c r="C53" s="7">
-        <v>982.70700000000033</v>
-      </c>
-      <c r="D53" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E53" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="7">
-        <v>174.95533714000001</v>
-      </c>
-      <c r="C54" s="7">
-        <v>1103.751</v>
-      </c>
-      <c r="D54" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="7">
-        <v>186.04668026000004</v>
-      </c>
-      <c r="C55" s="7">
-        <v>1018.4130000000004</v>
-      </c>
-      <c r="D55" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E55" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="7">
-        <v>199.25580688000011</v>
-      </c>
-      <c r="C56" s="7">
-        <v>900.60300000000007</v>
-      </c>
-      <c r="D56" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E56" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="7">
-        <v>183.36469233999995</v>
-      </c>
-      <c r="C57" s="7">
-        <v>1044.0540000000001</v>
-      </c>
-      <c r="D57" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E57" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="7">
-        <v>208.72043630999994</v>
-      </c>
-      <c r="C58" s="7">
-        <v>1099.9000000000003</v>
-      </c>
-      <c r="D58" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E58" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="7">
-        <v>180.99194743000007</v>
-      </c>
-      <c r="C59" s="7">
-        <v>1112</v>
-      </c>
-      <c r="D59" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E59" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="7">
-        <v>220.07215880000007</v>
-      </c>
-      <c r="C60" s="7">
-        <v>970.6</v>
-      </c>
-      <c r="D60" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E60" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="7">
-        <v>207.78575445999994</v>
-      </c>
-      <c r="C61" s="7">
-        <v>1093.4000000000001</v>
-      </c>
-      <c r="D61" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E61" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="7">
-        <v>231.14226581000003</v>
-      </c>
-      <c r="C62" s="7">
-        <v>1198.1000000000004</v>
-      </c>
-      <c r="D62" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E62" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="7">
-        <v>195.1545838000001</v>
-      </c>
-      <c r="C63" s="7">
-        <v>1115.4000000000003</v>
-      </c>
-      <c r="D63" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E63" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="7">
-        <v>249.04613779000013</v>
-      </c>
-      <c r="C64" s="7">
-        <v>995.09999999999968</v>
-      </c>
-      <c r="D64" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="7">
-        <v>218.64734930000003</v>
-      </c>
-      <c r="C65" s="7">
-        <v>1111.3</v>
-      </c>
-      <c r="D65" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="7">
-        <v>249.5912103900001</v>
-      </c>
-      <c r="C66" s="7">
-        <v>1225.8126000000002</v>
-      </c>
-      <c r="D66" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="7">
-        <v>220.25794106000004</v>
-      </c>
-      <c r="C67" s="7">
-        <v>1179.4591999999998</v>
-      </c>
-      <c r="D67" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="7">
-        <v>253.78803152999993</v>
-      </c>
-      <c r="C68" s="7">
-        <v>998.74220000000025</v>
-      </c>
-      <c r="D68" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="7">
-        <v>227.3045726600001</v>
-      </c>
-      <c r="C69" s="7">
-        <v>1114.1152000000004</v>
-      </c>
-      <c r="D69" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="7">
-        <v>269.25238863999994</v>
-      </c>
-      <c r="C70" s="7">
-        <v>1212.0131999999999</v>
-      </c>
-      <c r="D70" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="7">
-        <v>226.94636560999999</v>
-      </c>
-      <c r="C71" s="7">
-        <v>1149.4786999999997</v>
-      </c>
-      <c r="D71" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="7">
-        <v>264.50065081999998</v>
-      </c>
-      <c r="C72" s="7">
-        <v>1018.9444999999997</v>
-      </c>
-      <c r="D72" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="7">
-        <v>245.12819197999991</v>
-      </c>
-      <c r="C73" s="7">
-        <v>1190.7829999999999</v>
-      </c>
-      <c r="D73" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="7">
-        <v>283.96661193999984</v>
-      </c>
-      <c r="C74" s="7">
-        <v>1220.7428999999997</v>
-      </c>
-      <c r="D74" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="7">
-        <v>235.39545294999991</v>
-      </c>
-      <c r="C75" s="7">
-        <v>1199.9987999999998</v>
-      </c>
-      <c r="D75" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="7">
-        <v>275.08873867896659</v>
-      </c>
-      <c r="C76" s="7">
-        <v>1024.0424999999998</v>
-      </c>
-      <c r="D76" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="7">
-        <v>258.40009214999998</v>
-      </c>
-      <c r="C77" s="7">
-        <v>1186.7309999999995</v>
-      </c>
-      <c r="D77" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="7">
-        <v>289.33343447000004</v>
-      </c>
-      <c r="C78" s="7">
-        <v>1295.4327999999998</v>
-      </c>
-      <c r="D78" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="7">
-        <v>255.31862998000008</v>
-      </c>
-      <c r="C79" s="7">
-        <v>1239.9924000000001</v>
-      </c>
-      <c r="D79" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E79" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="7">
-        <v>280.09727242000002</v>
-      </c>
-      <c r="C80" s="7">
-        <v>1079.3519999999996</v>
-      </c>
-      <c r="D80" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="7">
-        <v>259.75435101000005</v>
-      </c>
-      <c r="C81" s="7">
-        <v>1220.1095999999998</v>
-      </c>
-      <c r="D81" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="7">
-        <v>299.10153713999989</v>
-      </c>
-      <c r="C82" s="7">
-        <v>1265.077</v>
-      </c>
-      <c r="D82" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="7">
-        <v>233.75799982000007</v>
-      </c>
-      <c r="C83" s="7">
-        <v>931.40850000000023</v>
-      </c>
-      <c r="D83" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="7">
-        <v>237.52954782000009</v>
-      </c>
-      <c r="C84" s="7">
-        <v>913.01650000000018</v>
-      </c>
-      <c r="D84" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="7">
-        <v>236.98943005999996</v>
-      </c>
-      <c r="C85" s="7">
-        <v>1050.0160000000003</v>
-      </c>
-      <c r="D85" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E85" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="7">
-        <v>246.3658188900001</v>
-      </c>
-      <c r="C86" s="7">
-        <v>1298.9650000000001</v>
-      </c>
-      <c r="D86" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E86" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="7">
-        <v>222.72894282999999</v>
-      </c>
-      <c r="C87" s="7">
-        <v>1259.6155999999994</v>
-      </c>
-      <c r="D87" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E87" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" s="7">
-        <v>226.46864409999998</v>
-      </c>
-      <c r="C88" s="7">
-        <v>1122.8709999999996</v>
-      </c>
-      <c r="D88" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E88" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="7">
-        <v>238.35081675000001</v>
-      </c>
-      <c r="C89" s="7">
-        <v>1303.3130000000003</v>
-      </c>
-      <c r="D89" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E89" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="7">
-        <v>259.90119252999989</v>
-      </c>
-      <c r="C90" s="7">
-        <v>1404.7919999999999</v>
-      </c>
-      <c r="D90" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E90" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="7">
-        <v>216.10670500999996</v>
-      </c>
-      <c r="C91" s="7">
-        <v>1431.2790000000002</v>
-      </c>
-      <c r="D91" s="7">
-        <f>B91</f>
-        <v>216.10670500999996</v>
-      </c>
-      <c r="E91" s="7">
-        <f>B91</f>
-        <v>216.10670500999996</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="9">
-        <v>251.72061059904442</v>
-      </c>
-      <c r="C92" s="9">
-        <v>1169.4769143161816</v>
-      </c>
-      <c r="D92" s="10">
-        <f>B92-(_xlfn.STDEV.P(B2:B91)/2)</f>
-        <v>220.90111311775257</v>
-      </c>
-      <c r="E92" s="10">
-        <f>B92+(_xlfn.STDEV.P(B2:B91)/2)</f>
-        <v>282.54010808033627</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="9">
-        <v>220.53754711853185</v>
-      </c>
-      <c r="C93" s="9">
-        <v>1170.8445468012831</v>
-      </c>
-      <c r="D93" s="10">
-        <f>B93-(_xlfn.STDEV.P(B3:B92)/2)</f>
-        <v>189.85371552797119</v>
-      </c>
-      <c r="E93" s="10">
-        <f t="shared" ref="E93:E105" si="0">B93+(_xlfn.STDEV.P(B3:B92)/2)</f>
-        <v>251.22137870909251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="9">
-        <v>254.20069992889205</v>
-      </c>
-      <c r="C94" s="9">
-        <v>1256.3533517707315</v>
-      </c>
-      <c r="D94" s="10">
-        <f>B94-(_xlfn.STDEV.P(B4:B93)/2)</f>
-        <v>223.97345534386812</v>
-      </c>
-      <c r="E94" s="10">
-        <f t="shared" si="0"/>
-        <v>284.42794451391597</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="9">
-        <v>234.31468003690458</v>
-      </c>
-      <c r="C95" s="9">
-        <v>1357.843844440102</v>
-      </c>
-      <c r="D95" s="10">
-        <f t="shared" ref="D95:D105" si="1">B95-(_xlfn.STDEV.P(B5:B94)/2)</f>
-        <v>204.3755412148096</v>
-      </c>
-      <c r="E95" s="10">
-        <f t="shared" si="0"/>
-        <v>264.25381885899952</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="9">
-        <v>257.13726636868307</v>
-      </c>
-      <c r="C96" s="9">
-        <v>1300.2539774909442</v>
-      </c>
-      <c r="D96" s="10">
-        <f t="shared" si="1"/>
-        <v>227.638026701787</v>
-      </c>
-      <c r="E96" s="10">
-        <f t="shared" si="0"/>
-        <v>286.63650603557915</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="9">
-        <v>240.93600083239585</v>
-      </c>
-      <c r="C97" s="9">
-        <v>1283.2282180071197</v>
-      </c>
-      <c r="D97" s="10">
-        <f t="shared" si="1"/>
-        <v>211.78415900945356</v>
-      </c>
-      <c r="E97" s="10">
-        <f t="shared" si="0"/>
-        <v>270.08784265533814</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="9">
-        <v>259.58572759475499</v>
-      </c>
-      <c r="C98" s="9">
-        <v>1287.1767180715542</v>
-      </c>
-      <c r="D98" s="10">
-        <f t="shared" si="1"/>
-        <v>230.79419665170471</v>
-      </c>
-      <c r="E98" s="10">
-        <f t="shared" si="0"/>
-        <v>288.37725853780523</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="9">
-        <v>250.23457010199553</v>
-      </c>
-      <c r="C99" s="9">
-        <v>1343.564537530495</v>
-      </c>
-      <c r="D99" s="10">
-        <f t="shared" si="1"/>
-        <v>221.78561369787198</v>
-      </c>
-      <c r="E99" s="10">
-        <f t="shared" si="0"/>
-        <v>278.68352650611911</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="9">
-        <v>264.89268735203473</v>
-      </c>
-      <c r="C100" s="9">
-        <v>1346.6054378667027</v>
-      </c>
-      <c r="D100" s="10">
-        <f t="shared" si="1"/>
-        <v>236.74237854841445</v>
-      </c>
-      <c r="E100" s="10">
-        <f t="shared" si="0"/>
-        <v>293.04299615565503</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="9">
-        <v>257.86882297488103</v>
-      </c>
-      <c r="C101" s="9">
-        <v>1352.8318036028161</v>
-      </c>
-      <c r="D101" s="10">
-        <f t="shared" si="1"/>
-        <v>230.11606341776934</v>
-      </c>
-      <c r="E101" s="10">
-        <f t="shared" si="0"/>
-        <v>285.62158253199271</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="9">
-        <v>269.30042435168269</v>
-      </c>
-      <c r="C102" s="9">
-        <v>1348.086590911985</v>
-      </c>
-      <c r="D102" s="10">
-        <f t="shared" si="1"/>
-        <v>242.00828461115529</v>
-      </c>
-      <c r="E102" s="10">
-        <f t="shared" si="0"/>
-        <v>296.59256409221007</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="9">
-        <v>265.52863714023238</v>
-      </c>
-      <c r="C103" s="9">
-        <v>1374.5924671451889</v>
-      </c>
-      <c r="D103" s="10">
-        <f t="shared" si="1"/>
-        <v>238.64702394684898</v>
-      </c>
-      <c r="E103" s="10">
-        <f t="shared" si="0"/>
-        <v>292.41025033361581</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="9">
-        <v>275.22095516509734</v>
-      </c>
-      <c r="C104" s="9">
-        <v>1386.1538128250625</v>
-      </c>
-      <c r="D104" s="10">
-        <f t="shared" si="1"/>
-        <v>248.71695445006765</v>
-      </c>
-      <c r="E104" s="10">
-        <f t="shared" si="0"/>
-        <v>301.72495588012703</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="9">
         <v>273.19188709509467</v>
       </c>
       <c r="C105" s="9">
@@ -27883,6 +27932,25 @@
       <c r="E105" s="10">
         <f t="shared" si="0"/>
         <v>299.41643146412264</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="9">
+        <v>281.06249887928618</v>
+      </c>
+      <c r="C106" s="9">
+        <v>1405.0401156008484</v>
+      </c>
+      <c r="D106" s="10">
+        <f t="shared" ref="D106" si="2">B106-(_xlfn.STDEV.P(B16:B105)/2)</f>
+        <v>255.19669139919381</v>
+      </c>
+      <c r="E106" s="10">
+        <f t="shared" ref="E106" si="3">B106+(_xlfn.STDEV.P(B16:B105)/2)</f>
+        <v>306.92830635937855</v>
       </c>
     </row>
   </sheetData>
@@ -27894,10 +27962,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29729,6 +29797,25 @@
         <v>380.43991031139706</v>
       </c>
     </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="9">
+        <v>349.12777579686826</v>
+      </c>
+      <c r="C106" s="9">
+        <v>1638.7470937992264</v>
+      </c>
+      <c r="D106" s="10">
+        <f t="shared" ref="D106" si="2">B106-(_xlfn.STDEV.P(B16:B105)/2)</f>
+        <v>315.62892432742854</v>
+      </c>
+      <c r="E106" s="10">
+        <f t="shared" ref="E106" si="3">B106+(_xlfn.STDEV.P(B16:B105)/2)</f>
+        <v>382.62662726630799</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29741,8 +29828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62DE25F-4940-44D7-8659-54912D442C92}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29775,20 +29862,20 @@
         <v>2000</v>
       </c>
       <c r="B2" s="15">
-        <f>SUM('Revenue Current'!$B$2:$B$5)</f>
-        <v>349.79400000000004</v>
+        <f>SUM('Revenue Current'!$B$3:$B$6)</f>
+        <v>338.78899999999999</v>
       </c>
       <c r="C2" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$2:$B$5)</f>
-        <v>415.96800000000007</v>
+        <f>SUM('Total Revenue and Grants'!$B$3:$B$6)</f>
+        <v>434.26800000000003</v>
       </c>
       <c r="D2" s="15">
-        <f>SUM('Expenditure Current'!$B$2:$B$5)</f>
-        <v>308.36500000000001</v>
+        <f>SUM('Expenditure Current'!$B$3:$B$6)</f>
+        <v>295.76200000000006</v>
       </c>
       <c r="E2" s="15">
-        <f>SUM('Total Expenditure'!$B$2:$B$5)</f>
-        <v>541.71800000000007</v>
+        <f>SUM( 'Total Expenditure'!$B$3:$B$6)</f>
+        <v>527.18600000000015</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -29796,20 +29883,20 @@
         <v>2001</v>
       </c>
       <c r="B3" s="15">
-        <f>SUM('Revenue Current'!$B$6:$B$9)</f>
-        <v>372.053</v>
+        <f>SUM('Revenue Current'!$B$7:$B$10)</f>
+        <v>402.37299999999999</v>
       </c>
       <c r="C3" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$6:$B$9)</f>
-        <v>458.64500000000004</v>
+        <f>SUM('Total Revenue and Grants'!$B$7:$B$10)</f>
+        <v>441.68299999999999</v>
       </c>
       <c r="D3" s="15">
-        <f>SUM('Expenditure Current'!$B$6:$B$9)</f>
-        <v>333.66499999999996</v>
+        <f>SUM('Expenditure Current'!$B$7:$B$10)</f>
+        <v>338.07599999999996</v>
       </c>
       <c r="E3" s="15">
-        <f>SUM('Total Expenditure'!$B$6:$B$9)</f>
-        <v>589.16600000000005</v>
+        <f>SUM( 'Total Expenditure'!$B$7:$B$10)</f>
+        <v>606.10300000000007</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -29817,20 +29904,20 @@
         <v>2002</v>
       </c>
       <c r="B4" s="15">
-        <f>SUM('Revenue Current'!$B$10:$B$13)</f>
-        <v>425.75700000000006</v>
+        <f>SUM('Revenue Current'!$B$11:$B$14)</f>
+        <v>411.66599999999994</v>
       </c>
       <c r="C4" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$10:$B$13)</f>
-        <v>478.92700000000002</v>
+        <f>SUM('Total Revenue and Grants'!$B$11:$B$14)</f>
+        <v>452.07799999999997</v>
       </c>
       <c r="D4" s="15">
-        <f>SUM('Expenditure Current'!$B$10:$B$13)</f>
-        <v>333.44300000000004</v>
+        <f>SUM( 'Expenditure Current'!$B$11:$B$14)</f>
+        <v>352.23200000000003</v>
       </c>
       <c r="E4" s="15">
-        <f>SUM('Total Expenditure'!$B$10:$B$13)</f>
-        <v>593.75200000000007</v>
+        <f>SUM( 'Total Expenditure'!$B$11:$B$14)</f>
+        <v>588.75900000000013</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -29838,20 +29925,20 @@
         <v>2003</v>
       </c>
       <c r="B5" s="15">
-        <f>SUM('Revenue Current'!$B$14:$B$17)</f>
-        <v>421.82199999999995</v>
+        <f>SUM('Revenue Current'!$B$15:$B$18)</f>
+        <v>433.37099999999998</v>
       </c>
       <c r="C5" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$14:$B$17)</f>
-        <v>453.036</v>
+        <f>SUM('Total Revenue and Grants'!$B$15:$B$18)</f>
+        <v>494.7109999999999</v>
       </c>
       <c r="D5" s="15">
-        <f>SUM('Revenue Current'!$B$14:$B$17)</f>
-        <v>421.82199999999995</v>
+        <f>SUM( 'Expenditure Current'!$B$15:$B$18)</f>
+        <v>408.16900000000004</v>
       </c>
       <c r="E5" s="15">
-        <f>SUM('Total Expenditure'!$B$14:$B$17)</f>
-        <v>627.47</v>
+        <f>SUM( 'Total Expenditure'!$B$15:$B$18)</f>
+        <v>649.04300000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -29859,20 +29946,20 @@
         <v>2004</v>
       </c>
       <c r="B6" s="15">
-        <f>SUM('Revenue Current'!$B$18:$B$21)</f>
-        <v>461.99299999999994</v>
+        <f>SUM('Revenue Current'!$B$19:$B$22)</f>
+        <v>456.22800000000007</v>
       </c>
       <c r="C6" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$18:$B$21)</f>
-        <v>519.16999999999985</v>
+        <f>SUM('Total Revenue and Grants'!$B$19:$B$22)</f>
+        <v>482.30299999999988</v>
       </c>
       <c r="D6" s="15">
-        <f>SUM('Expenditure Current'!$B$18:$B$21)</f>
-        <v>467.68400000000008</v>
+        <f>SUM( 'Expenditure Current'!$B$19:$B$22)</f>
+        <v>502.75000000000011</v>
       </c>
       <c r="E6" s="15">
-        <f>SUM('Total Expenditure'!$B$18:$B$21)</f>
-        <v>647.3130000000001</v>
+        <f>SUM( 'Total Expenditure'!$B$19:$B$22)</f>
+        <v>662.66100000000006</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -29880,20 +29967,20 @@
         <v>2005</v>
       </c>
       <c r="B7" s="15">
-        <f>SUM('Revenue Current'!$B$22:$B$25)</f>
-        <v>511.47</v>
+        <f>SUM('Revenue Current'!$B$23:$B$26)</f>
+        <v>529.82000000000005</v>
       </c>
       <c r="C7" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$22:$B$25)</f>
-        <v>531.93999999999994</v>
+        <f>SUM('Total Revenue and Grants'!$B$23:$B$26)</f>
+        <v>559.88799999999992</v>
       </c>
       <c r="D7" s="15">
-        <f>SUM('Expenditure Current'!$B$22:$B$25)</f>
-        <v>561.15100000000007</v>
+        <f>SUM( 'Expenditure Current'!$B$23:$B$26)</f>
+        <v>548.43100000000004</v>
       </c>
       <c r="E7" s="15">
-        <f>SUM('Total Expenditure'!$B$22:$B$25)</f>
-        <v>684.23900000000026</v>
+        <f>SUM( 'Total Expenditure'!$B$23:$B$26)</f>
+        <v>640.04800000000012</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -29901,20 +29988,20 @@
         <v>2006</v>
       </c>
       <c r="B8" s="15">
-        <f>SUM('Revenue Current'!$B$26:$B$29)</f>
-        <v>565.94900000000007</v>
+        <f>SUM('Revenue Current'!$B$27:$B$30)</f>
+        <v>586.46500000000003</v>
       </c>
       <c r="C8" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$26:$B$29)</f>
-        <v>601.21699999999987</v>
+        <f>SUM('Total Revenue and Grants'!$B$27:$B$30)</f>
+        <v>634.60799999999995</v>
       </c>
       <c r="D8" s="15">
-        <f>SUM('Expenditure Current'!$B$26:$B$29)</f>
-        <v>550.83300000000008</v>
+        <f>SUM( 'Expenditure Current'!$B$27:$B$30)</f>
+        <v>620.74500000000012</v>
       </c>
       <c r="E8" s="15">
-        <f>SUM('Total Expenditure'!$B$26:$B$29)</f>
-        <v>648.57799999999986</v>
+        <f>SUM( 'Total Expenditure'!$B$27:$B$30)</f>
+        <v>735.26299999999992</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -29922,20 +30009,20 @@
         <v>2007</v>
       </c>
       <c r="B9" s="15">
-        <f>SUM('Revenue Current'!$B$30:$B$33)</f>
-        <v>651.46500000000003</v>
+        <f>SUM('Revenue Current'!$B$31:$B$33)</f>
+        <v>495.04500000000007</v>
       </c>
       <c r="C9" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$30:$B$33)</f>
-        <v>765.66599999999983</v>
+        <f>SUM('Total Revenue and Grants'!$B$31:$B$33)</f>
+        <v>583.97899999999993</v>
       </c>
       <c r="D9" s="15">
-        <f>SUM('Expenditure Current'!$B$30:$B$33)</f>
-        <v>636.11899999999991</v>
+        <f>SUM( 'Expenditure Current'!$B$31:$B$33)</f>
+        <v>431.31700000000001</v>
       </c>
       <c r="E9" s="15">
-        <f>SUM('Total Expenditure'!$B$30:$B$33)</f>
-        <v>796.505</v>
+        <f>SUM( 'Total Expenditure'!$B$31:$B$33)</f>
+        <v>554.14999999999986</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -29951,11 +30038,11 @@
         <v>803.64199999999983</v>
       </c>
       <c r="D10" s="15">
-        <f>SUM('Expenditure Current'!$B$34:$B$37)</f>
+        <f>SUM( 'Expenditure Current'!$B$34:$B$37)</f>
         <v>617.85900000000004</v>
       </c>
       <c r="E10" s="15">
-        <f>SUM('Total Expenditure'!$B$34:$B$37)</f>
+        <f>SUM( 'Total Expenditure'!$B$34:$B$37)</f>
         <v>759.46199999999999</v>
       </c>
     </row>
@@ -29964,20 +30051,20 @@
         <v>2009</v>
       </c>
       <c r="B11" s="15">
-        <f>SUM('Revenue Current'!$B$38:$B$41)</f>
-        <v>660.27417198000001</v>
+        <f>SUM('Revenue Current'!$B$39:$B$42)</f>
+        <v>696.73216238000009</v>
       </c>
       <c r="C11" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$38:$B$41)</f>
-        <v>699.02092215000027</v>
+        <f>SUM('Total Revenue and Grants'!$B$39:$B$42)</f>
+        <v>735.16709847000016</v>
       </c>
       <c r="D11" s="15">
-        <f>SUM('Expenditure Current'!$B$38:$B$41)</f>
-        <v>662.06571777000011</v>
+        <f>SUM( 'Expenditure Current'!$B$39:$B$42)</f>
+        <v>669.39383190000001</v>
       </c>
       <c r="E11" s="15">
-        <f>SUM('Total Expenditure'!$B$38:$B$41)</f>
-        <v>775.39628517000006</v>
+        <f>SUM( 'Total Expenditure'!$B$39:$B$42)</f>
+        <v>768.02195972999994</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -29985,20 +30072,20 @@
         <v>2010</v>
       </c>
       <c r="B12" s="15">
-        <f>SUM('Revenue Current'!$B$42:$B$45)</f>
-        <v>753.76814981488076</v>
+        <f>SUM('Revenue Current'!$B$43:$B$46)</f>
+        <v>766.15637277488065</v>
       </c>
       <c r="C12" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$42:$B$45)</f>
-        <v>769.52165413488069</v>
+        <f>SUM('Total Revenue and Grants'!$B$43:$B$46)</f>
+        <v>782.97575311488072</v>
       </c>
       <c r="D12" s="15">
-        <f>SUM('Expenditure Current'!$B$42:$B$45)</f>
-        <v>682.7342226999998</v>
+        <f>SUM( 'Expenditure Current'!$B$43:$B$46)</f>
+        <v>689.82361603499987</v>
       </c>
       <c r="E12" s="15">
-        <f>SUM('Total Expenditure'!$B$42:$B$45)</f>
-        <v>815.86431811</v>
+        <f>SUM( 'Total Expenditure'!$B$43:$B$46)</f>
+        <v>817.09597832500015</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -30006,20 +30093,20 @@
         <v>2011</v>
       </c>
       <c r="B13" s="15">
-        <f>SUM('Revenue Current'!$B$46:$B$49)</f>
-        <v>786.98607629000003</v>
+        <f>SUM('Revenue Current'!$B$47:$B$50)</f>
+        <v>795.86856776000013</v>
       </c>
       <c r="C13" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$46:$B$49)</f>
-        <v>816.18445980000013</v>
+        <f>SUM('Total Revenue and Grants'!$B$47:$B$50)</f>
+        <v>846.24377912000011</v>
       </c>
       <c r="D13" s="15">
-        <f>SUM('Expenditure Current'!$B$46:$B$49)</f>
-        <v>717.37962724332453</v>
+        <f>SUM( 'Expenditure Current'!$B$47:$B$50)</f>
+        <v>729.10427373832454</v>
       </c>
       <c r="E13" s="15">
-        <f>SUM('Total Expenditure'!$B$46:$B$49)</f>
-        <v>839.09397344332456</v>
+        <f>SUM( 'Total Expenditure'!$B$47:$B$50)</f>
+        <v>889.29559805832446</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -30027,20 +30114,20 @@
         <v>2012</v>
       </c>
       <c r="B14" s="15">
-        <f>SUM('Revenue Current'!$B$50:$B$53)</f>
-        <v>825.60152360000006</v>
+        <f>SUM('Revenue Current'!$B$51:$B$54)</f>
+        <v>814.36172873000021</v>
       </c>
       <c r="C14" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$50:$B$53)</f>
-        <v>877.60812219000002</v>
+        <f>SUM('Total Revenue and Grants'!$B$51:$B$54)</f>
+        <v>840.32247316999997</v>
       </c>
       <c r="D14" s="15">
-        <f>SUM('Expenditure Current'!$B$50:$B$53)</f>
-        <v>740.84018700999991</v>
+        <f>SUM( 'Expenditure Current'!$B$51:$B$54)</f>
+        <v>707.63349533999985</v>
       </c>
       <c r="E14" s="15">
-        <f>SUM('Total Expenditure'!$B$50:$B$53)</f>
-        <v>902.73986954999987</v>
+        <f>SUM( 'Total Expenditure'!$B$51:$B$54)</f>
+        <v>852.13213559999986</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -30048,20 +30135,20 @@
         <v>2013</v>
       </c>
       <c r="B15" s="15">
-        <f>SUM('Revenue Current'!$B$54:$B$57)</f>
-        <v>851.58038990000011</v>
+        <f>SUM('Revenue Current'!$B$55:$B$58)</f>
+        <v>865.90432022999994</v>
       </c>
       <c r="C15" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$54:$B$57)</f>
-        <v>884.94116020000001</v>
+        <f>SUM('Total Revenue and Grants'!$B$55:$B$58)</f>
+        <v>943.25443187000019</v>
       </c>
       <c r="D15" s="15">
-        <f>SUM('Expenditure Current'!$B$54:$B$57)</f>
-        <v>743.62251662000006</v>
+        <f>SUM( 'Expenditure Current'!$B$55:$B$58)</f>
+        <v>777.38761579000004</v>
       </c>
       <c r="E15" s="15">
-        <f>SUM('Total Expenditure'!$B$54:$B$57)</f>
-        <v>922.11267819</v>
+        <f>SUM( 'Total Expenditure'!$B$55:$B$58)</f>
+        <v>999.67230408</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -30069,20 +30156,20 @@
         <v>2014</v>
       </c>
       <c r="B16" s="15">
-        <f>SUM('Revenue Current'!$B$58:$B$61)</f>
-        <v>911.66845306099981</v>
+        <f>SUM('Revenue Current'!$B$59:$B$62)</f>
+        <v>960.80008016099998</v>
       </c>
       <c r="C16" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$58:$B$61)</f>
-        <v>1000.364199651</v>
+        <f>SUM('Total Revenue and Grants'!$B$59:$B$62)</f>
+        <v>1005.5941812609999</v>
       </c>
       <c r="D16" s="15">
-        <f>SUM('Expenditure Current'!$B$58:$B$61)</f>
-        <v>817.57029699999998</v>
+        <f>SUM( 'Expenditure Current'!$B$59:$B$62)</f>
+        <v>839.99212650000004</v>
       </c>
       <c r="E16" s="15">
-        <f>SUM('Total Expenditure'!$B$58:$B$61)</f>
-        <v>1099.11804871</v>
+        <f>SUM( 'Total Expenditure'!$B$59:$B$62)</f>
+        <v>1136.3720733600001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -30090,20 +30177,20 @@
         <v>2015</v>
       </c>
       <c r="B17" s="15">
-        <f>SUM('Revenue Current'!$B$62:$B$65)</f>
-        <v>993.98549002000016</v>
+        <f>SUM('Revenue Current'!$B$63:$B$66)</f>
+        <v>972.88620311</v>
       </c>
       <c r="C17" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$62:$B$65)</f>
-        <v>1022.2913205299997</v>
+        <f>SUM('Total Revenue and Grants'!$B$63:$B$66)</f>
+        <v>1000.7241056299997</v>
       </c>
       <c r="D17" s="15">
-        <f>SUM('Expenditure Current'!$B$62:$B$65)</f>
-        <v>893.99033670000017</v>
+        <f>SUM( 'Expenditure Current'!$B$63:$B$66)</f>
+        <v>912.43928128000039</v>
       </c>
       <c r="E17" s="15">
-        <f>SUM('Total Expenditure'!$B$62:$B$65)</f>
-        <v>1298.5932168899999</v>
+        <f>SUM( 'Total Expenditure'!$B$63:$B$66)</f>
+        <v>1262.6756146999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -30111,20 +30198,20 @@
         <v>2016</v>
       </c>
       <c r="B18" s="15">
-        <f>SUM('Revenue Current'!$B$66:$B$69)</f>
-        <v>1002.5766254499999</v>
+        <f>SUM('Revenue Current'!$B$67:$B$70)</f>
+        <v>1004.0287535799998</v>
       </c>
       <c r="C18" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$66:$B$69)</f>
-        <v>1039.4190527299997</v>
+        <f>SUM('Total Revenue and Grants'!$B$67:$B$70)</f>
+        <v>1052.1325670799999</v>
       </c>
       <c r="D18" s="15">
-        <f>SUM('Expenditure Current'!$B$66:$B$69)</f>
-        <v>950.94175564000011</v>
+        <f>SUM( 'Expenditure Current'!$B$67:$B$70)</f>
+        <v>970.60293389000003</v>
       </c>
       <c r="E18" s="15">
-        <f>SUM('Total Expenditure'!$B$66:$B$69)</f>
-        <v>1158.48683035</v>
+        <f>SUM( 'Total Expenditure'!$B$67:$B$70)</f>
+        <v>1197.91634675</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -30132,20 +30219,20 @@
         <v>2017</v>
       </c>
       <c r="B19" s="15">
-        <f>SUM('Revenue Current'!$B$70:$B$73)</f>
-        <v>1047.93041249</v>
+        <f>SUM('Revenue Current'!$B$71:$B$74)</f>
+        <v>1087.9859353200002</v>
       </c>
       <c r="C19" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$70:$B$73)</f>
-        <v>1074.2325688299998</v>
+        <f>SUM('Total Revenue and Grants'!$B$71:$B$74)</f>
+        <v>1119.6448917099999</v>
       </c>
       <c r="D19" s="15">
-        <f>SUM('Expenditure Current'!$B$70:$B$73)</f>
-        <v>1005.8275970499998</v>
+        <f>SUM( 'Expenditure Current'!$B$71:$B$74)</f>
+        <v>1020.5418203499996</v>
       </c>
       <c r="E19" s="15">
-        <f>SUM('Total Expenditure'!$B$70:$B$73)</f>
-        <v>1177.5957895600002</v>
+        <f>SUM( 'Total Expenditure'!$B$71:$B$74)</f>
+        <v>1172.4193964200001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -30153,20 +30240,20 @@
         <v>2018</v>
       </c>
       <c r="B20" s="15">
-        <f>SUM('Revenue Current'!$B$74:$B$77)</f>
-        <v>1139.3689157599999</v>
+        <f>SUM('Revenue Current'!$B$75:$B$78)</f>
+        <v>1144.1160055400001</v>
       </c>
       <c r="C20" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$74:$B$77)</f>
-        <v>1193.7030679899999</v>
+        <f>SUM('Total Revenue and Grants'!$B$75:$B$78)</f>
+        <v>1186.7892890700002</v>
       </c>
       <c r="D20" s="15">
-        <f>SUM('Expenditure Current'!$B$74:$B$77)</f>
-        <v>1052.8508957189663</v>
+        <f>SUM( 'Expenditure Current'!$B$75:$B$78)</f>
+        <v>1058.2177182489665</v>
       </c>
       <c r="E20" s="15">
-        <f>SUM('Total Expenditure'!$B$74:$B$77)</f>
-        <v>1221.2759383789662</v>
+        <f>SUM( 'Total Expenditure'!$B$75:$B$78)</f>
+        <v>1226.6347248889665</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -30174,20 +30261,20 @@
         <v>2019</v>
       </c>
       <c r="B21" s="15">
-        <f>SUM('Revenue Current'!$B$78:$B$81)</f>
-        <v>1147.6998944599998</v>
+        <f>SUM('Revenue Current'!$B$79:$B$82)</f>
+        <v>1141.9491431699998</v>
       </c>
       <c r="C21" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$78:$B$81)</f>
-        <v>1176.3436359100001</v>
+        <f>SUM('Total Revenue and Grants'!$B$79:$B$82)</f>
+        <v>1167.8966808600001</v>
       </c>
       <c r="D21" s="15">
-        <f>SUM('Expenditure Current'!$B$78:$B$81)</f>
-        <v>1084.5036878800001</v>
+        <f>SUM( 'Expenditure Current'!$B$79:$B$82)</f>
+        <v>1094.2717905499999</v>
       </c>
       <c r="E21" s="15">
-        <f>SUM('Total Expenditure'!$B$78:$B$81)</f>
-        <v>1306.6698483599998</v>
+        <f>SUM( 'Total Expenditure'!$B$79:$B$82)</f>
+        <v>1346.7050314299997</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -30195,20 +30282,20 @@
         <v>2020</v>
       </c>
       <c r="B22" s="15">
-        <f>SUM('Revenue Current'!$B$82:$B$85)</f>
-        <v>944.22107749999998</v>
+        <f>SUM('Revenue Current'!$B$83:$B$86)</f>
+        <v>874.59354385999995</v>
       </c>
       <c r="C22" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$82:$B$85)</f>
-        <v>986.58527310999978</v>
+        <f>SUM('Total Revenue and Grants'!$B$83:$B$86)</f>
+        <v>917.25747535999983</v>
       </c>
       <c r="D22" s="15">
-        <f>SUM('Expenditure Current'!$B$82:$B$85)</f>
-        <v>1007.37851484</v>
+        <f>SUM( 'Expenditure Current'!$B$83:$B$86)</f>
+        <v>954.64279659000022</v>
       </c>
       <c r="E22" s="15">
-        <f>SUM('Total Expenditure'!$B$82:$B$85)</f>
-        <v>1352.5125869199999</v>
+        <f>SUM( 'Total Expenditure'!$B$83:$B$86)</f>
+        <v>1280.0619914200001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -30216,20 +30303,20 @@
         <v>2021</v>
       </c>
       <c r="B23" s="15">
-        <f>SUM('Revenue Current'!$B$86:$B$89)</f>
-        <v>1081.9198835100001</v>
+        <f>SUM('Revenue Current'!$B$87:$B$90)</f>
+        <v>1164.9753499599999</v>
       </c>
       <c r="C23" s="15">
-        <f>SUM('Total Revenue and Grants'!$B$86:$B$89)</f>
-        <v>1100.5553590000002</v>
+        <f>SUM('Total Revenue and Grants'!$B$87:$B$90)</f>
+        <v>1180.1695412600002</v>
       </c>
       <c r="D23" s="15">
-        <f>SUM('Expenditure Current'!$B$86:$B$89)</f>
-        <v>933.91422257000011</v>
+        <f>SUM( 'Expenditure Current'!$B$87:$B$90)</f>
+        <v>947.44959620999987</v>
       </c>
       <c r="E23" s="15">
-        <f>SUM('Total Expenditure'!$B$86:$B$89)</f>
-        <v>1168.0612693</v>
+        <f>SUM( 'Total Expenditure'!$B$87:$B$90)</f>
+        <v>1198.38383834</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -30237,20 +30324,20 @@
         <v>2022</v>
       </c>
       <c r="B24" s="10">
-        <f>SUM('Revenue Current'!$B$90:$B$93)</f>
-        <v>1215.5774458772098</v>
+        <f>SUM('Revenue Current'!$B$91:$B$94)</f>
+        <v>1220.0970610729307</v>
       </c>
       <c r="C24" s="10">
-        <f>SUM('Total Revenue and Grants'!$B$90:$B$93)</f>
-        <v>1224.7405026134306</v>
+        <f>SUM('Total Revenue and Grants'!$B$91:$B$94)</f>
+        <v>1240.6908612486973</v>
       </c>
       <c r="D24" s="10">
-        <f>SUM('Expenditure Current'!$B$90:$B$93)</f>
-        <v>948.26605525757611</v>
+        <f>SUM( 'Expenditure Current'!$B$91:$B$94)</f>
+        <v>942.56556265646827</v>
       </c>
       <c r="E24" s="10">
-        <f>SUM('Total Expenditure'!$B$90:$B$93)</f>
-        <v>1216.6043675277906</v>
+        <f>SUM( 'Total Expenditure'!$B$91:$B$94)</f>
+        <v>1205.4800958645992</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -30258,20 +30345,20 @@
         <v>2023</v>
       </c>
       <c r="B25" s="10">
-        <f>SUM('Revenue Current'!$B$94:$B$97)</f>
-        <v>1270.3620312106525</v>
+        <f>SUM('Revenue Current'!$B$95:$B$98)</f>
+        <v>1291.0773702930728</v>
       </c>
       <c r="C25" s="10">
-        <f>SUM('Total Revenue and Grants'!$B$94:$B$97)</f>
-        <v>1289.564558095261</v>
+        <f>SUM('Total Revenue and Grants'!$B$95:$B$98)</f>
+        <v>1306.3797790942745</v>
       </c>
       <c r="D25" s="10">
-        <f>SUM('Expenditure Current'!$B$94:$B$97)</f>
-        <v>986.58864716687549</v>
+        <f>SUM( 'Expenditure Current'!$B$95:$B$98)</f>
+        <v>991.97367483273854</v>
       </c>
       <c r="E25" s="10">
-        <f>SUM('Total Expenditure'!$B$94:$B$97)</f>
-        <v>1259.7856649722946</v>
+        <f>SUM( 'Total Expenditure'!$B$95:$B$98)</f>
+        <v>1261.993540260127</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -30279,20 +30366,20 @@
         <v>2024</v>
       </c>
       <c r="B26" s="10">
-        <f>SUM('Revenue Current'!$B$98:$B$101)</f>
-        <v>1343.1556196759075</v>
+        <f>SUM('Revenue Current'!$B$99:$B$102)</f>
+        <v>1363.957623438894</v>
       </c>
       <c r="C26" s="10">
-        <f>SUM('Total Revenue and Grants'!$B$98:$B$101)</f>
-        <v>1356.6039022249129</v>
+        <f>SUM('Total Revenue and Grants'!$B$99:$B$102)</f>
+        <v>1373.3801412357695</v>
       </c>
       <c r="D26" s="10">
-        <f>SUM('Expenditure Current'!$B$98:$B$101)</f>
-        <v>1032.5818080236663</v>
+        <f>SUM( 'Expenditure Current'!$B$99:$B$102)</f>
+        <v>1042.296504780594</v>
       </c>
       <c r="E26" s="10">
-        <f>SUM('Total Expenditure'!$B$98:$B$101)</f>
-        <v>1306.4581192773167</v>
+        <f>SUM( 'Total Expenditure'!$B$99:$B$102)</f>
+        <v>1316.5442748203004</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -30300,20 +30387,20 @@
         <v>2025</v>
       </c>
       <c r="B27" s="10">
-        <f>SUM('Revenue Current'!$B$102:$B$105)</f>
-        <v>1421.1522053151734</v>
+        <f>SUM('Revenue Current'!$B$103:$B$106)</f>
+        <v>1442.2107850635657</v>
       </c>
       <c r="C27" s="10">
-        <f>SUM('Total Revenue and Grants'!$B$102:$B$105)</f>
-        <v>1426.7620831950669</v>
+        <f>SUM('Total Revenue and Grants'!$B$103:$B$106)</f>
+        <v>1444.6057119050956</v>
       </c>
       <c r="D27" s="10">
-        <f>SUM('Expenditure Current'!$B$102:$B$105)</f>
-        <v>1083.2419037521072</v>
+        <f>SUM( 'Expenditure Current'!$B$103:$B$106)</f>
+        <v>1095.0039782797107</v>
       </c>
       <c r="E27" s="10">
-        <f>SUM('Total Expenditure'!$B$102:$B$105)</f>
-        <v>1358.8556517981892</v>
+        <f>SUM( 'Total Expenditure'!$B$103:$B$106)</f>
+        <v>1371.3125124074327</v>
       </c>
     </row>
   </sheetData>
@@ -30326,7 +30413,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30355,8 +30442,8 @@
         <v>2000</v>
       </c>
       <c r="B2" s="15">
-        <f>SUM('Revenue Current'!$B$2:$B$5)</f>
-        <v>349.79400000000004</v>
+        <f>SUM('Revenue Current'!$B$3:$B$6)</f>
+        <v>338.78899999999999</v>
       </c>
       <c r="C2" s="15" t="e">
         <v>#N/A</v>
@@ -30370,8 +30457,8 @@
         <v>2001</v>
       </c>
       <c r="B3" s="15">
-        <f>SUM('Revenue Current'!$B$6:$B$9)</f>
-        <v>372.053</v>
+        <f>SUM('Revenue Current'!$B$7:$B$10)</f>
+        <v>402.37299999999999</v>
       </c>
       <c r="C3" s="15" t="e">
         <v>#N/A</v>
@@ -30385,8 +30472,8 @@
         <v>2002</v>
       </c>
       <c r="B4" s="15">
-        <f>SUM('Revenue Current'!$B$10:$B$13)</f>
-        <v>425.75700000000006</v>
+        <f>SUM('Revenue Current'!$B$11:$B$14)</f>
+        <v>411.66599999999994</v>
       </c>
       <c r="C4" s="15" t="e">
         <v>#N/A</v>
@@ -30400,8 +30487,8 @@
         <v>2003</v>
       </c>
       <c r="B5" s="15">
-        <f>SUM('Revenue Current'!$B$14:$B$17)</f>
-        <v>421.82199999999995</v>
+        <f>SUM('Revenue Current'!$B$15:$B$18)</f>
+        <v>433.37099999999998</v>
       </c>
       <c r="C5" s="15" t="e">
         <v>#N/A</v>
@@ -30415,8 +30502,8 @@
         <v>2004</v>
       </c>
       <c r="B6" s="15">
-        <f>SUM('Revenue Current'!$B$18:$B$21)</f>
-        <v>461.99299999999994</v>
+        <f>SUM('Revenue Current'!$B$19:$B$22)</f>
+        <v>456.22800000000007</v>
       </c>
       <c r="C6" s="15" t="e">
         <v>#N/A</v>
@@ -30430,8 +30517,8 @@
         <v>2005</v>
       </c>
       <c r="B7" s="15">
-        <f>SUM('Revenue Current'!$B$22:$B$25)</f>
-        <v>511.47</v>
+        <f>SUM('Revenue Current'!$B$23:$B$26)</f>
+        <v>529.82000000000005</v>
       </c>
       <c r="C7" s="15" t="e">
         <v>#N/A</v>
@@ -30445,8 +30532,8 @@
         <v>2006</v>
       </c>
       <c r="B8" s="15">
-        <f>SUM('Revenue Current'!$B$26:$B$29)</f>
-        <v>565.94900000000007</v>
+        <f>SUM('Revenue Current'!$B$27:$B$30)</f>
+        <v>586.46500000000003</v>
       </c>
       <c r="C8" s="15" t="e">
         <v>#N/A</v>
@@ -30460,8 +30547,8 @@
         <v>2007</v>
       </c>
       <c r="B9" s="15">
-        <f>SUM('Revenue Current'!$B$30:$B$33)</f>
-        <v>651.46500000000003</v>
+        <f>SUM('Revenue Current'!$B$31:$B$33)</f>
+        <v>495.04500000000007</v>
       </c>
       <c r="C9" s="15" t="e">
         <v>#N/A</v>
@@ -30490,8 +30577,8 @@
         <v>2009</v>
       </c>
       <c r="B11" s="15">
-        <f>SUM('Revenue Current'!$B$38:$B$41)</f>
-        <v>660.27417198000001</v>
+        <f>SUM('Revenue Current'!$B$39:$B$42)</f>
+        <v>696.73216238000009</v>
       </c>
       <c r="C11" s="15" t="e">
         <v>#N/A</v>
@@ -30505,8 +30592,8 @@
         <v>2010</v>
       </c>
       <c r="B12" s="15">
-        <f>SUM('Revenue Current'!$B$42:$B$45)</f>
-        <v>753.76814981488076</v>
+        <f>SUM('Revenue Current'!$B$43:$B$46)</f>
+        <v>766.15637277488065</v>
       </c>
       <c r="C12" s="15" t="e">
         <v>#N/A</v>
@@ -30520,8 +30607,8 @@
         <v>2011</v>
       </c>
       <c r="B13" s="15">
-        <f>SUM('Revenue Current'!$B$46:$B$49)</f>
-        <v>786.98607629000003</v>
+        <f>SUM('Revenue Current'!$B$47:$B$50)</f>
+        <v>795.86856776000013</v>
       </c>
       <c r="C13" s="15" t="e">
         <v>#N/A</v>
@@ -30535,8 +30622,8 @@
         <v>2012</v>
       </c>
       <c r="B14" s="15">
-        <f>SUM('Revenue Current'!$B$50:$B$53)</f>
-        <v>825.60152360000006</v>
+        <f>SUM('Revenue Current'!$B$51:$B$54)</f>
+        <v>814.36172873000021</v>
       </c>
       <c r="C14" s="15" t="e">
         <v>#N/A</v>
@@ -30550,8 +30637,8 @@
         <v>2013</v>
       </c>
       <c r="B15" s="15">
-        <f>SUM('Revenue Current'!$B$54:$B$57)</f>
-        <v>851.58038990000011</v>
+        <f>SUM('Revenue Current'!$B$55:$B$58)</f>
+        <v>865.90432022999994</v>
       </c>
       <c r="C15" s="15" t="e">
         <v>#N/A</v>
@@ -30565,8 +30652,8 @@
         <v>2014</v>
       </c>
       <c r="B16" s="15">
-        <f>SUM('Revenue Current'!$B$58:$B$61)</f>
-        <v>911.66845306099981</v>
+        <f>SUM('Revenue Current'!$B$59:$B$62)</f>
+        <v>960.80008016099998</v>
       </c>
       <c r="C16" s="15" t="e">
         <v>#N/A</v>
@@ -30580,8 +30667,8 @@
         <v>2015</v>
       </c>
       <c r="B17" s="15">
-        <f>SUM('Revenue Current'!$B$62:$B$65)</f>
-        <v>993.98549002000016</v>
+        <f>SUM('Revenue Current'!$B$63:$B$66)</f>
+        <v>972.88620311</v>
       </c>
       <c r="C17" s="15" t="e">
         <v>#N/A</v>
@@ -30595,8 +30682,8 @@
         <v>2016</v>
       </c>
       <c r="B18" s="15">
-        <f>SUM('Revenue Current'!$B$66:$B$69)</f>
-        <v>1002.5766254499999</v>
+        <f>SUM('Revenue Current'!$B$67:$B$70)</f>
+        <v>1004.0287535799998</v>
       </c>
       <c r="C18" s="15" t="e">
         <v>#N/A</v>
@@ -30610,8 +30697,8 @@
         <v>2017</v>
       </c>
       <c r="B19" s="15">
-        <f>SUM('Revenue Current'!$B$70:$B$73)</f>
-        <v>1047.93041249</v>
+        <f>SUM('Revenue Current'!$B$71:$B$74)</f>
+        <v>1087.9859353200002</v>
       </c>
       <c r="C19" s="15" t="e">
         <v>#N/A</v>
@@ -30625,8 +30712,8 @@
         <v>2018</v>
       </c>
       <c r="B20" s="15">
-        <f>SUM('Revenue Current'!$B$74:$B$77)</f>
-        <v>1139.3689157599999</v>
+        <f>SUM('Revenue Current'!$B$75:$B$78)</f>
+        <v>1144.1160055400001</v>
       </c>
       <c r="C20" s="15" t="e">
         <v>#N/A</v>
@@ -30640,8 +30727,8 @@
         <v>2019</v>
       </c>
       <c r="B21" s="15">
-        <f>SUM('Revenue Current'!$B$78:$B$81)</f>
-        <v>1147.6998944599998</v>
+        <f>SUM('Revenue Current'!$B$79:$B$82)</f>
+        <v>1141.9491431699998</v>
       </c>
       <c r="C21" s="15" t="e">
         <v>#N/A</v>
@@ -30655,8 +30742,8 @@
         <v>2020</v>
       </c>
       <c r="B22" s="15">
-        <f>SUM('Revenue Current'!$B$82:$B$85)</f>
-        <v>944.22107749999998</v>
+        <f>SUM('Revenue Current'!$B$83:$B$86)</f>
+        <v>874.59354385999995</v>
       </c>
       <c r="C22" s="15" t="e">
         <v>#N/A</v>
@@ -30670,16 +30757,16 @@
         <v>2021</v>
       </c>
       <c r="B23" s="15">
-        <f>SUM('Revenue Current'!$B$86:$B$89)</f>
-        <v>1081.9198835100001</v>
+        <f>SUM('Revenue Current'!$B$87:$B$90)</f>
+        <v>1164.9753499599999</v>
       </c>
       <c r="C23" s="15">
         <f>B23</f>
-        <v>1081.9198835100001</v>
+        <v>1164.9753499599999</v>
       </c>
       <c r="D23" s="15">
         <f>B23</f>
-        <v>1081.9198835100001</v>
+        <v>1164.9753499599999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -30687,16 +30774,16 @@
         <v>2022</v>
       </c>
       <c r="B24" s="10">
-        <f>SUM('Revenue Current'!$B$90:$B$93)</f>
-        <v>1215.5774458772098</v>
+        <f>SUM('Revenue Current'!$B$91:$B$94)</f>
+        <v>1220.0970610729307</v>
       </c>
       <c r="C24" s="10">
         <f>B24-_xlfn.STDEV.P(B2:B23)/2</f>
-        <v>1088.5464155733139</v>
+        <v>1088.5665372257781</v>
       </c>
       <c r="D24" s="10">
         <f>B24+_xlfn.STDEV.P(B2:B23)/2</f>
-        <v>1342.6084761811057</v>
+        <v>1351.6275849200833</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -30704,16 +30791,16 @@
         <v>2023</v>
       </c>
       <c r="B25" s="10">
-        <f>SUM('Revenue Current'!$B$94:$B$97)</f>
-        <v>1270.3620312106525</v>
+        <f>SUM('Revenue Current'!$B$95:$B$98)</f>
+        <v>1291.0773702930728</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" ref="C25:C27" si="0">B25-_xlfn.STDEV.P(B3:B24)/2</f>
-        <v>1142.8181744548742</v>
+        <v>1159.4408680911386</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" ref="D25:D27" si="1">B25+_xlfn.STDEV.P(B3:B24)/2</f>
-        <v>1397.9058879664308</v>
+        <v>1422.7138724950071</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -30721,16 +30808,16 @@
         <v>2024</v>
       </c>
       <c r="B26" s="10">
-        <f>SUM('Revenue Current'!$B$98:$B$101)</f>
-        <v>1343.1556196759075</v>
+        <f>SUM('Revenue Current'!$B$99:$B$102)</f>
+        <v>1363.957623438894</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
-        <v>1215.207135737086</v>
+        <v>1230.1565139834449</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>1471.104103614729</v>
+        <v>1497.758732894343</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -30738,16 +30825,16 @@
         <v>2025</v>
       </c>
       <c r="B27" s="10">
-        <f>SUM('Revenue Current'!$B$102:$B$105)</f>
-        <v>1421.1522053151734</v>
+        <f>SUM('Revenue Current'!$B$103:$B$106)</f>
+        <v>1442.2107850635657</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>1291.0186992710678</v>
+        <v>1306.1883870575348</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>1551.285711359279</v>
+        <v>1578.2331830695966</v>
       </c>
     </row>
   </sheetData>
@@ -30762,7 +30849,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30791,7 +30878,8 @@
         <v>2000</v>
       </c>
       <c r="B2" s="15">
-        <v>415.96800000000007</v>
+        <f>SUM('Total Revenue and Grants'!$B$3:$B$6)</f>
+        <v>434.26800000000003</v>
       </c>
       <c r="C2" s="15" t="e">
         <v>#N/A</v>
@@ -30805,7 +30893,8 @@
         <v>2001</v>
       </c>
       <c r="B3" s="15">
-        <v>458.64500000000004</v>
+        <f>SUM('Total Revenue and Grants'!$B$7:$B$10)</f>
+        <v>441.68299999999999</v>
       </c>
       <c r="C3" s="15" t="e">
         <v>#N/A</v>
@@ -30819,7 +30908,8 @@
         <v>2002</v>
       </c>
       <c r="B4" s="15">
-        <v>478.92700000000002</v>
+        <f>SUM('Total Revenue and Grants'!$B$11:$B$14)</f>
+        <v>452.07799999999997</v>
       </c>
       <c r="C4" s="15" t="e">
         <v>#N/A</v>
@@ -30833,7 +30923,8 @@
         <v>2003</v>
       </c>
       <c r="B5" s="15">
-        <v>453.036</v>
+        <f>SUM('Total Revenue and Grants'!$B$15:$B$18)</f>
+        <v>494.7109999999999</v>
       </c>
       <c r="C5" s="15" t="e">
         <v>#N/A</v>
@@ -30847,7 +30938,8 @@
         <v>2004</v>
       </c>
       <c r="B6" s="15">
-        <v>519.16999999999985</v>
+        <f>SUM('Total Revenue and Grants'!$B$19:$B$22)</f>
+        <v>482.30299999999988</v>
       </c>
       <c r="C6" s="15" t="e">
         <v>#N/A</v>
@@ -30861,7 +30953,8 @@
         <v>2005</v>
       </c>
       <c r="B7" s="15">
-        <v>531.93999999999994</v>
+        <f>SUM('Total Revenue and Grants'!$B$23:$B$26)</f>
+        <v>559.88799999999992</v>
       </c>
       <c r="C7" s="15" t="e">
         <v>#N/A</v>
@@ -30875,7 +30968,8 @@
         <v>2006</v>
       </c>
       <c r="B8" s="15">
-        <v>601.21699999999987</v>
+        <f>SUM('Total Revenue and Grants'!$B$27:$B$30)</f>
+        <v>634.60799999999995</v>
       </c>
       <c r="C8" s="15" t="e">
         <v>#N/A</v>
@@ -30889,7 +30983,8 @@
         <v>2007</v>
       </c>
       <c r="B9" s="15">
-        <v>765.66599999999983</v>
+        <f>SUM('Total Revenue and Grants'!$B$31:$B$33)</f>
+        <v>583.97899999999993</v>
       </c>
       <c r="C9" s="15" t="e">
         <v>#N/A</v>
@@ -30903,6 +30998,7 @@
         <v>2008</v>
       </c>
       <c r="B10" s="15">
+        <f>SUM('Total Revenue and Grants'!$B$34:$B$37)</f>
         <v>803.64199999999983</v>
       </c>
       <c r="C10" s="15" t="e">
@@ -30917,7 +31013,8 @@
         <v>2009</v>
       </c>
       <c r="B11" s="15">
-        <v>699.02092215000027</v>
+        <f>SUM('Total Revenue and Grants'!$B$39:$B$42)</f>
+        <v>735.16709847000016</v>
       </c>
       <c r="C11" s="15" t="e">
         <v>#N/A</v>
@@ -30931,7 +31028,8 @@
         <v>2010</v>
       </c>
       <c r="B12" s="15">
-        <v>769.52165413488069</v>
+        <f>SUM('Total Revenue and Grants'!$B$43:$B$46)</f>
+        <v>782.97575311488072</v>
       </c>
       <c r="C12" s="15" t="e">
         <v>#N/A</v>
@@ -30945,7 +31043,8 @@
         <v>2011</v>
       </c>
       <c r="B13" s="15">
-        <v>816.18445980000013</v>
+        <f>SUM('Total Revenue and Grants'!$B$47:$B$50)</f>
+        <v>846.24377912000011</v>
       </c>
       <c r="C13" s="15" t="e">
         <v>#N/A</v>
@@ -30959,7 +31058,8 @@
         <v>2012</v>
       </c>
       <c r="B14" s="15">
-        <v>877.60812219000002</v>
+        <f>SUM('Total Revenue and Grants'!$B$51:$B$54)</f>
+        <v>840.32247316999997</v>
       </c>
       <c r="C14" s="15" t="e">
         <v>#N/A</v>
@@ -30973,7 +31073,8 @@
         <v>2013</v>
       </c>
       <c r="B15" s="15">
-        <v>884.94116020000001</v>
+        <f>SUM('Total Revenue and Grants'!$B$55:$B$58)</f>
+        <v>943.25443187000019</v>
       </c>
       <c r="C15" s="15" t="e">
         <v>#N/A</v>
@@ -30987,7 +31088,8 @@
         <v>2014</v>
       </c>
       <c r="B16" s="15">
-        <v>1000.364199651</v>
+        <f>SUM('Total Revenue and Grants'!$B$59:$B$62)</f>
+        <v>1005.5941812609999</v>
       </c>
       <c r="C16" s="15" t="e">
         <v>#N/A</v>
@@ -31001,7 +31103,8 @@
         <v>2015</v>
       </c>
       <c r="B17" s="15">
-        <v>1022.2913205299997</v>
+        <f>SUM('Total Revenue and Grants'!$B$63:$B$66)</f>
+        <v>1000.7241056299997</v>
       </c>
       <c r="C17" s="15" t="e">
         <v>#N/A</v>
@@ -31015,7 +31118,8 @@
         <v>2016</v>
       </c>
       <c r="B18" s="15">
-        <v>1039.4190527299997</v>
+        <f>SUM('Total Revenue and Grants'!$B$67:$B$70)</f>
+        <v>1052.1325670799999</v>
       </c>
       <c r="C18" s="15" t="e">
         <v>#N/A</v>
@@ -31029,7 +31133,8 @@
         <v>2017</v>
       </c>
       <c r="B19" s="15">
-        <v>1074.2325688299998</v>
+        <f>SUM('Total Revenue and Grants'!$B$71:$B$74)</f>
+        <v>1119.6448917099999</v>
       </c>
       <c r="C19" s="15" t="e">
         <v>#N/A</v>
@@ -31043,7 +31148,8 @@
         <v>2018</v>
       </c>
       <c r="B20" s="15">
-        <v>1193.7030679899999</v>
+        <f>SUM('Total Revenue and Grants'!$B$75:$B$78)</f>
+        <v>1186.7892890700002</v>
       </c>
       <c r="C20" s="15" t="e">
         <v>#N/A</v>
@@ -31057,7 +31163,8 @@
         <v>2019</v>
       </c>
       <c r="B21" s="15">
-        <v>1176.3436359100001</v>
+        <f>SUM('Total Revenue and Grants'!$B$79:$B$82)</f>
+        <v>1167.8966808600001</v>
       </c>
       <c r="C21" s="15" t="e">
         <v>#N/A</v>
@@ -31071,7 +31178,8 @@
         <v>2020</v>
       </c>
       <c r="B22" s="15">
-        <v>986.58527310999978</v>
+        <f>SUM('Total Revenue and Grants'!$B$83:$B$86)</f>
+        <v>917.25747535999983</v>
       </c>
       <c r="C22" s="15" t="e">
         <v>#N/A</v>
@@ -31085,15 +31193,16 @@
         <v>2021</v>
       </c>
       <c r="B23" s="15">
-        <v>1100.5553590000002</v>
+        <f>SUM('Total Revenue and Grants'!$B$87:$B$90)</f>
+        <v>1180.1695412600002</v>
       </c>
       <c r="C23" s="15">
         <f>B23</f>
-        <v>1100.5553590000002</v>
+        <v>1180.1695412600002</v>
       </c>
       <c r="D23" s="15">
         <f>B23</f>
-        <v>1100.5553590000002</v>
+        <v>1180.1695412600002</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -31101,15 +31210,16 @@
         <v>2022</v>
       </c>
       <c r="B24" s="10">
-        <v>1224.7405026134306</v>
+        <f>SUM('Total Revenue and Grants'!$B$91:$B$94)</f>
+        <v>1240.6908612486973</v>
       </c>
       <c r="C24" s="10">
         <f>B24-_xlfn.STDEV.P(B2:B23)/2</f>
-        <v>1101.0114206274015</v>
+        <v>1113.2536956419638</v>
       </c>
       <c r="D24" s="10">
         <f>B24+_xlfn.STDEV.P(B2:B23)/2</f>
-        <v>1348.4695845994597</v>
+        <v>1368.1280268554308</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -31117,15 +31227,16 @@
         <v>2023</v>
       </c>
       <c r="B25" s="10">
-        <v>1289.564558095261</v>
+        <f>SUM('Total Revenue and Grants'!$B$95:$B$98)</f>
+        <v>1306.3797790942745</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" ref="C25:C27" si="0">B25-_xlfn.STDEV.P(B3:B24)/2</f>
-        <v>1165.9218551402457</v>
+        <v>1177.784245246617</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" ref="D25:D27" si="1">B25+_xlfn.STDEV.P(B3:B24)/2</f>
-        <v>1413.2072610502762</v>
+        <v>1434.9753129419319</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -31133,15 +31244,16 @@
         <v>2024</v>
       </c>
       <c r="B26" s="10">
-        <v>1356.6039022249129</v>
+        <f>SUM('Total Revenue and Grants'!$B$99:$B$102)</f>
+        <v>1373.3801412357695</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
-        <v>1231.7965590643082</v>
+        <v>1243.6621431404146</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>1481.4112453855175</v>
+        <v>1503.0981393311245</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -31149,15 +31261,16 @@
         <v>2025</v>
       </c>
       <c r="B27" s="10">
-        <v>1426.7620831950669</v>
+        <f>SUM('Total Revenue and Grants'!$B$103:$B$106)</f>
+        <v>1444.6057119050956</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>1300.3546701482462</v>
+        <v>1313.8538618440098</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>1553.1694962418876</v>
+        <v>1575.3575619661815</v>
       </c>
     </row>
   </sheetData>
@@ -31171,8 +31284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1E5342-B4E2-43A6-AE60-EDF98511EA1F}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31201,7 +31314,8 @@
         <v>2000</v>
       </c>
       <c r="B2" s="15">
-        <v>308.36500000000001</v>
+        <f>SUM('Expenditure Current'!$B$3:$B$6)</f>
+        <v>295.76200000000006</v>
       </c>
       <c r="C2" s="15" t="e">
         <v>#N/A</v>
@@ -31215,7 +31329,8 @@
         <v>2001</v>
       </c>
       <c r="B3" s="15">
-        <v>333.66499999999996</v>
+        <f>SUM('Expenditure Current'!$B$7:$B$10)</f>
+        <v>338.07599999999996</v>
       </c>
       <c r="C3" s="15" t="e">
         <v>#N/A</v>
@@ -31229,7 +31344,8 @@
         <v>2002</v>
       </c>
       <c r="B4" s="15">
-        <v>333.44300000000004</v>
+        <f>SUM( 'Expenditure Current'!$B$11:$B$14)</f>
+        <v>352.23200000000003</v>
       </c>
       <c r="C4" s="15" t="e">
         <v>#N/A</v>
@@ -31243,7 +31359,8 @@
         <v>2003</v>
       </c>
       <c r="B5" s="15">
-        <v>421.82199999999995</v>
+        <f>SUM( 'Expenditure Current'!$B$15:$B$18)</f>
+        <v>408.16900000000004</v>
       </c>
       <c r="C5" s="15" t="e">
         <v>#N/A</v>
@@ -31257,7 +31374,8 @@
         <v>2004</v>
       </c>
       <c r="B6" s="15">
-        <v>467.68400000000008</v>
+        <f>SUM( 'Expenditure Current'!$B$19:$B$22)</f>
+        <v>502.75000000000011</v>
       </c>
       <c r="C6" s="15" t="e">
         <v>#N/A</v>
@@ -31271,7 +31389,8 @@
         <v>2005</v>
       </c>
       <c r="B7" s="15">
-        <v>561.15100000000007</v>
+        <f>SUM( 'Expenditure Current'!$B$23:$B$26)</f>
+        <v>548.43100000000004</v>
       </c>
       <c r="C7" s="15" t="e">
         <v>#N/A</v>
@@ -31285,7 +31404,8 @@
         <v>2006</v>
       </c>
       <c r="B8" s="15">
-        <v>550.83300000000008</v>
+        <f>SUM( 'Expenditure Current'!$B$27:$B$30)</f>
+        <v>620.74500000000012</v>
       </c>
       <c r="C8" s="15" t="e">
         <v>#N/A</v>
@@ -31299,7 +31419,8 @@
         <v>2007</v>
       </c>
       <c r="B9" s="15">
-        <v>636.11899999999991</v>
+        <f>SUM( 'Expenditure Current'!$B$31:$B$33)</f>
+        <v>431.31700000000001</v>
       </c>
       <c r="C9" s="15" t="e">
         <v>#N/A</v>
@@ -31313,6 +31434,7 @@
         <v>2008</v>
       </c>
       <c r="B10" s="15">
+        <f>SUM( 'Expenditure Current'!$B$34:$B$37)</f>
         <v>617.85900000000004</v>
       </c>
       <c r="C10" s="15" t="e">
@@ -31327,7 +31449,8 @@
         <v>2009</v>
       </c>
       <c r="B11" s="15">
-        <v>662.06571777000011</v>
+        <f>SUM( 'Expenditure Current'!$B$39:$B$42)</f>
+        <v>669.39383190000001</v>
       </c>
       <c r="C11" s="15" t="e">
         <v>#N/A</v>
@@ -31341,7 +31464,8 @@
         <v>2010</v>
       </c>
       <c r="B12" s="15">
-        <v>682.7342226999998</v>
+        <f>SUM( 'Expenditure Current'!$B$43:$B$46)</f>
+        <v>689.82361603499987</v>
       </c>
       <c r="C12" s="15" t="e">
         <v>#N/A</v>
@@ -31355,7 +31479,8 @@
         <v>2011</v>
       </c>
       <c r="B13" s="15">
-        <v>717.37962724332453</v>
+        <f>SUM( 'Expenditure Current'!$B$47:$B$50)</f>
+        <v>729.10427373832454</v>
       </c>
       <c r="C13" s="15" t="e">
         <v>#N/A</v>
@@ -31369,7 +31494,8 @@
         <v>2012</v>
       </c>
       <c r="B14" s="15">
-        <v>740.84018700999991</v>
+        <f>SUM( 'Expenditure Current'!$B$51:$B$54)</f>
+        <v>707.63349533999985</v>
       </c>
       <c r="C14" s="15" t="e">
         <v>#N/A</v>
@@ -31383,7 +31509,8 @@
         <v>2013</v>
       </c>
       <c r="B15" s="15">
-        <v>743.62251662000006</v>
+        <f>SUM( 'Expenditure Current'!$B$55:$B$58)</f>
+        <v>777.38761579000004</v>
       </c>
       <c r="C15" s="15" t="e">
         <v>#N/A</v>
@@ -31397,7 +31524,8 @@
         <v>2014</v>
       </c>
       <c r="B16" s="15">
-        <v>817.57029699999998</v>
+        <f>SUM( 'Expenditure Current'!$B$59:$B$62)</f>
+        <v>839.99212650000004</v>
       </c>
       <c r="C16" s="15" t="e">
         <v>#N/A</v>
@@ -31411,7 +31539,8 @@
         <v>2015</v>
       </c>
       <c r="B17" s="15">
-        <v>893.99033670000017</v>
+        <f>SUM( 'Expenditure Current'!$B$63:$B$66)</f>
+        <v>912.43928128000039</v>
       </c>
       <c r="C17" s="15" t="e">
         <v>#N/A</v>
@@ -31425,7 +31554,8 @@
         <v>2016</v>
       </c>
       <c r="B18" s="15">
-        <v>950.94175564000011</v>
+        <f>SUM( 'Expenditure Current'!$B$67:$B$70)</f>
+        <v>970.60293389000003</v>
       </c>
       <c r="C18" s="15" t="e">
         <v>#N/A</v>
@@ -31439,7 +31569,8 @@
         <v>2017</v>
       </c>
       <c r="B19" s="15">
-        <v>1005.8275970499998</v>
+        <f>SUM( 'Expenditure Current'!$B$71:$B$74)</f>
+        <v>1020.5418203499996</v>
       </c>
       <c r="C19" s="15" t="e">
         <v>#N/A</v>
@@ -31453,7 +31584,8 @@
         <v>2018</v>
       </c>
       <c r="B20" s="15">
-        <v>1052.8508957189663</v>
+        <f>SUM( 'Expenditure Current'!$B$75:$B$78)</f>
+        <v>1058.2177182489665</v>
       </c>
       <c r="C20" s="15" t="e">
         <v>#N/A</v>
@@ -31467,7 +31599,8 @@
         <v>2019</v>
       </c>
       <c r="B21" s="15">
-        <v>1084.5036878800001</v>
+        <f>SUM( 'Expenditure Current'!$B$79:$B$82)</f>
+        <v>1094.2717905499999</v>
       </c>
       <c r="C21" s="15" t="e">
         <v>#N/A</v>
@@ -31481,7 +31614,8 @@
         <v>2020</v>
       </c>
       <c r="B22" s="15">
-        <v>1007.37851484</v>
+        <f>SUM( 'Expenditure Current'!$B$83:$B$86)</f>
+        <v>954.64279659000022</v>
       </c>
       <c r="C22" s="15" t="e">
         <v>#N/A</v>
@@ -31495,15 +31629,16 @@
         <v>2021</v>
       </c>
       <c r="B23" s="15">
-        <v>933.91422257000011</v>
+        <f>SUM( 'Expenditure Current'!$B$87:$B$90)</f>
+        <v>947.44959620999987</v>
       </c>
       <c r="C23" s="15">
         <f>B23</f>
-        <v>933.91422257000011</v>
+        <v>947.44959620999987</v>
       </c>
       <c r="D23" s="15">
         <f>B23</f>
-        <v>933.91422257000011</v>
+        <v>947.44959620999987</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -31511,15 +31646,16 @@
         <v>2022</v>
       </c>
       <c r="B24" s="10">
-        <v>948.26605525757611</v>
+        <f>SUM( 'Expenditure Current'!$B$91:$B$94)</f>
+        <v>942.56556265646827</v>
       </c>
       <c r="C24" s="10">
         <f>B24-_xlfn.STDEV.P(B2:B23)/2</f>
-        <v>829.55799264976793</v>
+        <v>820.75430814455729</v>
       </c>
       <c r="D24" s="10">
         <f>B24+_xlfn.STDEV.P(B2:B23)/2</f>
-        <v>1066.9741178653844</v>
+        <v>1064.3768171683794</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -31527,15 +31663,16 @@
         <v>2023</v>
       </c>
       <c r="B25" s="10">
-        <v>986.58864716687549</v>
+        <f>SUM( 'Expenditure Current'!$B$95:$B$98)</f>
+        <v>991.97367483273854</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" ref="C25:C27" si="0">B25-_xlfn.STDEV.P(B3:B24)/2</f>
-        <v>873.64956673384211</v>
+        <v>876.32090188865811</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" ref="D25:D27" si="1">B25+_xlfn.STDEV.P(B3:B24)/2</f>
-        <v>1099.5277275999088</v>
+        <v>1107.6264477768188</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -31543,15 +31680,16 @@
         <v>2024</v>
       </c>
       <c r="B26" s="10">
-        <v>1032.5818080236663</v>
+        <f>SUM( 'Expenditure Current'!$B$99:$B$102)</f>
+        <v>1042.296504780594</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
-        <v>925.68131969976821</v>
+        <v>932.11782853910813</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>1139.4822963475644</v>
+        <v>1152.4751810220798</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -31559,15 +31697,16 @@
         <v>2025</v>
       </c>
       <c r="B27" s="10">
-        <v>1083.2419037521072</v>
+        <f>SUM( 'Expenditure Current'!$B$103:$B$106)</f>
+        <v>1095.0039782797107</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>983.83564042246985</v>
+        <v>990.78630790072702</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>1182.6481670817445</v>
+        <v>1199.2216486586944</v>
       </c>
     </row>
   </sheetData>
@@ -31581,8 +31720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BFFC21-10E3-4D87-95C6-8106DC0C8D0D}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31611,7 +31750,8 @@
         <v>2000</v>
       </c>
       <c r="B2" s="15">
-        <v>541.71800000000007</v>
+        <f>SUM( 'Total Expenditure'!$B$3:$B$6)</f>
+        <v>527.18600000000015</v>
       </c>
       <c r="C2" s="15" t="e">
         <v>#N/A</v>
@@ -31625,7 +31765,8 @@
         <v>2001</v>
       </c>
       <c r="B3" s="15">
-        <v>589.16600000000005</v>
+        <f>SUM( 'Total Expenditure'!$B$7:$B$10)</f>
+        <v>606.10300000000007</v>
       </c>
       <c r="C3" s="15" t="e">
         <v>#N/A</v>
@@ -31639,7 +31780,8 @@
         <v>2002</v>
       </c>
       <c r="B4" s="15">
-        <v>593.75200000000007</v>
+        <f>SUM( 'Total Expenditure'!$B$11:$B$14)</f>
+        <v>588.75900000000013</v>
       </c>
       <c r="C4" s="15" t="e">
         <v>#N/A</v>
@@ -31653,7 +31795,8 @@
         <v>2003</v>
       </c>
       <c r="B5" s="15">
-        <v>627.47</v>
+        <f>SUM( 'Total Expenditure'!$B$15:$B$18)</f>
+        <v>649.04300000000001</v>
       </c>
       <c r="C5" s="15" t="e">
         <v>#N/A</v>
@@ -31667,7 +31810,8 @@
         <v>2004</v>
       </c>
       <c r="B6" s="15">
-        <v>647.3130000000001</v>
+        <f>SUM( 'Total Expenditure'!$B$19:$B$22)</f>
+        <v>662.66100000000006</v>
       </c>
       <c r="C6" s="15" t="e">
         <v>#N/A</v>
@@ -31681,7 +31825,8 @@
         <v>2005</v>
       </c>
       <c r="B7" s="15">
-        <v>684.23900000000026</v>
+        <f>SUM( 'Total Expenditure'!$B$23:$B$26)</f>
+        <v>640.04800000000012</v>
       </c>
       <c r="C7" s="15" t="e">
         <v>#N/A</v>
@@ -31695,7 +31840,8 @@
         <v>2006</v>
       </c>
       <c r="B8" s="15">
-        <v>648.57799999999986</v>
+        <f>SUM( 'Total Expenditure'!$B$27:$B$30)</f>
+        <v>735.26299999999992</v>
       </c>
       <c r="C8" s="15" t="e">
         <v>#N/A</v>
@@ -31709,7 +31855,8 @@
         <v>2007</v>
       </c>
       <c r="B9" s="15">
-        <v>796.505</v>
+        <f>SUM( 'Total Expenditure'!$B$31:$B$33)</f>
+        <v>554.14999999999986</v>
       </c>
       <c r="C9" s="15" t="e">
         <v>#N/A</v>
@@ -31723,6 +31870,7 @@
         <v>2008</v>
       </c>
       <c r="B10" s="15">
+        <f>SUM( 'Total Expenditure'!$B$34:$B$37)</f>
         <v>759.46199999999999</v>
       </c>
       <c r="C10" s="15" t="e">
@@ -31737,7 +31885,8 @@
         <v>2009</v>
       </c>
       <c r="B11" s="15">
-        <v>775.39628517000006</v>
+        <f>SUM( 'Total Expenditure'!$B$39:$B$42)</f>
+        <v>768.02195972999994</v>
       </c>
       <c r="C11" s="15" t="e">
         <v>#N/A</v>
@@ -31751,7 +31900,8 @@
         <v>2010</v>
       </c>
       <c r="B12" s="15">
-        <v>815.86431811</v>
+        <f>SUM( 'Total Expenditure'!$B$43:$B$46)</f>
+        <v>817.09597832500015</v>
       </c>
       <c r="C12" s="15" t="e">
         <v>#N/A</v>
@@ -31765,7 +31915,8 @@
         <v>2011</v>
       </c>
       <c r="B13" s="15">
-        <v>839.09397344332456</v>
+        <f>SUM( 'Total Expenditure'!$B$47:$B$50)</f>
+        <v>889.29559805832446</v>
       </c>
       <c r="C13" s="15" t="e">
         <v>#N/A</v>
@@ -31779,7 +31930,8 @@
         <v>2012</v>
       </c>
       <c r="B14" s="15">
-        <v>902.73986954999987</v>
+        <f>SUM( 'Total Expenditure'!$B$51:$B$54)</f>
+        <v>852.13213559999986</v>
       </c>
       <c r="C14" s="15" t="e">
         <v>#N/A</v>
@@ -31793,7 +31945,8 @@
         <v>2013</v>
       </c>
       <c r="B15" s="15">
-        <v>922.11267819</v>
+        <f>SUM( 'Total Expenditure'!$B$55:$B$58)</f>
+        <v>999.67230408</v>
       </c>
       <c r="C15" s="15" t="e">
         <v>#N/A</v>
@@ -31807,7 +31960,8 @@
         <v>2014</v>
       </c>
       <c r="B16" s="15">
-        <v>1099.11804871</v>
+        <f>SUM( 'Total Expenditure'!$B$59:$B$62)</f>
+        <v>1136.3720733600001</v>
       </c>
       <c r="C16" s="15" t="e">
         <v>#N/A</v>
@@ -31821,7 +31975,8 @@
         <v>2015</v>
       </c>
       <c r="B17" s="15">
-        <v>1298.5932168899999</v>
+        <f>SUM( 'Total Expenditure'!$B$63:$B$66)</f>
+        <v>1262.6756146999999</v>
       </c>
       <c r="C17" s="15" t="e">
         <v>#N/A</v>
@@ -31835,7 +31990,8 @@
         <v>2016</v>
       </c>
       <c r="B18" s="15">
-        <v>1158.48683035</v>
+        <f>SUM( 'Total Expenditure'!$B$67:$B$70)</f>
+        <v>1197.91634675</v>
       </c>
       <c r="C18" s="15" t="e">
         <v>#N/A</v>
@@ -31849,7 +32005,8 @@
         <v>2017</v>
       </c>
       <c r="B19" s="15">
-        <v>1177.5957895600002</v>
+        <f>SUM( 'Total Expenditure'!$B$71:$B$74)</f>
+        <v>1172.4193964200001</v>
       </c>
       <c r="C19" s="15" t="e">
         <v>#N/A</v>
@@ -31863,7 +32020,8 @@
         <v>2018</v>
       </c>
       <c r="B20" s="15">
-        <v>1221.2759383789662</v>
+        <f>SUM( 'Total Expenditure'!$B$75:$B$78)</f>
+        <v>1226.6347248889665</v>
       </c>
       <c r="C20" s="15" t="e">
         <v>#N/A</v>
@@ -31877,7 +32035,8 @@
         <v>2019</v>
       </c>
       <c r="B21" s="15">
-        <v>1306.6698483599998</v>
+        <f>SUM( 'Total Expenditure'!$B$79:$B$82)</f>
+        <v>1346.7050314299997</v>
       </c>
       <c r="C21" s="15" t="e">
         <v>#N/A</v>
@@ -31891,7 +32050,8 @@
         <v>2020</v>
       </c>
       <c r="B22" s="15">
-        <v>1352.5125869199999</v>
+        <f>SUM( 'Total Expenditure'!$B$83:$B$86)</f>
+        <v>1280.0619914200001</v>
       </c>
       <c r="C22" s="15" t="e">
         <v>#N/A</v>
@@ -31905,15 +32065,16 @@
         <v>2021</v>
       </c>
       <c r="B23" s="15">
-        <v>1168.0612693</v>
+        <f>SUM( 'Total Expenditure'!$B$87:$B$90)</f>
+        <v>1198.38383834</v>
       </c>
       <c r="C23" s="15">
         <f>B23</f>
-        <v>1168.0612693</v>
+        <v>1198.38383834</v>
       </c>
       <c r="D23" s="15">
         <f>B23</f>
-        <v>1168.0612693</v>
+        <v>1198.38383834</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -31921,15 +32082,16 @@
         <v>2022</v>
       </c>
       <c r="B24" s="10">
-        <v>1216.6043675277906</v>
+        <f>SUM( 'Total Expenditure'!$B$91:$B$94)</f>
+        <v>1205.4800958645992</v>
       </c>
       <c r="C24" s="10">
         <f>B24-_xlfn.STDEV.P(B2:B23)/2</f>
-        <v>1085.5753179981546</v>
+        <v>1070.5508839947001</v>
       </c>
       <c r="D24" s="10">
         <f>B24+_xlfn.STDEV.P(B2:B23)/2</f>
-        <v>1347.6334170574266</v>
+        <v>1340.4093077344983</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -31937,15 +32099,16 @@
         <v>2023</v>
       </c>
       <c r="B25" s="10">
-        <v>1259.7856649722946</v>
+        <f>SUM( 'Total Expenditure'!$B$95:$B$98)</f>
+        <v>1261.993540260127</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" ref="C25:C27" si="0">B25-_xlfn.STDEV.P(B3:B24)/2</f>
-        <v>1131.2319373688676</v>
+        <v>1130.083910920469</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" ref="D25:D27" si="1">B25+_xlfn.STDEV.P(B3:B24)/2</f>
-        <v>1388.3393925757216</v>
+        <v>1393.9031695997851</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -31953,15 +32116,16 @@
         <v>2024</v>
       </c>
       <c r="B26" s="10">
-        <v>1306.4581192773167</v>
+        <f>SUM( 'Total Expenditure'!$B$99:$B$102)</f>
+        <v>1316.5442748203004</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
-        <v>1179.5244630599195</v>
+        <v>1185.4777964157129</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
-        <v>1433.3917754947138</v>
+        <v>1447.610753224888</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -31969,15 +32133,16 @@
         <v>2025</v>
       </c>
       <c r="B27" s="10">
-        <v>1358.8556517981892</v>
+        <f>SUM( 'Total Expenditure'!$B$103:$B$106)</f>
+        <v>1371.3125124074327</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>1234.0431527813473</v>
+        <v>1242.0068873429266</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
-        <v>1483.6681508150311</v>
+        <v>1500.6181374719388</v>
       </c>
     </row>
   </sheetData>

--- a/Quarterly_Yearly_Forecast.xlsx
+++ b/Quarterly_Yearly_Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaledu-my.sharepoint.com/personal/msramirezgo_unal_edu_co/Documents/Oliver Pardo/VAR_VEC-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{E745283E-EFC1-4155-822F-BC1E14BD8D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD057A5D-0D2C-4C49-B197-834AE2661815}"/>
+  <xr:revisionPtr revIDLastSave="572" documentId="13_ncr:1_{E745283E-EFC1-4155-822F-BC1E14BD8D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84831B2A-6127-4E17-A632-FB4F83CD829E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue Current" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="122">
   <si>
     <t>Lower CI</t>
   </si>
@@ -396,6 +396,18 @@
   <si>
     <t>2026-Q1</t>
   </si>
+  <si>
+    <t>2026-Q2</t>
+  </si>
+  <si>
+    <t>2026-Q3</t>
+  </si>
+  <si>
+    <t>2026-Q4</t>
+  </si>
+  <si>
+    <t>2027-Q1</t>
+  </si>
 </sst>
 </file>
 
@@ -12832,10 +12844,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Revenue Current Yearly'!$A$2:$A$27</c:f>
+              <c:f>'Revenue Current Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12913,16 +12925,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Revenue Current Yearly'!$B$2:$B$27</c:f>
+              <c:f>'Revenue Current Yearly'!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>338.78899999999999</c:v>
                 </c:pt>
@@ -13000,6 +13015,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1442.2107850635657</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1525.5594289730946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13049,10 +13067,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Revenue Current Yearly'!$A$2:$A$27</c:f>
+              <c:f>'Revenue Current Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -13130,16 +13148,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Revenue Current Yearly'!$C$2:$C$27</c:f>
+              <c:f>'Revenue Current Yearly'!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -13217,6 +13238,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1306.1883870575348</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1386.7753065575944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13266,10 +13290,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Revenue Current Yearly'!$A$2:$A$27</c:f>
+              <c:f>'Revenue Current Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -13347,16 +13371,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Revenue Current Yearly'!$D$2:$D$27</c:f>
+              <c:f>'Revenue Current Yearly'!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -13434,6 +13461,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1578.2331830695966</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1664.3435513885947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13502,13 +13532,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Revenue Current Yearly'!$A$2:$A$27</c15:sqref>
+                          <c15:sqref>'Revenue Current Yearly'!$A$2:$A$28</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>2000</c:v>
                       </c:pt>
@@ -13586,6 +13616,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2026</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14000,10 +14033,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Total Revenue and Grants Yearly'!$A$2:$A$27</c:f>
+              <c:f>'Total Revenue and Grants Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -14081,16 +14114,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Revenue and Grants Yearly'!$B$2:$B$27</c:f>
+              <c:f>'Total Revenue and Grants Yearly'!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>434.26800000000003</c:v>
                 </c:pt>
@@ -14168,6 +14204,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1444.6057119050956</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1519.5985902004227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14217,10 +14256,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Total Revenue and Grants Yearly'!$A$2:$A$27</c:f>
+              <c:f>'Total Revenue and Grants Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -14298,16 +14337,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Revenue and Grants Yearly'!$C$2:$C$27</c:f>
+              <c:f>'Total Revenue and Grants Yearly'!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -14385,6 +14427,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1313.8538618440098</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1386.6150930915358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14434,10 +14479,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Total Revenue and Grants Yearly'!$A$2:$A$27</c:f>
+              <c:f>'Total Revenue and Grants Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -14515,16 +14560,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Total Revenue and Grants Yearly'!$D$2:$D$27</c:f>
+              <c:f>'Total Revenue and Grants Yearly'!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -14602,6 +14650,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1575.3575619661815</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1652.5820873093096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14670,13 +14721,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Total Revenue and Grants Yearly'!$A$2:$A$27</c15:sqref>
+                          <c15:sqref>'Total Revenue and Grants Yearly'!$A$2:$A$28</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>2000</c:v>
                       </c:pt>
@@ -14754,6 +14805,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2026</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15168,10 +15222,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Expenditure Current Yearly'!$A$2:$A$27</c:f>
+              <c:f>'Expenditure Current Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -15249,16 +15303,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Expenditure Current Yearly'!$B$2:$B$27</c:f>
+              <c:f>'Expenditure Current Yearly'!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>295.76200000000006</c:v>
                 </c:pt>
@@ -15336,6 +15393,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1095.0039782797107</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1150.3546858480504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15385,10 +15445,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Expenditure Current Yearly'!$A$2:$A$27</c:f>
+              <c:f>'Expenditure Current Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -15466,16 +15526,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Expenditure Current Yearly'!$C$2:$C$27</c:f>
+              <c:f>'Expenditure Current Yearly'!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -15553,6 +15616,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>990.78630790072702</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1050.6111787312725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15602,10 +15668,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Expenditure Current Yearly'!$A$2:$A$27</c:f>
+              <c:f>'Expenditure Current Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -15683,16 +15749,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Expenditure Current Yearly'!$D$2:$D$27</c:f>
+              <c:f>'Expenditure Current Yearly'!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -15770,6 +15839,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1199.2216486586944</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1250.0981929648283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15838,13 +15910,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Expenditure Current Yearly'!$A$2:$A$27</c15:sqref>
+                          <c15:sqref>'Expenditure Current Yearly'!$A$2:$A$28</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>2000</c:v>
                       </c:pt>
@@ -15922,6 +15994,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2026</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16336,10 +16411,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>' Total Expenditure Yearly'!$A$2:$A$27</c:f>
+              <c:f>' Total Expenditure Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -16417,16 +16492,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Total Expenditure Yearly'!$B$2:$B$27</c:f>
+              <c:f>' Total Expenditure Yearly'!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>527.18600000000015</c:v>
                 </c:pt>
@@ -16504,6 +16582,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1371.3125124074327</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1427.8801718321931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16553,10 +16634,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>' Total Expenditure Yearly'!$A$2:$A$27</c:f>
+              <c:f>' Total Expenditure Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -16634,16 +16715,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Total Expenditure Yearly'!$C$2:$C$27</c:f>
+              <c:f>' Total Expenditure Yearly'!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -16721,6 +16805,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1242.0068873429266</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1298.7745191479753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16770,10 +16857,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>' Total Expenditure Yearly'!$A$2:$A$27</c:f>
+              <c:f>' Total Expenditure Yearly'!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -16851,16 +16938,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Total Expenditure Yearly'!$D$2:$D$27</c:f>
+              <c:f>' Total Expenditure Yearly'!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -16938,6 +17028,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1500.6181374719388</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1556.985824516411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17006,13 +17099,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>' Total Expenditure Yearly'!$A$2:$A$27</c15:sqref>
+                          <c15:sqref>' Total Expenditure Yearly'!$A$2:$A$28</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>2000</c:v>
                       </c:pt>
@@ -17090,6 +17183,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2026</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -22064,6 +22160,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -22361,10 +22461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9AB4B5-1BE8-4F17-BBE0-77B710584B11}">
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105:E106"/>
+    <sheetView topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24226,6 +24326,82 @@
         <v>401.99808305372181</v>
       </c>
     </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="9">
+        <v>373.2889353942943</v>
+      </c>
+      <c r="C107" s="9">
+        <v>1481.9386609142243</v>
+      </c>
+      <c r="D107" s="10">
+        <f t="shared" ref="D107:D110" si="4">B107-(_xlfn.STDEV.P(B17:B106)/2)</f>
+        <v>338.5442491327421</v>
+      </c>
+      <c r="E107" s="10">
+        <f t="shared" ref="E107:E110" si="5">B107+(_xlfn.STDEV.P(B17:B106)/2)</f>
+        <v>408.0336216558465</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="9">
+        <v>379.06743235760428</v>
+      </c>
+      <c r="C108" s="9">
+        <v>1492.2675844856878</v>
+      </c>
+      <c r="D108" s="10">
+        <f t="shared" si="4"/>
+        <v>344.1824256510431</v>
+      </c>
+      <c r="E108" s="10">
+        <f t="shared" si="5"/>
+        <v>413.95243906416545</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="9">
+        <v>384.04818318039662</v>
+      </c>
+      <c r="C109" s="9">
+        <v>1500.8828624354255</v>
+      </c>
+      <c r="D109" s="10">
+        <f t="shared" si="4"/>
+        <v>348.8438325971548</v>
+      </c>
+      <c r="E109" s="10">
+        <f t="shared" si="5"/>
+        <v>419.25253376363844</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="9">
+        <v>389.15487804079925</v>
+      </c>
+      <c r="C110" s="9">
+        <v>1516.4609719854836</v>
+      </c>
+      <c r="D110" s="10">
+        <f t="shared" si="4"/>
+        <v>353.75822450444451</v>
+      </c>
+      <c r="E110" s="10">
+        <f t="shared" si="5"/>
+        <v>424.55153157715398</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24236,10 +24412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4A1349-5152-4296-BA6A-B5CBC0E8B26F}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="D106" sqref="D106:E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26090,6 +26266,82 @@
         <v>402.42344909571136</v>
       </c>
     </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="9">
+        <v>373.02472386089346</v>
+      </c>
+      <c r="C107" s="9">
+        <v>1652.7055891132879</v>
+      </c>
+      <c r="D107" s="10">
+        <f t="shared" ref="D107:D110" si="4">B107-(_xlfn.STDEV.P(B17:B106)/2)</f>
+        <v>339.46437578666593</v>
+      </c>
+      <c r="E107" s="10">
+        <f t="shared" ref="E107:E110" si="5">B107+(_xlfn.STDEV.P(B17:B106)/2)</f>
+        <v>406.58507193512099</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="9">
+        <v>376.75800311702432</v>
+      </c>
+      <c r="C108" s="9">
+        <v>1664.5465471150876</v>
+      </c>
+      <c r="D108" s="10">
+        <f t="shared" si="4"/>
+        <v>343.1080487968141</v>
+      </c>
+      <c r="E108" s="10">
+        <f t="shared" si="5"/>
+        <v>410.40795743723453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="9">
+        <v>382.09699837132547</v>
+      </c>
+      <c r="C109" s="9">
+        <v>1688.3756467184492</v>
+      </c>
+      <c r="D109" s="10">
+        <f t="shared" si="4"/>
+        <v>348.04329996579395</v>
+      </c>
+      <c r="E109" s="10">
+        <f t="shared" si="5"/>
+        <v>416.15069677685699</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="9">
+        <v>387.71886485117943</v>
+      </c>
+      <c r="C110" s="9">
+        <v>1710.7771996741903</v>
+      </c>
+      <c r="D110" s="10">
+        <f t="shared" si="4"/>
+        <v>353.64341953045795</v>
+      </c>
+      <c r="E110" s="10">
+        <f t="shared" si="5"/>
+        <v>421.79431017190092</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26099,10 +26351,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD733903-6132-4601-82D1-0EC76750991E}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105:E106"/>
+      <selection activeCell="D106" sqref="D106:E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27953,6 +28205,82 @@
         <v>306.92830635937855</v>
       </c>
     </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="9">
+        <v>280.55740965453174</v>
+      </c>
+      <c r="C107" s="9">
+        <v>1421.2982517139858</v>
+      </c>
+      <c r="D107" s="10">
+        <f t="shared" ref="D107:D110" si="4">B107-(_xlfn.STDEV.P(B17:B106)/2)</f>
+        <v>255.00411074740487</v>
+      </c>
+      <c r="E107" s="10">
+        <f t="shared" ref="E107:E110" si="5">B107+(_xlfn.STDEV.P(B17:B106)/2)</f>
+        <v>306.11070856165861</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="9">
+        <v>287.48954034826403</v>
+      </c>
+      <c r="C108" s="9">
+        <v>1432.3828977911344</v>
+      </c>
+      <c r="D108" s="10">
+        <f t="shared" si="4"/>
+        <v>262.24290450548932</v>
+      </c>
+      <c r="E108" s="10">
+        <f t="shared" si="5"/>
+        <v>312.73617619103874</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="9">
+        <v>288.13190139134912</v>
+      </c>
+      <c r="C109" s="9">
+        <v>1448.8076125072487</v>
+      </c>
+      <c r="D109" s="10">
+        <f t="shared" si="4"/>
+        <v>263.06244462070958</v>
+      </c>
+      <c r="E109" s="10">
+        <f t="shared" si="5"/>
+        <v>313.20135816198865</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="9">
+        <v>294.17583445390557</v>
+      </c>
+      <c r="C110" s="9">
+        <v>1457.6731990875276</v>
+      </c>
+      <c r="D110" s="10">
+        <f t="shared" si="4"/>
+        <v>269.27871449687427</v>
+      </c>
+      <c r="E110" s="10">
+        <f t="shared" si="5"/>
+        <v>319.07295441093686</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27962,10 +28290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+      <selection activeCell="D106" sqref="D106:E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29816,6 +30144,82 @@
         <v>382.62662726630799</v>
       </c>
     </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="9">
+        <v>349.6780335101663</v>
+      </c>
+      <c r="C107" s="9">
+        <v>1633.4056220746966</v>
+      </c>
+      <c r="D107" s="10">
+        <f t="shared" ref="D107:D110" si="4">B107-(_xlfn.STDEV.P(B17:B106)/2)</f>
+        <v>316.29040151925352</v>
+      </c>
+      <c r="E107" s="10">
+        <f t="shared" ref="E107:E110" si="5">B107+(_xlfn.STDEV.P(B17:B106)/2)</f>
+        <v>383.06566550107908</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="9">
+        <v>354.81982678266712</v>
+      </c>
+      <c r="C108" s="9">
+        <v>1646.0704352157993</v>
+      </c>
+      <c r="D108" s="10">
+        <f t="shared" si="4"/>
+        <v>321.56806183264945</v>
+      </c>
+      <c r="E108" s="10">
+        <f t="shared" si="5"/>
+        <v>388.07159173268479</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="9">
+        <v>360.60212244825976</v>
+      </c>
+      <c r="C109" s="9">
+        <v>1683.6013836236648</v>
+      </c>
+      <c r="D109" s="10">
+        <f t="shared" si="4"/>
+        <v>327.2287494487756</v>
+      </c>
+      <c r="E109" s="10">
+        <f t="shared" si="5"/>
+        <v>393.97549544774392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="9">
+        <v>362.7801890911</v>
+      </c>
+      <c r="C110" s="9">
+        <v>1703.842078091885</v>
+      </c>
+      <c r="D110" s="10">
+        <f t="shared" si="4"/>
+        <v>329.51571057318603</v>
+      </c>
+      <c r="E110" s="10">
+        <f t="shared" si="5"/>
+        <v>396.04466760901397</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29826,10 +30230,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62DE25F-4940-44D7-8659-54912D442C92}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30403,6 +30807,27 @@
         <v>1371.3125124074327</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B28" s="10">
+        <f>SUM('Revenue Current'!$B$107:$B$110)</f>
+        <v>1525.5594289730946</v>
+      </c>
+      <c r="C28" s="10">
+        <f>SUM('Total Revenue and Grants'!$B$107:$B$110)</f>
+        <v>1519.5985902004227</v>
+      </c>
+      <c r="D28" s="10">
+        <f>SUM( 'Expenditure Current'!$B$107:$B$110)</f>
+        <v>1150.3546858480504</v>
+      </c>
+      <c r="E28" s="10">
+        <f>SUM( 'Total Expenditure'!$B$107:$B$110)</f>
+        <v>1427.8801718321931</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30410,10 +30835,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470B3BD9-D9D9-411A-BFE7-DE787F2A6341}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30442,7 +30867,6 @@
         <v>2000</v>
       </c>
       <c r="B2" s="15">
-        <f>SUM('Revenue Current'!$B$3:$B$6)</f>
         <v>338.78899999999999</v>
       </c>
       <c r="C2" s="15" t="e">
@@ -30457,7 +30881,6 @@
         <v>2001</v>
       </c>
       <c r="B3" s="15">
-        <f>SUM('Revenue Current'!$B$7:$B$10)</f>
         <v>402.37299999999999</v>
       </c>
       <c r="C3" s="15" t="e">
@@ -30472,7 +30895,6 @@
         <v>2002</v>
       </c>
       <c r="B4" s="15">
-        <f>SUM('Revenue Current'!$B$11:$B$14)</f>
         <v>411.66599999999994</v>
       </c>
       <c r="C4" s="15" t="e">
@@ -30487,7 +30909,6 @@
         <v>2003</v>
       </c>
       <c r="B5" s="15">
-        <f>SUM('Revenue Current'!$B$15:$B$18)</f>
         <v>433.37099999999998</v>
       </c>
       <c r="C5" s="15" t="e">
@@ -30502,7 +30923,6 @@
         <v>2004</v>
       </c>
       <c r="B6" s="15">
-        <f>SUM('Revenue Current'!$B$19:$B$22)</f>
         <v>456.22800000000007</v>
       </c>
       <c r="C6" s="15" t="e">
@@ -30517,7 +30937,6 @@
         <v>2005</v>
       </c>
       <c r="B7" s="15">
-        <f>SUM('Revenue Current'!$B$23:$B$26)</f>
         <v>529.82000000000005</v>
       </c>
       <c r="C7" s="15" t="e">
@@ -30532,7 +30951,6 @@
         <v>2006</v>
       </c>
       <c r="B8" s="15">
-        <f>SUM('Revenue Current'!$B$27:$B$30)</f>
         <v>586.46500000000003</v>
       </c>
       <c r="C8" s="15" t="e">
@@ -30547,7 +30965,6 @@
         <v>2007</v>
       </c>
       <c r="B9" s="15">
-        <f>SUM('Revenue Current'!$B$31:$B$33)</f>
         <v>495.04500000000007</v>
       </c>
       <c r="C9" s="15" t="e">
@@ -30562,7 +30979,6 @@
         <v>2008</v>
       </c>
       <c r="B10" s="15">
-        <f>SUM('Revenue Current'!$B$34:$B$37)</f>
         <v>732.34400000000005</v>
       </c>
       <c r="C10" s="15" t="e">
@@ -30577,7 +30993,6 @@
         <v>2009</v>
       </c>
       <c r="B11" s="15">
-        <f>SUM('Revenue Current'!$B$39:$B$42)</f>
         <v>696.73216238000009</v>
       </c>
       <c r="C11" s="15" t="e">
@@ -30592,7 +31007,6 @@
         <v>2010</v>
       </c>
       <c r="B12" s="15">
-        <f>SUM('Revenue Current'!$B$43:$B$46)</f>
         <v>766.15637277488065</v>
       </c>
       <c r="C12" s="15" t="e">
@@ -30607,7 +31021,6 @@
         <v>2011</v>
       </c>
       <c r="B13" s="15">
-        <f>SUM('Revenue Current'!$B$47:$B$50)</f>
         <v>795.86856776000013</v>
       </c>
       <c r="C13" s="15" t="e">
@@ -30622,7 +31035,6 @@
         <v>2012</v>
       </c>
       <c r="B14" s="15">
-        <f>SUM('Revenue Current'!$B$51:$B$54)</f>
         <v>814.36172873000021</v>
       </c>
       <c r="C14" s="15" t="e">
@@ -30637,7 +31049,6 @@
         <v>2013</v>
       </c>
       <c r="B15" s="15">
-        <f>SUM('Revenue Current'!$B$55:$B$58)</f>
         <v>865.90432022999994</v>
       </c>
       <c r="C15" s="15" t="e">
@@ -30652,7 +31063,6 @@
         <v>2014</v>
       </c>
       <c r="B16" s="15">
-        <f>SUM('Revenue Current'!$B$59:$B$62)</f>
         <v>960.80008016099998</v>
       </c>
       <c r="C16" s="15" t="e">
@@ -30667,7 +31077,6 @@
         <v>2015</v>
       </c>
       <c r="B17" s="15">
-        <f>SUM('Revenue Current'!$B$63:$B$66)</f>
         <v>972.88620311</v>
       </c>
       <c r="C17" s="15" t="e">
@@ -30682,7 +31091,6 @@
         <v>2016</v>
       </c>
       <c r="B18" s="15">
-        <f>SUM('Revenue Current'!$B$67:$B$70)</f>
         <v>1004.0287535799998</v>
       </c>
       <c r="C18" s="15" t="e">
@@ -30697,7 +31105,6 @@
         <v>2017</v>
       </c>
       <c r="B19" s="15">
-        <f>SUM('Revenue Current'!$B$71:$B$74)</f>
         <v>1087.9859353200002</v>
       </c>
       <c r="C19" s="15" t="e">
@@ -30712,7 +31119,6 @@
         <v>2018</v>
       </c>
       <c r="B20" s="15">
-        <f>SUM('Revenue Current'!$B$75:$B$78)</f>
         <v>1144.1160055400001</v>
       </c>
       <c r="C20" s="15" t="e">
@@ -30727,7 +31133,6 @@
         <v>2019</v>
       </c>
       <c r="B21" s="15">
-        <f>SUM('Revenue Current'!$B$79:$B$82)</f>
         <v>1141.9491431699998</v>
       </c>
       <c r="C21" s="15" t="e">
@@ -30742,7 +31147,6 @@
         <v>2020</v>
       </c>
       <c r="B22" s="15">
-        <f>SUM('Revenue Current'!$B$83:$B$86)</f>
         <v>874.59354385999995</v>
       </c>
       <c r="C22" s="15" t="e">
@@ -30757,7 +31161,6 @@
         <v>2021</v>
       </c>
       <c r="B23" s="15">
-        <f>SUM('Revenue Current'!$B$87:$B$90)</f>
         <v>1164.9753499599999</v>
       </c>
       <c r="C23" s="15">
@@ -30774,7 +31177,6 @@
         <v>2022</v>
       </c>
       <c r="B24" s="10">
-        <f>SUM('Revenue Current'!$B$91:$B$94)</f>
         <v>1220.0970610729307</v>
       </c>
       <c r="C24" s="10">
@@ -30791,7 +31193,6 @@
         <v>2023</v>
       </c>
       <c r="B25" s="10">
-        <f>SUM('Revenue Current'!$B$95:$B$98)</f>
         <v>1291.0773702930728</v>
       </c>
       <c r="C25" s="10">
@@ -30808,7 +31209,6 @@
         <v>2024</v>
       </c>
       <c r="B26" s="10">
-        <f>SUM('Revenue Current'!$B$99:$B$102)</f>
         <v>1363.957623438894</v>
       </c>
       <c r="C26" s="10">
@@ -30825,7 +31225,6 @@
         <v>2025</v>
       </c>
       <c r="B27" s="10">
-        <f>SUM('Revenue Current'!$B$103:$B$106)</f>
         <v>1442.2107850635657</v>
       </c>
       <c r="C27" s="10">
@@ -30835,6 +31234,22 @@
       <c r="D27" s="10">
         <f t="shared" si="1"/>
         <v>1578.2331830695966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1525.5594289730946</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28" si="2">B28-_xlfn.STDEV.P(B6:B27)/2</f>
+        <v>1386.7753065575944</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28" si="3">B28+_xlfn.STDEV.P(B6:B27)/2</f>
+        <v>1664.3435513885947</v>
       </c>
     </row>
   </sheetData>
@@ -30846,10 +31261,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA7D2A-0085-44C6-974D-1E6E00F6E585}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31273,6 +31688,23 @@
         <v>1575.3575619661815</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B28" s="10">
+        <f>SUM('Total Revenue and Grants'!$B$107:$B$110)</f>
+        <v>1519.5985902004227</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28" si="2">B28-_xlfn.STDEV.P(B6:B27)/2</f>
+        <v>1386.6150930915358</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28" si="3">B28+_xlfn.STDEV.P(B6:B27)/2</f>
+        <v>1652.5820873093096</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31282,10 +31714,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1E5342-B4E2-43A6-AE60-EDF98511EA1F}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31709,6 +32141,23 @@
         <v>1199.2216486586944</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B28" s="10">
+        <f>SUM( 'Expenditure Current'!$B$107:$B$110)</f>
+        <v>1150.3546858480504</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28" si="2">B28-_xlfn.STDEV.P(B6:B27)/2</f>
+        <v>1050.6111787312725</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28" si="3">B28+_xlfn.STDEV.P(B6:B27)/2</f>
+        <v>1250.0981929648283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31718,10 +32167,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BFFC21-10E3-4D87-95C6-8106DC0C8D0D}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32145,6 +32594,23 @@
         <v>1500.6181374719388</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B28" s="10">
+        <f>SUM( 'Total Expenditure'!$B$107:$B$110)</f>
+        <v>1427.8801718321931</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28" si="2">B28-_xlfn.STDEV.P(B6:B27)/2</f>
+        <v>1298.7745191479753</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28" si="3">B28+_xlfn.STDEV.P(B6:B27)/2</f>
+        <v>1556.985824516411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
